--- a/positioned blocks/01.xlsx
+++ b/positioned blocks/01.xlsx
@@ -66,14 +66,63 @@
     <t>11/43*100=25.6%</t>
   </si>
   <si>
-    <t>定边方法：
+    <r>
+      <t>定边方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1. 垂直方向上，从1开始遍历画布上每一列c，如果该列左侧的任一值与右侧的的值不一致，则此时c为垂直方向上的一个边界。水平方向，从1开始遍历画布上每一行r，算法与垂直定边算法相似。
 2. 如果c==列数-1，表示水平方向上定边失败；如果r==行数-1，表示垂直方向上定边失败。定边失败，且该区块包含大于2个子块时，该块只能按照定宽布局，无视所有子块在水平/垂直方向上width的百分比特性。
-定grow方法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定grow方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 定边法切分后，可以将一块区域从水平或者垂直方向切分为多块，每块的grow值的确定方法，以水平方向为例，按行累计width被设置为百分比的单元格数量，累计过程不局限在一个块内，凡是width被设置为百分比的单元格都累加。最终每一行可以得到一个数字，取最大数字作为该块的grow值。
 如果grow为0，则表示该块在水平方向上定宽，此时应该按照定宽算法计算其绝对宽度。
-定宽计算方法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定宽计算方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 无论垂直还是水平方向，定宽算法很简单：在一个方向上的单元格数量*单位宽度（例如8px）</t>
+    </r>
   </si>
   <si>
     <t>a</t>
@@ -95,7 +144,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +160,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -688,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,137 +756,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,9 +1022,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,21 +1034,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,18 +1049,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,16 +1061,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="A1:BX109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="AY54" sqref="AY54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="BJ46" sqref="BJ46:BJ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" customHeight="1"/>
@@ -2662,7 +2694,7 @@
       <c r="AM40" s="26"/>
       <c r="AN40" s="26"/>
     </row>
-    <row r="41" customHeight="1" spans="1:40">
+    <row r="41" customHeight="1" spans="1:71">
       <c r="A41" s="26" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2750,35 @@
       <c r="AL41" s="26"/>
       <c r="AM41" s="26"/>
       <c r="AN41" s="26"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:40">
+      <c r="BJ41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN41" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:71">
       <c r="A42" s="26" t="s">
         <v>3</v>
       </c>
@@ -2775,8 +2834,35 @@
       <c r="AL42" s="26"/>
       <c r="AM42" s="26"/>
       <c r="AN42" s="26"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:40">
+      <c r="BJ42" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS42" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:71">
       <c r="A43" s="26" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +2918,35 @@
       <c r="AL43" s="26"/>
       <c r="AM43" s="26"/>
       <c r="AN43" s="26"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:40">
+      <c r="BJ43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS43" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:71">
       <c r="A44" s="26" t="s">
         <v>3</v>
       </c>
@@ -2889,6 +3002,33 @@
       <c r="AL44" s="26"/>
       <c r="AM44" s="26"/>
       <c r="AN44" s="26"/>
+      <c r="BJ44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS44" s="26" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customHeight="1" spans="1:40">
       <c r="A45" s="26" t="s">
@@ -2947,7 +3087,7 @@
       <c r="AM45" s="26"/>
       <c r="AN45" s="26"/>
     </row>
-    <row r="46" customHeight="1" spans="1:40">
+    <row r="46" customHeight="1" spans="1:71">
       <c r="A46" s="26" t="s">
         <v>3</v>
       </c>
@@ -3003,8 +3143,35 @@
       <c r="AL46" s="26"/>
       <c r="AM46" s="26"/>
       <c r="AN46" s="26"/>
-    </row>
-    <row r="47" customHeight="1" spans="32:40">
+      <c r="BJ46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS46" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="32:71">
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
       <c r="AH47" s="26"/>
@@ -3014,8 +3181,35 @@
       <c r="AL47" s="26"/>
       <c r="AM47" s="26"/>
       <c r="AN47" s="26"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:40">
+      <c r="BJ47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS47" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:71">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -3055,8 +3249,35 @@
       <c r="AL48" s="26"/>
       <c r="AM48" s="26"/>
       <c r="AN48" s="26"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:40">
+      <c r="BJ48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS48" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:71">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -3096,8 +3317,35 @@
       <c r="AL49" s="26"/>
       <c r="AM49" s="26"/>
       <c r="AN49" s="26"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:40">
+      <c r="BJ49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS49" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:71">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -3137,8 +3385,35 @@
       <c r="AL50" s="26"/>
       <c r="AM50" s="26"/>
       <c r="AN50" s="26"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:40">
+      <c r="BJ50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS50" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:71">
       <c r="A51" s="25" t="s">
         <v>5</v>
       </c>
@@ -3259,8 +3534,35 @@
       <c r="AN51" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:40">
+      <c r="BJ51" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK51" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL51" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS51" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:71">
       <c r="A52" s="28" t="s">
         <v>6</v>
       </c>
@@ -3306,15 +3608,42 @@
       <c r="AE52" s="40"/>
       <c r="AF52" s="40"/>
       <c r="AG52" s="40"/>
-      <c r="AH52" s="54"/>
-      <c r="AI52" s="55" t="s">
+      <c r="AH52" s="45"/>
+      <c r="AI52" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="57"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="53"/>
+      <c r="BJ52" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK52" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL52" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS52" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" customHeight="1" spans="1:40">
       <c r="A53" s="28"/>
@@ -3348,13 +3677,13 @@
       <c r="AE53" s="28"/>
       <c r="AF53" s="28"/>
       <c r="AG53" s="28"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="48"/>
-      <c r="AK53" s="48"/>
-      <c r="AL53" s="48"/>
-      <c r="AM53" s="48"/>
-      <c r="AN53" s="60"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="54"/>
     </row>
     <row r="54" customHeight="1" spans="1:40">
       <c r="A54" s="28"/>
@@ -3388,13 +3717,13 @@
       <c r="AE54" s="43"/>
       <c r="AF54" s="43"/>
       <c r="AG54" s="43"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="62"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="63"/>
-      <c r="AM54" s="63"/>
-      <c r="AN54" s="64"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="57"/>
     </row>
     <row r="56" s="25" customFormat="1" customHeight="1" spans="1:40">
       <c r="A56" s="28" t="s">
@@ -3444,15 +3773,15 @@
       <c r="AE56" s="40"/>
       <c r="AF56" s="40"/>
       <c r="AG56" s="40"/>
-      <c r="AH56" s="54"/>
-      <c r="AI56" s="55" t="s">
+      <c r="AH56" s="45"/>
+      <c r="AI56" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="56"/>
-      <c r="AL56" s="56"/>
-      <c r="AM56" s="56"/>
-      <c r="AN56" s="57"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="53"/>
     </row>
     <row r="57" s="25" customFormat="1" customHeight="1" spans="1:40">
       <c r="A57" s="28"/>
@@ -3488,13 +3817,13 @@
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
       <c r="AG57" s="28"/>
-      <c r="AH57" s="58"/>
-      <c r="AI57" s="59"/>
-      <c r="AJ57" s="48"/>
-      <c r="AK57" s="48"/>
-      <c r="AL57" s="48"/>
-      <c r="AM57" s="48"/>
-      <c r="AN57" s="60"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="47"/>
+      <c r="AL57" s="47"/>
+      <c r="AM57" s="47"/>
+      <c r="AN57" s="54"/>
     </row>
     <row r="58" s="25" customFormat="1" customHeight="1" spans="1:40">
       <c r="A58" s="28"/>
@@ -3530,13 +3859,13 @@
       <c r="AE58" s="43"/>
       <c r="AF58" s="43"/>
       <c r="AG58" s="43"/>
-      <c r="AH58" s="61"/>
-      <c r="AI58" s="62"/>
-      <c r="AJ58" s="63"/>
-      <c r="AK58" s="63"/>
-      <c r="AL58" s="63"/>
-      <c r="AM58" s="63"/>
-      <c r="AN58" s="64"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="56"/>
+      <c r="AL58" s="56"/>
+      <c r="AM58" s="56"/>
+      <c r="AN58" s="57"/>
     </row>
     <row r="60" customHeight="1" spans="1:54">
       <c r="A60" s="25" t="s">
@@ -3709,7 +4038,6 @@
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="25"/>
       <c r="F61" s="30" t="s">
         <v>13</v>
       </c>
@@ -3733,49 +4061,46 @@
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
       <c r="Z61" s="44"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="45" t="s">
+      <c r="AB61" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AC61" s="46"/>
-      <c r="AD61" s="47" t="s">
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AE61" s="48"/>
-      <c r="AF61" s="48"/>
-      <c r="AG61" s="48"/>
-      <c r="AH61" s="48"/>
-      <c r="AI61" s="48"/>
-      <c r="AJ61" s="48"/>
-      <c r="AK61" s="48"/>
-      <c r="AL61" s="48"/>
-      <c r="AM61" s="48"/>
-      <c r="AN61" s="65"/>
-      <c r="AO61" s="25"/>
-      <c r="AP61" s="45" t="s">
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="47"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="54"/>
+      <c r="AP61" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AQ61" s="46"/>
-      <c r="AR61" s="47" t="s">
+      <c r="AQ61" s="45"/>
+      <c r="AR61" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AS61" s="48"/>
-      <c r="AT61" s="48"/>
-      <c r="AU61" s="48"/>
-      <c r="AV61" s="48"/>
-      <c r="AW61" s="48"/>
-      <c r="AX61" s="48"/>
-      <c r="AY61" s="48"/>
-      <c r="AZ61" s="48"/>
-      <c r="BA61" s="48"/>
-      <c r="BB61" s="65"/>
+      <c r="AS61" s="47"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="47"/>
+      <c r="AX61" s="47"/>
+      <c r="AY61" s="47"/>
+      <c r="AZ61" s="47"/>
+      <c r="BA61" s="47"/>
+      <c r="BB61" s="54"/>
     </row>
     <row r="62" customHeight="1" spans="1:54">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="25"/>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
@@ -3796,42 +4121,39 @@
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="50"/>
+      <c r="Z62" s="48"/>
+      <c r="AB62" s="41"/>
       <c r="AC62" s="38"/>
-      <c r="AD62" s="47"/>
-      <c r="AE62" s="48"/>
-      <c r="AF62" s="48"/>
-      <c r="AG62" s="48"/>
-      <c r="AH62" s="48"/>
-      <c r="AI62" s="48"/>
-      <c r="AJ62" s="48"/>
-      <c r="AK62" s="48"/>
-      <c r="AL62" s="48"/>
-      <c r="AM62" s="48"/>
-      <c r="AN62" s="65"/>
-      <c r="AO62" s="25"/>
-      <c r="AP62" s="50"/>
+      <c r="AD62" s="46"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="47"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="47"/>
+      <c r="AL62" s="47"/>
+      <c r="AM62" s="47"/>
+      <c r="AN62" s="54"/>
+      <c r="AP62" s="41"/>
       <c r="AQ62" s="38"/>
-      <c r="AR62" s="47"/>
-      <c r="AS62" s="48"/>
-      <c r="AT62" s="48"/>
-      <c r="AU62" s="48"/>
-      <c r="AV62" s="48"/>
-      <c r="AW62" s="48"/>
-      <c r="AX62" s="48"/>
-      <c r="AY62" s="48"/>
-      <c r="AZ62" s="48"/>
-      <c r="BA62" s="48"/>
-      <c r="BB62" s="65"/>
+      <c r="AR62" s="46"/>
+      <c r="AS62" s="47"/>
+      <c r="AT62" s="47"/>
+      <c r="AU62" s="47"/>
+      <c r="AV62" s="47"/>
+      <c r="AW62" s="47"/>
+      <c r="AX62" s="47"/>
+      <c r="AY62" s="47"/>
+      <c r="AZ62" s="47"/>
+      <c r="BA62" s="47"/>
+      <c r="BB62" s="54"/>
     </row>
     <row r="63" customHeight="1" spans="1:54">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="25"/>
       <c r="F63" s="34"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
@@ -3852,35 +4174,33 @@
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="48"/>
-      <c r="AF63" s="48"/>
-      <c r="AG63" s="48"/>
-      <c r="AH63" s="48"/>
-      <c r="AI63" s="48"/>
-      <c r="AJ63" s="48"/>
-      <c r="AK63" s="48"/>
-      <c r="AL63" s="48"/>
-      <c r="AM63" s="48"/>
-      <c r="AN63" s="65"/>
-      <c r="AO63" s="25"/>
-      <c r="AP63" s="52"/>
-      <c r="AQ63" s="53"/>
-      <c r="AR63" s="47"/>
-      <c r="AS63" s="48"/>
-      <c r="AT63" s="48"/>
-      <c r="AU63" s="48"/>
-      <c r="AV63" s="48"/>
-      <c r="AW63" s="48"/>
-      <c r="AX63" s="48"/>
-      <c r="AY63" s="48"/>
-      <c r="AZ63" s="48"/>
-      <c r="BA63" s="48"/>
-      <c r="BB63" s="65"/>
+      <c r="Z63" s="49"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="47"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="47"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="47"/>
+      <c r="AL63" s="47"/>
+      <c r="AM63" s="47"/>
+      <c r="AN63" s="54"/>
+      <c r="AP63" s="42"/>
+      <c r="AQ63" s="50"/>
+      <c r="AR63" s="46"/>
+      <c r="AS63" s="47"/>
+      <c r="AT63" s="47"/>
+      <c r="AU63" s="47"/>
+      <c r="AV63" s="47"/>
+      <c r="AW63" s="47"/>
+      <c r="AX63" s="47"/>
+      <c r="AY63" s="47"/>
+      <c r="AZ63" s="47"/>
+      <c r="BA63" s="47"/>
+      <c r="BB63" s="54"/>
     </row>
     <row r="65" customHeight="1" spans="1:76">
       <c r="A65" s="26"/>
@@ -3889,35 +4209,35 @@
       <c r="D65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
-      <c r="AX65" s="66" t="s">
+      <c r="AX65" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AY65" s="67"/>
-      <c r="AZ65" s="67"/>
-      <c r="BA65" s="67"/>
-      <c r="BB65" s="67"/>
-      <c r="BC65" s="67"/>
-      <c r="BD65" s="67"/>
-      <c r="BE65" s="67"/>
-      <c r="BF65" s="67"/>
-      <c r="BG65" s="67"/>
-      <c r="BH65" s="67"/>
-      <c r="BI65" s="67"/>
-      <c r="BJ65" s="67"/>
-      <c r="BK65" s="67"/>
-      <c r="BL65" s="67"/>
-      <c r="BM65" s="67"/>
-      <c r="BN65" s="67"/>
-      <c r="BO65" s="67"/>
-      <c r="BP65" s="67"/>
-      <c r="BQ65" s="67"/>
-      <c r="BR65" s="67"/>
-      <c r="BS65" s="67"/>
-      <c r="BT65" s="67"/>
-      <c r="BU65" s="67"/>
-      <c r="BV65" s="67"/>
-      <c r="BW65" s="67"/>
-      <c r="BX65" s="67"/>
+      <c r="AY65" s="59"/>
+      <c r="AZ65" s="59"/>
+      <c r="BA65" s="59"/>
+      <c r="BB65" s="59"/>
+      <c r="BC65" s="59"/>
+      <c r="BD65" s="59"/>
+      <c r="BE65" s="59"/>
+      <c r="BF65" s="59"/>
+      <c r="BG65" s="59"/>
+      <c r="BH65" s="59"/>
+      <c r="BI65" s="59"/>
+      <c r="BJ65" s="59"/>
+      <c r="BK65" s="59"/>
+      <c r="BL65" s="59"/>
+      <c r="BM65" s="59"/>
+      <c r="BN65" s="59"/>
+      <c r="BO65" s="59"/>
+      <c r="BP65" s="59"/>
+      <c r="BQ65" s="59"/>
+      <c r="BR65" s="59"/>
+      <c r="BS65" s="59"/>
+      <c r="BT65" s="59"/>
+      <c r="BU65" s="59"/>
+      <c r="BV65" s="59"/>
+      <c r="BW65" s="59"/>
+      <c r="BX65" s="59"/>
     </row>
     <row r="66" customHeight="1" spans="1:76">
       <c r="A66" s="26"/>
@@ -3928,33 +4248,33 @@
       <c r="G66" s="26"/>
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
-      <c r="AX66" s="67"/>
-      <c r="AY66" s="67"/>
-      <c r="AZ66" s="67"/>
-      <c r="BA66" s="67"/>
-      <c r="BB66" s="67"/>
-      <c r="BC66" s="67"/>
-      <c r="BD66" s="67"/>
-      <c r="BE66" s="67"/>
-      <c r="BF66" s="67"/>
-      <c r="BG66" s="67"/>
-      <c r="BH66" s="67"/>
-      <c r="BI66" s="67"/>
-      <c r="BJ66" s="67"/>
-      <c r="BK66" s="67"/>
-      <c r="BL66" s="67"/>
-      <c r="BM66" s="67"/>
-      <c r="BN66" s="67"/>
-      <c r="BO66" s="67"/>
-      <c r="BP66" s="67"/>
-      <c r="BQ66" s="67"/>
-      <c r="BR66" s="67"/>
-      <c r="BS66" s="67"/>
-      <c r="BT66" s="67"/>
-      <c r="BU66" s="67"/>
-      <c r="BV66" s="67"/>
-      <c r="BW66" s="67"/>
-      <c r="BX66" s="67"/>
+      <c r="AX66" s="59"/>
+      <c r="AY66" s="59"/>
+      <c r="AZ66" s="59"/>
+      <c r="BA66" s="59"/>
+      <c r="BB66" s="59"/>
+      <c r="BC66" s="59"/>
+      <c r="BD66" s="59"/>
+      <c r="BE66" s="59"/>
+      <c r="BF66" s="59"/>
+      <c r="BG66" s="59"/>
+      <c r="BH66" s="59"/>
+      <c r="BI66" s="59"/>
+      <c r="BJ66" s="59"/>
+      <c r="BK66" s="59"/>
+      <c r="BL66" s="59"/>
+      <c r="BM66" s="59"/>
+      <c r="BN66" s="59"/>
+      <c r="BO66" s="59"/>
+      <c r="BP66" s="59"/>
+      <c r="BQ66" s="59"/>
+      <c r="BR66" s="59"/>
+      <c r="BS66" s="59"/>
+      <c r="BT66" s="59"/>
+      <c r="BU66" s="59"/>
+      <c r="BV66" s="59"/>
+      <c r="BW66" s="59"/>
+      <c r="BX66" s="59"/>
     </row>
     <row r="67" customHeight="1" spans="6:76">
       <c r="F67" s="26"/>
@@ -3963,33 +4283,33 @@
       <c r="J67" s="26"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
-      <c r="AX67" s="67"/>
-      <c r="AY67" s="67"/>
-      <c r="AZ67" s="67"/>
-      <c r="BA67" s="67"/>
-      <c r="BB67" s="67"/>
-      <c r="BC67" s="67"/>
-      <c r="BD67" s="67"/>
-      <c r="BE67" s="67"/>
-      <c r="BF67" s="67"/>
-      <c r="BG67" s="67"/>
-      <c r="BH67" s="67"/>
-      <c r="BI67" s="67"/>
-      <c r="BJ67" s="67"/>
-      <c r="BK67" s="67"/>
-      <c r="BL67" s="67"/>
-      <c r="BM67" s="67"/>
-      <c r="BN67" s="67"/>
-      <c r="BO67" s="67"/>
-      <c r="BP67" s="67"/>
-      <c r="BQ67" s="67"/>
-      <c r="BR67" s="67"/>
-      <c r="BS67" s="67"/>
-      <c r="BT67" s="67"/>
-      <c r="BU67" s="67"/>
-      <c r="BV67" s="67"/>
-      <c r="BW67" s="67"/>
-      <c r="BX67" s="67"/>
+      <c r="AX67" s="59"/>
+      <c r="AY67" s="59"/>
+      <c r="AZ67" s="59"/>
+      <c r="BA67" s="59"/>
+      <c r="BB67" s="59"/>
+      <c r="BC67" s="59"/>
+      <c r="BD67" s="59"/>
+      <c r="BE67" s="59"/>
+      <c r="BF67" s="59"/>
+      <c r="BG67" s="59"/>
+      <c r="BH67" s="59"/>
+      <c r="BI67" s="59"/>
+      <c r="BJ67" s="59"/>
+      <c r="BK67" s="59"/>
+      <c r="BL67" s="59"/>
+      <c r="BM67" s="59"/>
+      <c r="BN67" s="59"/>
+      <c r="BO67" s="59"/>
+      <c r="BP67" s="59"/>
+      <c r="BQ67" s="59"/>
+      <c r="BR67" s="59"/>
+      <c r="BS67" s="59"/>
+      <c r="BT67" s="59"/>
+      <c r="BU67" s="59"/>
+      <c r="BV67" s="59"/>
+      <c r="BW67" s="59"/>
+      <c r="BX67" s="59"/>
     </row>
     <row r="68" customHeight="1" spans="1:76">
       <c r="A68" s="26"/>
@@ -4002,33 +4322,33 @@
       <c r="J68" s="26"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
-      <c r="AX68" s="67"/>
-      <c r="AY68" s="67"/>
-      <c r="AZ68" s="67"/>
-      <c r="BA68" s="67"/>
-      <c r="BB68" s="67"/>
-      <c r="BC68" s="67"/>
-      <c r="BD68" s="67"/>
-      <c r="BE68" s="67"/>
-      <c r="BF68" s="67"/>
-      <c r="BG68" s="67"/>
-      <c r="BH68" s="67"/>
-      <c r="BI68" s="67"/>
-      <c r="BJ68" s="67"/>
-      <c r="BK68" s="67"/>
-      <c r="BL68" s="67"/>
-      <c r="BM68" s="67"/>
-      <c r="BN68" s="67"/>
-      <c r="BO68" s="67"/>
-      <c r="BP68" s="67"/>
-      <c r="BQ68" s="67"/>
-      <c r="BR68" s="67"/>
-      <c r="BS68" s="67"/>
-      <c r="BT68" s="67"/>
-      <c r="BU68" s="67"/>
-      <c r="BV68" s="67"/>
-      <c r="BW68" s="67"/>
-      <c r="BX68" s="67"/>
+      <c r="AX68" s="59"/>
+      <c r="AY68" s="59"/>
+      <c r="AZ68" s="59"/>
+      <c r="BA68" s="59"/>
+      <c r="BB68" s="59"/>
+      <c r="BC68" s="59"/>
+      <c r="BD68" s="59"/>
+      <c r="BE68" s="59"/>
+      <c r="BF68" s="59"/>
+      <c r="BG68" s="59"/>
+      <c r="BH68" s="59"/>
+      <c r="BI68" s="59"/>
+      <c r="BJ68" s="59"/>
+      <c r="BK68" s="59"/>
+      <c r="BL68" s="59"/>
+      <c r="BM68" s="59"/>
+      <c r="BN68" s="59"/>
+      <c r="BO68" s="59"/>
+      <c r="BP68" s="59"/>
+      <c r="BQ68" s="59"/>
+      <c r="BR68" s="59"/>
+      <c r="BS68" s="59"/>
+      <c r="BT68" s="59"/>
+      <c r="BU68" s="59"/>
+      <c r="BV68" s="59"/>
+      <c r="BW68" s="59"/>
+      <c r="BX68" s="59"/>
     </row>
     <row r="69" customHeight="1" spans="1:76">
       <c r="A69" s="26"/>
@@ -4039,99 +4359,98 @@
       <c r="J69" s="26"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
-      <c r="AX69" s="67"/>
-      <c r="AY69" s="67"/>
-      <c r="AZ69" s="67"/>
-      <c r="BA69" s="67"/>
-      <c r="BB69" s="67"/>
-      <c r="BC69" s="67"/>
-      <c r="BD69" s="67"/>
-      <c r="BE69" s="67"/>
-      <c r="BF69" s="67"/>
-      <c r="BG69" s="67"/>
-      <c r="BH69" s="67"/>
-      <c r="BI69" s="67"/>
-      <c r="BJ69" s="67"/>
-      <c r="BK69" s="67"/>
-      <c r="BL69" s="67"/>
-      <c r="BM69" s="67"/>
-      <c r="BN69" s="67"/>
-      <c r="BO69" s="67"/>
-      <c r="BP69" s="67"/>
-      <c r="BQ69" s="67"/>
-      <c r="BR69" s="67"/>
-      <c r="BS69" s="67"/>
-      <c r="BT69" s="67"/>
-      <c r="BU69" s="67"/>
-      <c r="BV69" s="67"/>
-      <c r="BW69" s="67"/>
-      <c r="BX69" s="67"/>
+      <c r="AX69" s="59"/>
+      <c r="AY69" s="59"/>
+      <c r="AZ69" s="59"/>
+      <c r="BA69" s="59"/>
+      <c r="BB69" s="59"/>
+      <c r="BC69" s="59"/>
+      <c r="BD69" s="59"/>
+      <c r="BE69" s="59"/>
+      <c r="BF69" s="59"/>
+      <c r="BG69" s="59"/>
+      <c r="BH69" s="59"/>
+      <c r="BI69" s="59"/>
+      <c r="BJ69" s="59"/>
+      <c r="BK69" s="59"/>
+      <c r="BL69" s="59"/>
+      <c r="BM69" s="59"/>
+      <c r="BN69" s="59"/>
+      <c r="BO69" s="59"/>
+      <c r="BP69" s="59"/>
+      <c r="BQ69" s="59"/>
+      <c r="BR69" s="59"/>
+      <c r="BS69" s="59"/>
+      <c r="BT69" s="59"/>
+      <c r="BU69" s="59"/>
+      <c r="BV69" s="59"/>
+      <c r="BW69" s="59"/>
+      <c r="BX69" s="59"/>
     </row>
     <row r="70" customHeight="1" spans="12:76">
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
-      <c r="AX70" s="67"/>
-      <c r="AY70" s="67"/>
-      <c r="AZ70" s="67"/>
-      <c r="BA70" s="67"/>
-      <c r="BB70" s="67"/>
-      <c r="BC70" s="67"/>
-      <c r="BD70" s="67"/>
-      <c r="BE70" s="67"/>
-      <c r="BF70" s="67"/>
-      <c r="BG70" s="67"/>
-      <c r="BH70" s="67"/>
-      <c r="BI70" s="67"/>
-      <c r="BJ70" s="67"/>
-      <c r="BK70" s="67"/>
-      <c r="BL70" s="67"/>
-      <c r="BM70" s="67"/>
-      <c r="BN70" s="67"/>
-      <c r="BO70" s="67"/>
-      <c r="BP70" s="67"/>
-      <c r="BQ70" s="67"/>
-      <c r="BR70" s="67"/>
-      <c r="BS70" s="67"/>
-      <c r="BT70" s="67"/>
-      <c r="BU70" s="67"/>
-      <c r="BV70" s="67"/>
-      <c r="BW70" s="67"/>
-      <c r="BX70" s="67"/>
+      <c r="AX70" s="59"/>
+      <c r="AY70" s="59"/>
+      <c r="AZ70" s="59"/>
+      <c r="BA70" s="59"/>
+      <c r="BB70" s="59"/>
+      <c r="BC70" s="59"/>
+      <c r="BD70" s="59"/>
+      <c r="BE70" s="59"/>
+      <c r="BF70" s="59"/>
+      <c r="BG70" s="59"/>
+      <c r="BH70" s="59"/>
+      <c r="BI70" s="59"/>
+      <c r="BJ70" s="59"/>
+      <c r="BK70" s="59"/>
+      <c r="BL70" s="59"/>
+      <c r="BM70" s="59"/>
+      <c r="BN70" s="59"/>
+      <c r="BO70" s="59"/>
+      <c r="BP70" s="59"/>
+      <c r="BQ70" s="59"/>
+      <c r="BR70" s="59"/>
+      <c r="BS70" s="59"/>
+      <c r="BT70" s="59"/>
+      <c r="BU70" s="59"/>
+      <c r="BV70" s="59"/>
+      <c r="BW70" s="59"/>
+      <c r="BX70" s="59"/>
     </row>
     <row r="71" customHeight="1" spans="50:76">
-      <c r="AX71" s="67"/>
-      <c r="AY71" s="67"/>
-      <c r="AZ71" s="67"/>
-      <c r="BA71" s="67"/>
-      <c r="BB71" s="67"/>
-      <c r="BC71" s="67"/>
-      <c r="BD71" s="67"/>
-      <c r="BE71" s="67"/>
-      <c r="BF71" s="67"/>
-      <c r="BG71" s="67"/>
-      <c r="BH71" s="67"/>
-      <c r="BI71" s="67"/>
-      <c r="BJ71" s="67"/>
-      <c r="BK71" s="67"/>
-      <c r="BL71" s="67"/>
-      <c r="BM71" s="67"/>
-      <c r="BN71" s="67"/>
-      <c r="BO71" s="67"/>
-      <c r="BP71" s="67"/>
-      <c r="BQ71" s="67"/>
-      <c r="BR71" s="67"/>
-      <c r="BS71" s="67"/>
-      <c r="BT71" s="67"/>
-      <c r="BU71" s="67"/>
-      <c r="BV71" s="67"/>
-      <c r="BW71" s="67"/>
-      <c r="BX71" s="67"/>
+      <c r="AX71" s="59"/>
+      <c r="AY71" s="59"/>
+      <c r="AZ71" s="59"/>
+      <c r="BA71" s="59"/>
+      <c r="BB71" s="59"/>
+      <c r="BC71" s="59"/>
+      <c r="BD71" s="59"/>
+      <c r="BE71" s="59"/>
+      <c r="BF71" s="59"/>
+      <c r="BG71" s="59"/>
+      <c r="BH71" s="59"/>
+      <c r="BI71" s="59"/>
+      <c r="BJ71" s="59"/>
+      <c r="BK71" s="59"/>
+      <c r="BL71" s="59"/>
+      <c r="BM71" s="59"/>
+      <c r="BN71" s="59"/>
+      <c r="BO71" s="59"/>
+      <c r="BP71" s="59"/>
+      <c r="BQ71" s="59"/>
+      <c r="BR71" s="59"/>
+      <c r="BS71" s="59"/>
+      <c r="BT71" s="59"/>
+      <c r="BU71" s="59"/>
+      <c r="BV71" s="59"/>
+      <c r="BW71" s="59"/>
+      <c r="BX71" s="59"/>
     </row>
     <row r="72" customHeight="1" spans="1:76">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
-      <c r="D72" s="25"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -4161,44 +4480,41 @@
       <c r="AG72" s="26"/>
       <c r="AH72" s="26"/>
       <c r="AI72" s="26"/>
-      <c r="AJ72" s="25"/>
-      <c r="AK72" s="25"/>
       <c r="AL72" s="26"/>
       <c r="AM72" s="26"/>
       <c r="AN72" s="26"/>
-      <c r="AX72" s="67"/>
-      <c r="AY72" s="67"/>
-      <c r="AZ72" s="67"/>
-      <c r="BA72" s="67"/>
-      <c r="BB72" s="67"/>
-      <c r="BC72" s="67"/>
-      <c r="BD72" s="67"/>
-      <c r="BE72" s="67"/>
-      <c r="BF72" s="67"/>
-      <c r="BG72" s="67"/>
-      <c r="BH72" s="67"/>
-      <c r="BI72" s="67"/>
-      <c r="BJ72" s="67"/>
-      <c r="BK72" s="67"/>
-      <c r="BL72" s="67"/>
-      <c r="BM72" s="67"/>
-      <c r="BN72" s="67"/>
-      <c r="BO72" s="67"/>
-      <c r="BP72" s="67"/>
-      <c r="BQ72" s="67"/>
-      <c r="BR72" s="67"/>
-      <c r="BS72" s="67"/>
-      <c r="BT72" s="67"/>
-      <c r="BU72" s="67"/>
-      <c r="BV72" s="67"/>
-      <c r="BW72" s="67"/>
-      <c r="BX72" s="67"/>
+      <c r="AX72" s="59"/>
+      <c r="AY72" s="59"/>
+      <c r="AZ72" s="59"/>
+      <c r="BA72" s="59"/>
+      <c r="BB72" s="59"/>
+      <c r="BC72" s="59"/>
+      <c r="BD72" s="59"/>
+      <c r="BE72" s="59"/>
+      <c r="BF72" s="59"/>
+      <c r="BG72" s="59"/>
+      <c r="BH72" s="59"/>
+      <c r="BI72" s="59"/>
+      <c r="BJ72" s="59"/>
+      <c r="BK72" s="59"/>
+      <c r="BL72" s="59"/>
+      <c r="BM72" s="59"/>
+      <c r="BN72" s="59"/>
+      <c r="BO72" s="59"/>
+      <c r="BP72" s="59"/>
+      <c r="BQ72" s="59"/>
+      <c r="BR72" s="59"/>
+      <c r="BS72" s="59"/>
+      <c r="BT72" s="59"/>
+      <c r="BU72" s="59"/>
+      <c r="BV72" s="59"/>
+      <c r="BW72" s="59"/>
+      <c r="BX72" s="59"/>
     </row>
     <row r="73" customHeight="1" spans="1:76">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
-      <c r="D73" s="25"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -4228,44 +4544,41 @@
       <c r="AG73" s="26"/>
       <c r="AH73" s="26"/>
       <c r="AI73" s="26"/>
-      <c r="AJ73" s="25"/>
-      <c r="AK73" s="25"/>
       <c r="AL73" s="26"/>
       <c r="AM73" s="26"/>
       <c r="AN73" s="26"/>
-      <c r="AX73" s="67"/>
-      <c r="AY73" s="67"/>
-      <c r="AZ73" s="67"/>
-      <c r="BA73" s="67"/>
-      <c r="BB73" s="67"/>
-      <c r="BC73" s="67"/>
-      <c r="BD73" s="67"/>
-      <c r="BE73" s="67"/>
-      <c r="BF73" s="67"/>
-      <c r="BG73" s="67"/>
-      <c r="BH73" s="67"/>
-      <c r="BI73" s="67"/>
-      <c r="BJ73" s="67"/>
-      <c r="BK73" s="67"/>
-      <c r="BL73" s="67"/>
-      <c r="BM73" s="67"/>
-      <c r="BN73" s="67"/>
-      <c r="BO73" s="67"/>
-      <c r="BP73" s="67"/>
-      <c r="BQ73" s="67"/>
-      <c r="BR73" s="67"/>
-      <c r="BS73" s="67"/>
-      <c r="BT73" s="67"/>
-      <c r="BU73" s="67"/>
-      <c r="BV73" s="67"/>
-      <c r="BW73" s="67"/>
-      <c r="BX73" s="67"/>
+      <c r="AX73" s="59"/>
+      <c r="AY73" s="59"/>
+      <c r="AZ73" s="59"/>
+      <c r="BA73" s="59"/>
+      <c r="BB73" s="59"/>
+      <c r="BC73" s="59"/>
+      <c r="BD73" s="59"/>
+      <c r="BE73" s="59"/>
+      <c r="BF73" s="59"/>
+      <c r="BG73" s="59"/>
+      <c r="BH73" s="59"/>
+      <c r="BI73" s="59"/>
+      <c r="BJ73" s="59"/>
+      <c r="BK73" s="59"/>
+      <c r="BL73" s="59"/>
+      <c r="BM73" s="59"/>
+      <c r="BN73" s="59"/>
+      <c r="BO73" s="59"/>
+      <c r="BP73" s="59"/>
+      <c r="BQ73" s="59"/>
+      <c r="BR73" s="59"/>
+      <c r="BS73" s="59"/>
+      <c r="BT73" s="59"/>
+      <c r="BU73" s="59"/>
+      <c r="BV73" s="59"/>
+      <c r="BW73" s="59"/>
+      <c r="BX73" s="59"/>
     </row>
     <row r="74" customHeight="1" spans="1:76">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
-      <c r="D74" s="25"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -4295,86 +4608,80 @@
       <c r="AG74" s="26"/>
       <c r="AH74" s="26"/>
       <c r="AI74" s="26"/>
-      <c r="AJ74" s="25"/>
-      <c r="AK74" s="25"/>
       <c r="AL74" s="26"/>
       <c r="AM74" s="26"/>
       <c r="AN74" s="26"/>
-      <c r="AX74" s="67"/>
-      <c r="AY74" s="67"/>
-      <c r="AZ74" s="67"/>
-      <c r="BA74" s="67"/>
-      <c r="BB74" s="67"/>
-      <c r="BC74" s="67"/>
-      <c r="BD74" s="67"/>
-      <c r="BE74" s="67"/>
-      <c r="BF74" s="67"/>
-      <c r="BG74" s="67"/>
-      <c r="BH74" s="67"/>
-      <c r="BI74" s="67"/>
-      <c r="BJ74" s="67"/>
-      <c r="BK74" s="67"/>
-      <c r="BL74" s="67"/>
-      <c r="BM74" s="67"/>
-      <c r="BN74" s="67"/>
-      <c r="BO74" s="67"/>
-      <c r="BP74" s="67"/>
-      <c r="BQ74" s="67"/>
-      <c r="BR74" s="67"/>
-      <c r="BS74" s="67"/>
-      <c r="BT74" s="67"/>
-      <c r="BU74" s="67"/>
-      <c r="BV74" s="67"/>
-      <c r="BW74" s="67"/>
-      <c r="BX74" s="67"/>
+      <c r="AX74" s="59"/>
+      <c r="AY74" s="59"/>
+      <c r="AZ74" s="59"/>
+      <c r="BA74" s="59"/>
+      <c r="BB74" s="59"/>
+      <c r="BC74" s="59"/>
+      <c r="BD74" s="59"/>
+      <c r="BE74" s="59"/>
+      <c r="BF74" s="59"/>
+      <c r="BG74" s="59"/>
+      <c r="BH74" s="59"/>
+      <c r="BI74" s="59"/>
+      <c r="BJ74" s="59"/>
+      <c r="BK74" s="59"/>
+      <c r="BL74" s="59"/>
+      <c r="BM74" s="59"/>
+      <c r="BN74" s="59"/>
+      <c r="BO74" s="59"/>
+      <c r="BP74" s="59"/>
+      <c r="BQ74" s="59"/>
+      <c r="BR74" s="59"/>
+      <c r="BS74" s="59"/>
+      <c r="BT74" s="59"/>
+      <c r="BU74" s="59"/>
+      <c r="BV74" s="59"/>
+      <c r="BW74" s="59"/>
+      <c r="BX74" s="59"/>
     </row>
     <row r="75" customHeight="1" spans="1:76">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
-      <c r="D75" s="25"/>
       <c r="AF75" s="26"/>
       <c r="AG75" s="26"/>
       <c r="AH75" s="26"/>
       <c r="AI75" s="26"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="25"/>
       <c r="AL75" s="26"/>
       <c r="AM75" s="26"/>
       <c r="AN75" s="26"/>
-      <c r="AX75" s="67"/>
-      <c r="AY75" s="67"/>
-      <c r="AZ75" s="67"/>
-      <c r="BA75" s="67"/>
-      <c r="BB75" s="67"/>
-      <c r="BC75" s="67"/>
-      <c r="BD75" s="67"/>
-      <c r="BE75" s="67"/>
-      <c r="BF75" s="67"/>
-      <c r="BG75" s="67"/>
-      <c r="BH75" s="67"/>
-      <c r="BI75" s="67"/>
-      <c r="BJ75" s="67"/>
-      <c r="BK75" s="67"/>
-      <c r="BL75" s="67"/>
-      <c r="BM75" s="67"/>
-      <c r="BN75" s="67"/>
-      <c r="BO75" s="67"/>
-      <c r="BP75" s="67"/>
-      <c r="BQ75" s="67"/>
-      <c r="BR75" s="67"/>
-      <c r="BS75" s="67"/>
-      <c r="BT75" s="67"/>
-      <c r="BU75" s="67"/>
-      <c r="BV75" s="67"/>
-      <c r="BW75" s="67"/>
-      <c r="BX75" s="67"/>
+      <c r="AX75" s="59"/>
+      <c r="AY75" s="59"/>
+      <c r="AZ75" s="59"/>
+      <c r="BA75" s="59"/>
+      <c r="BB75" s="59"/>
+      <c r="BC75" s="59"/>
+      <c r="BD75" s="59"/>
+      <c r="BE75" s="59"/>
+      <c r="BF75" s="59"/>
+      <c r="BG75" s="59"/>
+      <c r="BH75" s="59"/>
+      <c r="BI75" s="59"/>
+      <c r="BJ75" s="59"/>
+      <c r="BK75" s="59"/>
+      <c r="BL75" s="59"/>
+      <c r="BM75" s="59"/>
+      <c r="BN75" s="59"/>
+      <c r="BO75" s="59"/>
+      <c r="BP75" s="59"/>
+      <c r="BQ75" s="59"/>
+      <c r="BR75" s="59"/>
+      <c r="BS75" s="59"/>
+      <c r="BT75" s="59"/>
+      <c r="BU75" s="59"/>
+      <c r="BV75" s="59"/>
+      <c r="BW75" s="59"/>
+      <c r="BX75" s="59"/>
     </row>
     <row r="76" customHeight="1" spans="1:76">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
-      <c r="D76" s="25"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="H76" s="26"/>
@@ -4403,44 +4710,41 @@
       <c r="AG76" s="26"/>
       <c r="AH76" s="26"/>
       <c r="AI76" s="26"/>
-      <c r="AJ76" s="25"/>
-      <c r="AK76" s="25"/>
       <c r="AL76" s="26"/>
       <c r="AM76" s="26"/>
       <c r="AN76" s="26"/>
-      <c r="AX76" s="67"/>
-      <c r="AY76" s="67"/>
-      <c r="AZ76" s="67"/>
-      <c r="BA76" s="67"/>
-      <c r="BB76" s="67"/>
-      <c r="BC76" s="67"/>
-      <c r="BD76" s="67"/>
-      <c r="BE76" s="67"/>
-      <c r="BF76" s="67"/>
-      <c r="BG76" s="67"/>
-      <c r="BH76" s="67"/>
-      <c r="BI76" s="67"/>
-      <c r="BJ76" s="67"/>
-      <c r="BK76" s="67"/>
-      <c r="BL76" s="67"/>
-      <c r="BM76" s="67"/>
-      <c r="BN76" s="67"/>
-      <c r="BO76" s="67"/>
-      <c r="BP76" s="67"/>
-      <c r="BQ76" s="67"/>
-      <c r="BR76" s="67"/>
-      <c r="BS76" s="67"/>
-      <c r="BT76" s="67"/>
-      <c r="BU76" s="67"/>
-      <c r="BV76" s="67"/>
-      <c r="BW76" s="67"/>
-      <c r="BX76" s="67"/>
+      <c r="AX76" s="59"/>
+      <c r="AY76" s="59"/>
+      <c r="AZ76" s="59"/>
+      <c r="BA76" s="59"/>
+      <c r="BB76" s="59"/>
+      <c r="BC76" s="59"/>
+      <c r="BD76" s="59"/>
+      <c r="BE76" s="59"/>
+      <c r="BF76" s="59"/>
+      <c r="BG76" s="59"/>
+      <c r="BH76" s="59"/>
+      <c r="BI76" s="59"/>
+      <c r="BJ76" s="59"/>
+      <c r="BK76" s="59"/>
+      <c r="BL76" s="59"/>
+      <c r="BM76" s="59"/>
+      <c r="BN76" s="59"/>
+      <c r="BO76" s="59"/>
+      <c r="BP76" s="59"/>
+      <c r="BQ76" s="59"/>
+      <c r="BR76" s="59"/>
+      <c r="BS76" s="59"/>
+      <c r="BT76" s="59"/>
+      <c r="BU76" s="59"/>
+      <c r="BV76" s="59"/>
+      <c r="BW76" s="59"/>
+      <c r="BX76" s="59"/>
     </row>
     <row r="77" customHeight="1" spans="1:76">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
-      <c r="D77" s="25"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="H77" s="26"/>
@@ -4469,44 +4773,41 @@
       <c r="AG77" s="26"/>
       <c r="AH77" s="26"/>
       <c r="AI77" s="26"/>
-      <c r="AJ77" s="25"/>
-      <c r="AK77" s="25"/>
       <c r="AL77" s="26"/>
       <c r="AM77" s="26"/>
       <c r="AN77" s="26"/>
-      <c r="AX77" s="67"/>
-      <c r="AY77" s="67"/>
-      <c r="AZ77" s="67"/>
-      <c r="BA77" s="67"/>
-      <c r="BB77" s="67"/>
-      <c r="BC77" s="67"/>
-      <c r="BD77" s="67"/>
-      <c r="BE77" s="67"/>
-      <c r="BF77" s="67"/>
-      <c r="BG77" s="67"/>
-      <c r="BH77" s="67"/>
-      <c r="BI77" s="67"/>
-      <c r="BJ77" s="67"/>
-      <c r="BK77" s="67"/>
-      <c r="BL77" s="67"/>
-      <c r="BM77" s="67"/>
-      <c r="BN77" s="67"/>
-      <c r="BO77" s="67"/>
-      <c r="BP77" s="67"/>
-      <c r="BQ77" s="67"/>
-      <c r="BR77" s="67"/>
-      <c r="BS77" s="67"/>
-      <c r="BT77" s="67"/>
-      <c r="BU77" s="67"/>
-      <c r="BV77" s="67"/>
-      <c r="BW77" s="67"/>
-      <c r="BX77" s="67"/>
+      <c r="AX77" s="59"/>
+      <c r="AY77" s="59"/>
+      <c r="AZ77" s="59"/>
+      <c r="BA77" s="59"/>
+      <c r="BB77" s="59"/>
+      <c r="BC77" s="59"/>
+      <c r="BD77" s="59"/>
+      <c r="BE77" s="59"/>
+      <c r="BF77" s="59"/>
+      <c r="BG77" s="59"/>
+      <c r="BH77" s="59"/>
+      <c r="BI77" s="59"/>
+      <c r="BJ77" s="59"/>
+      <c r="BK77" s="59"/>
+      <c r="BL77" s="59"/>
+      <c r="BM77" s="59"/>
+      <c r="BN77" s="59"/>
+      <c r="BO77" s="59"/>
+      <c r="BP77" s="59"/>
+      <c r="BQ77" s="59"/>
+      <c r="BR77" s="59"/>
+      <c r="BS77" s="59"/>
+      <c r="BT77" s="59"/>
+      <c r="BU77" s="59"/>
+      <c r="BV77" s="59"/>
+      <c r="BW77" s="59"/>
+      <c r="BX77" s="59"/>
     </row>
     <row r="78" customHeight="1" spans="1:76">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
-      <c r="D78" s="25"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="H78" s="26"/>
@@ -4535,38 +4836,36 @@
       <c r="AG78" s="26"/>
       <c r="AH78" s="26"/>
       <c r="AI78" s="26"/>
-      <c r="AJ78" s="25"/>
-      <c r="AK78" s="25"/>
       <c r="AL78" s="26"/>
       <c r="AM78" s="26"/>
       <c r="AN78" s="26"/>
-      <c r="AX78" s="67"/>
-      <c r="AY78" s="67"/>
-      <c r="AZ78" s="67"/>
-      <c r="BA78" s="67"/>
-      <c r="BB78" s="67"/>
-      <c r="BC78" s="67"/>
-      <c r="BD78" s="67"/>
-      <c r="BE78" s="67"/>
-      <c r="BF78" s="67"/>
-      <c r="BG78" s="67"/>
-      <c r="BH78" s="67"/>
-      <c r="BI78" s="67"/>
-      <c r="BJ78" s="67"/>
-      <c r="BK78" s="67"/>
-      <c r="BL78" s="67"/>
-      <c r="BM78" s="67"/>
-      <c r="BN78" s="67"/>
-      <c r="BO78" s="67"/>
-      <c r="BP78" s="67"/>
-      <c r="BQ78" s="67"/>
-      <c r="BR78" s="67"/>
-      <c r="BS78" s="67"/>
-      <c r="BT78" s="67"/>
-      <c r="BU78" s="67"/>
-      <c r="BV78" s="67"/>
-      <c r="BW78" s="67"/>
-      <c r="BX78" s="67"/>
+      <c r="AX78" s="59"/>
+      <c r="AY78" s="59"/>
+      <c r="AZ78" s="59"/>
+      <c r="BA78" s="59"/>
+      <c r="BB78" s="59"/>
+      <c r="BC78" s="59"/>
+      <c r="BD78" s="59"/>
+      <c r="BE78" s="59"/>
+      <c r="BF78" s="59"/>
+      <c r="BG78" s="59"/>
+      <c r="BH78" s="59"/>
+      <c r="BI78" s="59"/>
+      <c r="BJ78" s="59"/>
+      <c r="BK78" s="59"/>
+      <c r="BL78" s="59"/>
+      <c r="BM78" s="59"/>
+      <c r="BN78" s="59"/>
+      <c r="BO78" s="59"/>
+      <c r="BP78" s="59"/>
+      <c r="BQ78" s="59"/>
+      <c r="BR78" s="59"/>
+      <c r="BS78" s="59"/>
+      <c r="BT78" s="59"/>
+      <c r="BU78" s="59"/>
+      <c r="BV78" s="59"/>
+      <c r="BW78" s="59"/>
+      <c r="BX78" s="59"/>
     </row>
     <row r="79" customHeight="1" spans="8:76">
       <c r="H79" s="26"/>
@@ -4595,38 +4894,36 @@
       <c r="AG79" s="26"/>
       <c r="AH79" s="26"/>
       <c r="AI79" s="26"/>
-      <c r="AJ79" s="25"/>
-      <c r="AK79" s="25"/>
       <c r="AL79" s="26"/>
       <c r="AM79" s="26"/>
       <c r="AN79" s="26"/>
-      <c r="AX79" s="67"/>
-      <c r="AY79" s="67"/>
-      <c r="AZ79" s="67"/>
-      <c r="BA79" s="67"/>
-      <c r="BB79" s="67"/>
-      <c r="BC79" s="67"/>
-      <c r="BD79" s="67"/>
-      <c r="BE79" s="67"/>
-      <c r="BF79" s="67"/>
-      <c r="BG79" s="67"/>
-      <c r="BH79" s="67"/>
-      <c r="BI79" s="67"/>
-      <c r="BJ79" s="67"/>
-      <c r="BK79" s="67"/>
-      <c r="BL79" s="67"/>
-      <c r="BM79" s="67"/>
-      <c r="BN79" s="67"/>
-      <c r="BO79" s="67"/>
-      <c r="BP79" s="67"/>
-      <c r="BQ79" s="67"/>
-      <c r="BR79" s="67"/>
-      <c r="BS79" s="67"/>
-      <c r="BT79" s="67"/>
-      <c r="BU79" s="67"/>
-      <c r="BV79" s="67"/>
-      <c r="BW79" s="67"/>
-      <c r="BX79" s="67"/>
+      <c r="AX79" s="59"/>
+      <c r="AY79" s="59"/>
+      <c r="AZ79" s="59"/>
+      <c r="BA79" s="59"/>
+      <c r="BB79" s="59"/>
+      <c r="BC79" s="59"/>
+      <c r="BD79" s="59"/>
+      <c r="BE79" s="59"/>
+      <c r="BF79" s="59"/>
+      <c r="BG79" s="59"/>
+      <c r="BH79" s="59"/>
+      <c r="BI79" s="59"/>
+      <c r="BJ79" s="59"/>
+      <c r="BK79" s="59"/>
+      <c r="BL79" s="59"/>
+      <c r="BM79" s="59"/>
+      <c r="BN79" s="59"/>
+      <c r="BO79" s="59"/>
+      <c r="BP79" s="59"/>
+      <c r="BQ79" s="59"/>
+      <c r="BR79" s="59"/>
+      <c r="BS79" s="59"/>
+      <c r="BT79" s="59"/>
+      <c r="BU79" s="59"/>
+      <c r="BV79" s="59"/>
+      <c r="BW79" s="59"/>
+      <c r="BX79" s="59"/>
     </row>
     <row r="80" customHeight="1" spans="1:76">
       <c r="A80" s="26"/>
@@ -4635,7 +4932,6 @@
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
-      <c r="G80" s="25"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
@@ -4662,38 +4958,36 @@
       <c r="AG80" s="26"/>
       <c r="AH80" s="26"/>
       <c r="AI80" s="26"/>
-      <c r="AJ80" s="25"/>
-      <c r="AK80" s="25"/>
       <c r="AL80" s="26"/>
       <c r="AM80" s="26"/>
       <c r="AN80" s="26"/>
-      <c r="AX80" s="67"/>
-      <c r="AY80" s="67"/>
-      <c r="AZ80" s="67"/>
-      <c r="BA80" s="67"/>
-      <c r="BB80" s="67"/>
-      <c r="BC80" s="67"/>
-      <c r="BD80" s="67"/>
-      <c r="BE80" s="67"/>
-      <c r="BF80" s="67"/>
-      <c r="BG80" s="67"/>
-      <c r="BH80" s="67"/>
-      <c r="BI80" s="67"/>
-      <c r="BJ80" s="67"/>
-      <c r="BK80" s="67"/>
-      <c r="BL80" s="67"/>
-      <c r="BM80" s="67"/>
-      <c r="BN80" s="67"/>
-      <c r="BO80" s="67"/>
-      <c r="BP80" s="67"/>
-      <c r="BQ80" s="67"/>
-      <c r="BR80" s="67"/>
-      <c r="BS80" s="67"/>
-      <c r="BT80" s="67"/>
-      <c r="BU80" s="67"/>
-      <c r="BV80" s="67"/>
-      <c r="BW80" s="67"/>
-      <c r="BX80" s="67"/>
+      <c r="AX80" s="59"/>
+      <c r="AY80" s="59"/>
+      <c r="AZ80" s="59"/>
+      <c r="BA80" s="59"/>
+      <c r="BB80" s="59"/>
+      <c r="BC80" s="59"/>
+      <c r="BD80" s="59"/>
+      <c r="BE80" s="59"/>
+      <c r="BF80" s="59"/>
+      <c r="BG80" s="59"/>
+      <c r="BH80" s="59"/>
+      <c r="BI80" s="59"/>
+      <c r="BJ80" s="59"/>
+      <c r="BK80" s="59"/>
+      <c r="BL80" s="59"/>
+      <c r="BM80" s="59"/>
+      <c r="BN80" s="59"/>
+      <c r="BO80" s="59"/>
+      <c r="BP80" s="59"/>
+      <c r="BQ80" s="59"/>
+      <c r="BR80" s="59"/>
+      <c r="BS80" s="59"/>
+      <c r="BT80" s="59"/>
+      <c r="BU80" s="59"/>
+      <c r="BV80" s="59"/>
+      <c r="BW80" s="59"/>
+      <c r="BX80" s="59"/>
     </row>
     <row r="81" customHeight="1" spans="1:76">
       <c r="A81" s="26"/>
@@ -4702,7 +4996,6 @@
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
-      <c r="G81" s="25"/>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
@@ -4729,38 +5022,36 @@
       <c r="AG81" s="26"/>
       <c r="AH81" s="26"/>
       <c r="AI81" s="26"/>
-      <c r="AJ81" s="25"/>
-      <c r="AK81" s="25"/>
       <c r="AL81" s="26"/>
       <c r="AM81" s="26"/>
       <c r="AN81" s="26"/>
-      <c r="AX81" s="67"/>
-      <c r="AY81" s="67"/>
-      <c r="AZ81" s="67"/>
-      <c r="BA81" s="67"/>
-      <c r="BB81" s="67"/>
-      <c r="BC81" s="67"/>
-      <c r="BD81" s="67"/>
-      <c r="BE81" s="67"/>
-      <c r="BF81" s="67"/>
-      <c r="BG81" s="67"/>
-      <c r="BH81" s="67"/>
-      <c r="BI81" s="67"/>
-      <c r="BJ81" s="67"/>
-      <c r="BK81" s="67"/>
-      <c r="BL81" s="67"/>
-      <c r="BM81" s="67"/>
-      <c r="BN81" s="67"/>
-      <c r="BO81" s="67"/>
-      <c r="BP81" s="67"/>
-      <c r="BQ81" s="67"/>
-      <c r="BR81" s="67"/>
-      <c r="BS81" s="67"/>
-      <c r="BT81" s="67"/>
-      <c r="BU81" s="67"/>
-      <c r="BV81" s="67"/>
-      <c r="BW81" s="67"/>
-      <c r="BX81" s="67"/>
+      <c r="AX81" s="59"/>
+      <c r="AY81" s="59"/>
+      <c r="AZ81" s="59"/>
+      <c r="BA81" s="59"/>
+      <c r="BB81" s="59"/>
+      <c r="BC81" s="59"/>
+      <c r="BD81" s="59"/>
+      <c r="BE81" s="59"/>
+      <c r="BF81" s="59"/>
+      <c r="BG81" s="59"/>
+      <c r="BH81" s="59"/>
+      <c r="BI81" s="59"/>
+      <c r="BJ81" s="59"/>
+      <c r="BK81" s="59"/>
+      <c r="BL81" s="59"/>
+      <c r="BM81" s="59"/>
+      <c r="BN81" s="59"/>
+      <c r="BO81" s="59"/>
+      <c r="BP81" s="59"/>
+      <c r="BQ81" s="59"/>
+      <c r="BR81" s="59"/>
+      <c r="BS81" s="59"/>
+      <c r="BT81" s="59"/>
+      <c r="BU81" s="59"/>
+      <c r="BV81" s="59"/>
+      <c r="BW81" s="59"/>
+      <c r="BX81" s="59"/>
     </row>
     <row r="82" customHeight="1" spans="1:76">
       <c r="A82" s="26"/>
@@ -4769,7 +5060,6 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="25"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
@@ -4796,70 +5086,68 @@
       <c r="AG82" s="26"/>
       <c r="AH82" s="26"/>
       <c r="AI82" s="26"/>
-      <c r="AJ82" s="25"/>
-      <c r="AK82" s="25"/>
       <c r="AL82" s="26"/>
       <c r="AM82" s="26"/>
       <c r="AN82" s="26"/>
-      <c r="AX82" s="67"/>
-      <c r="AY82" s="67"/>
-      <c r="AZ82" s="67"/>
-      <c r="BA82" s="67"/>
-      <c r="BB82" s="67"/>
-      <c r="BC82" s="67"/>
-      <c r="BD82" s="67"/>
-      <c r="BE82" s="67"/>
-      <c r="BF82" s="67"/>
-      <c r="BG82" s="67"/>
-      <c r="BH82" s="67"/>
-      <c r="BI82" s="67"/>
-      <c r="BJ82" s="67"/>
-      <c r="BK82" s="67"/>
-      <c r="BL82" s="67"/>
-      <c r="BM82" s="67"/>
-      <c r="BN82" s="67"/>
-      <c r="BO82" s="67"/>
-      <c r="BP82" s="67"/>
-      <c r="BQ82" s="67"/>
-      <c r="BR82" s="67"/>
-      <c r="BS82" s="67"/>
-      <c r="BT82" s="67"/>
-      <c r="BU82" s="67"/>
-      <c r="BV82" s="67"/>
-      <c r="BW82" s="67"/>
-      <c r="BX82" s="67"/>
+      <c r="AX82" s="59"/>
+      <c r="AY82" s="59"/>
+      <c r="AZ82" s="59"/>
+      <c r="BA82" s="59"/>
+      <c r="BB82" s="59"/>
+      <c r="BC82" s="59"/>
+      <c r="BD82" s="59"/>
+      <c r="BE82" s="59"/>
+      <c r="BF82" s="59"/>
+      <c r="BG82" s="59"/>
+      <c r="BH82" s="59"/>
+      <c r="BI82" s="59"/>
+      <c r="BJ82" s="59"/>
+      <c r="BK82" s="59"/>
+      <c r="BL82" s="59"/>
+      <c r="BM82" s="59"/>
+      <c r="BN82" s="59"/>
+      <c r="BO82" s="59"/>
+      <c r="BP82" s="59"/>
+      <c r="BQ82" s="59"/>
+      <c r="BR82" s="59"/>
+      <c r="BS82" s="59"/>
+      <c r="BT82" s="59"/>
+      <c r="BU82" s="59"/>
+      <c r="BV82" s="59"/>
+      <c r="BW82" s="59"/>
+      <c r="BX82" s="59"/>
     </row>
     <row r="83" customHeight="1" spans="38:76">
       <c r="AL83" s="26"/>
       <c r="AM83" s="26"/>
       <c r="AN83" s="26"/>
-      <c r="AX83" s="67"/>
-      <c r="AY83" s="67"/>
-      <c r="AZ83" s="67"/>
-      <c r="BA83" s="67"/>
-      <c r="BB83" s="67"/>
-      <c r="BC83" s="67"/>
-      <c r="BD83" s="67"/>
-      <c r="BE83" s="67"/>
-      <c r="BF83" s="67"/>
-      <c r="BG83" s="67"/>
-      <c r="BH83" s="67"/>
-      <c r="BI83" s="67"/>
-      <c r="BJ83" s="67"/>
-      <c r="BK83" s="67"/>
-      <c r="BL83" s="67"/>
-      <c r="BM83" s="67"/>
-      <c r="BN83" s="67"/>
-      <c r="BO83" s="67"/>
-      <c r="BP83" s="67"/>
-      <c r="BQ83" s="67"/>
-      <c r="BR83" s="67"/>
-      <c r="BS83" s="67"/>
-      <c r="BT83" s="67"/>
-      <c r="BU83" s="67"/>
-      <c r="BV83" s="67"/>
-      <c r="BW83" s="67"/>
-      <c r="BX83" s="67"/>
+      <c r="AX83" s="59"/>
+      <c r="AY83" s="59"/>
+      <c r="AZ83" s="59"/>
+      <c r="BA83" s="59"/>
+      <c r="BB83" s="59"/>
+      <c r="BC83" s="59"/>
+      <c r="BD83" s="59"/>
+      <c r="BE83" s="59"/>
+      <c r="BF83" s="59"/>
+      <c r="BG83" s="59"/>
+      <c r="BH83" s="59"/>
+      <c r="BI83" s="59"/>
+      <c r="BJ83" s="59"/>
+      <c r="BK83" s="59"/>
+      <c r="BL83" s="59"/>
+      <c r="BM83" s="59"/>
+      <c r="BN83" s="59"/>
+      <c r="BO83" s="59"/>
+      <c r="BP83" s="59"/>
+      <c r="BQ83" s="59"/>
+      <c r="BR83" s="59"/>
+      <c r="BS83" s="59"/>
+      <c r="BT83" s="59"/>
+      <c r="BU83" s="59"/>
+      <c r="BV83" s="59"/>
+      <c r="BW83" s="59"/>
+      <c r="BX83" s="59"/>
     </row>
     <row r="84" customHeight="1" spans="1:76">
       <c r="A84" s="27"/>
@@ -4897,38 +5185,36 @@
       <c r="AG84" s="27"/>
       <c r="AH84" s="27"/>
       <c r="AI84" s="27"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
       <c r="AL84" s="26"/>
       <c r="AM84" s="26"/>
       <c r="AN84" s="26"/>
-      <c r="AX84" s="67"/>
-      <c r="AY84" s="67"/>
-      <c r="AZ84" s="67"/>
-      <c r="BA84" s="67"/>
-      <c r="BB84" s="67"/>
-      <c r="BC84" s="67"/>
-      <c r="BD84" s="67"/>
-      <c r="BE84" s="67"/>
-      <c r="BF84" s="67"/>
-      <c r="BG84" s="67"/>
-      <c r="BH84" s="67"/>
-      <c r="BI84" s="67"/>
-      <c r="BJ84" s="67"/>
-      <c r="BK84" s="67"/>
-      <c r="BL84" s="67"/>
-      <c r="BM84" s="67"/>
-      <c r="BN84" s="67"/>
-      <c r="BO84" s="67"/>
-      <c r="BP84" s="67"/>
-      <c r="BQ84" s="67"/>
-      <c r="BR84" s="67"/>
-      <c r="BS84" s="67"/>
-      <c r="BT84" s="67"/>
-      <c r="BU84" s="67"/>
-      <c r="BV84" s="67"/>
-      <c r="BW84" s="67"/>
-      <c r="BX84" s="67"/>
+      <c r="AX84" s="59"/>
+      <c r="AY84" s="59"/>
+      <c r="AZ84" s="59"/>
+      <c r="BA84" s="59"/>
+      <c r="BB84" s="59"/>
+      <c r="BC84" s="59"/>
+      <c r="BD84" s="59"/>
+      <c r="BE84" s="59"/>
+      <c r="BF84" s="59"/>
+      <c r="BG84" s="59"/>
+      <c r="BH84" s="59"/>
+      <c r="BI84" s="59"/>
+      <c r="BJ84" s="59"/>
+      <c r="BK84" s="59"/>
+      <c r="BL84" s="59"/>
+      <c r="BM84" s="59"/>
+      <c r="BN84" s="59"/>
+      <c r="BO84" s="59"/>
+      <c r="BP84" s="59"/>
+      <c r="BQ84" s="59"/>
+      <c r="BR84" s="59"/>
+      <c r="BS84" s="59"/>
+      <c r="BT84" s="59"/>
+      <c r="BU84" s="59"/>
+      <c r="BV84" s="59"/>
+      <c r="BW84" s="59"/>
+      <c r="BX84" s="59"/>
     </row>
     <row r="85" customHeight="1" spans="1:76">
       <c r="A85" s="27"/>
@@ -4966,38 +5252,36 @@
       <c r="AG85" s="27"/>
       <c r="AH85" s="27"/>
       <c r="AI85" s="27"/>
-      <c r="AJ85" s="25"/>
-      <c r="AK85" s="25"/>
       <c r="AL85" s="26"/>
       <c r="AM85" s="26"/>
       <c r="AN85" s="26"/>
-      <c r="AX85" s="67"/>
-      <c r="AY85" s="67"/>
-      <c r="AZ85" s="67"/>
-      <c r="BA85" s="67"/>
-      <c r="BB85" s="67"/>
-      <c r="BC85" s="67"/>
-      <c r="BD85" s="67"/>
-      <c r="BE85" s="67"/>
-      <c r="BF85" s="67"/>
-      <c r="BG85" s="67"/>
-      <c r="BH85" s="67"/>
-      <c r="BI85" s="67"/>
-      <c r="BJ85" s="67"/>
-      <c r="BK85" s="67"/>
-      <c r="BL85" s="67"/>
-      <c r="BM85" s="67"/>
-      <c r="BN85" s="67"/>
-      <c r="BO85" s="67"/>
-      <c r="BP85" s="67"/>
-      <c r="BQ85" s="67"/>
-      <c r="BR85" s="67"/>
-      <c r="BS85" s="67"/>
-      <c r="BT85" s="67"/>
-      <c r="BU85" s="67"/>
-      <c r="BV85" s="67"/>
-      <c r="BW85" s="67"/>
-      <c r="BX85" s="67"/>
+      <c r="AX85" s="59"/>
+      <c r="AY85" s="59"/>
+      <c r="AZ85" s="59"/>
+      <c r="BA85" s="59"/>
+      <c r="BB85" s="59"/>
+      <c r="BC85" s="59"/>
+      <c r="BD85" s="59"/>
+      <c r="BE85" s="59"/>
+      <c r="BF85" s="59"/>
+      <c r="BG85" s="59"/>
+      <c r="BH85" s="59"/>
+      <c r="BI85" s="59"/>
+      <c r="BJ85" s="59"/>
+      <c r="BK85" s="59"/>
+      <c r="BL85" s="59"/>
+      <c r="BM85" s="59"/>
+      <c r="BN85" s="59"/>
+      <c r="BO85" s="59"/>
+      <c r="BP85" s="59"/>
+      <c r="BQ85" s="59"/>
+      <c r="BR85" s="59"/>
+      <c r="BS85" s="59"/>
+      <c r="BT85" s="59"/>
+      <c r="BU85" s="59"/>
+      <c r="BV85" s="59"/>
+      <c r="BW85" s="59"/>
+      <c r="BX85" s="59"/>
     </row>
     <row r="86" customHeight="1" spans="1:76">
       <c r="A86" s="27"/>
@@ -5035,152 +5319,150 @@
       <c r="AG86" s="27"/>
       <c r="AH86" s="27"/>
       <c r="AI86" s="27"/>
-      <c r="AJ86" s="25"/>
-      <c r="AK86" s="25"/>
       <c r="AL86" s="26"/>
       <c r="AM86" s="26"/>
       <c r="AN86" s="26"/>
-      <c r="AX86" s="67"/>
-      <c r="AY86" s="67"/>
-      <c r="AZ86" s="67"/>
-      <c r="BA86" s="67"/>
-      <c r="BB86" s="67"/>
-      <c r="BC86" s="67"/>
-      <c r="BD86" s="67"/>
-      <c r="BE86" s="67"/>
-      <c r="BF86" s="67"/>
-      <c r="BG86" s="67"/>
-      <c r="BH86" s="67"/>
-      <c r="BI86" s="67"/>
-      <c r="BJ86" s="67"/>
-      <c r="BK86" s="67"/>
-      <c r="BL86" s="67"/>
-      <c r="BM86" s="67"/>
-      <c r="BN86" s="67"/>
-      <c r="BO86" s="67"/>
-      <c r="BP86" s="67"/>
-      <c r="BQ86" s="67"/>
-      <c r="BR86" s="67"/>
-      <c r="BS86" s="67"/>
-      <c r="BT86" s="67"/>
-      <c r="BU86" s="67"/>
-      <c r="BV86" s="67"/>
-      <c r="BW86" s="67"/>
-      <c r="BX86" s="67"/>
+      <c r="AX86" s="59"/>
+      <c r="AY86" s="59"/>
+      <c r="AZ86" s="59"/>
+      <c r="BA86" s="59"/>
+      <c r="BB86" s="59"/>
+      <c r="BC86" s="59"/>
+      <c r="BD86" s="59"/>
+      <c r="BE86" s="59"/>
+      <c r="BF86" s="59"/>
+      <c r="BG86" s="59"/>
+      <c r="BH86" s="59"/>
+      <c r="BI86" s="59"/>
+      <c r="BJ86" s="59"/>
+      <c r="BK86" s="59"/>
+      <c r="BL86" s="59"/>
+      <c r="BM86" s="59"/>
+      <c r="BN86" s="59"/>
+      <c r="BO86" s="59"/>
+      <c r="BP86" s="59"/>
+      <c r="BQ86" s="59"/>
+      <c r="BR86" s="59"/>
+      <c r="BS86" s="59"/>
+      <c r="BT86" s="59"/>
+      <c r="BU86" s="59"/>
+      <c r="BV86" s="59"/>
+      <c r="BW86" s="59"/>
+      <c r="BX86" s="59"/>
     </row>
     <row r="87" customHeight="1" spans="50:76">
-      <c r="AX87" s="67"/>
-      <c r="AY87" s="67"/>
-      <c r="AZ87" s="67"/>
-      <c r="BA87" s="67"/>
-      <c r="BB87" s="67"/>
-      <c r="BC87" s="67"/>
-      <c r="BD87" s="67"/>
-      <c r="BE87" s="67"/>
-      <c r="BF87" s="67"/>
-      <c r="BG87" s="67"/>
-      <c r="BH87" s="67"/>
-      <c r="BI87" s="67"/>
-      <c r="BJ87" s="67"/>
-      <c r="BK87" s="67"/>
-      <c r="BL87" s="67"/>
-      <c r="BM87" s="67"/>
-      <c r="BN87" s="67"/>
-      <c r="BO87" s="67"/>
-      <c r="BP87" s="67"/>
-      <c r="BQ87" s="67"/>
-      <c r="BR87" s="67"/>
-      <c r="BS87" s="67"/>
-      <c r="BT87" s="67"/>
-      <c r="BU87" s="67"/>
-      <c r="BV87" s="67"/>
-      <c r="BW87" s="67"/>
-      <c r="BX87" s="67"/>
+      <c r="AX87" s="59"/>
+      <c r="AY87" s="59"/>
+      <c r="AZ87" s="59"/>
+      <c r="BA87" s="59"/>
+      <c r="BB87" s="59"/>
+      <c r="BC87" s="59"/>
+      <c r="BD87" s="59"/>
+      <c r="BE87" s="59"/>
+      <c r="BF87" s="59"/>
+      <c r="BG87" s="59"/>
+      <c r="BH87" s="59"/>
+      <c r="BI87" s="59"/>
+      <c r="BJ87" s="59"/>
+      <c r="BK87" s="59"/>
+      <c r="BL87" s="59"/>
+      <c r="BM87" s="59"/>
+      <c r="BN87" s="59"/>
+      <c r="BO87" s="59"/>
+      <c r="BP87" s="59"/>
+      <c r="BQ87" s="59"/>
+      <c r="BR87" s="59"/>
+      <c r="BS87" s="59"/>
+      <c r="BT87" s="59"/>
+      <c r="BU87" s="59"/>
+      <c r="BV87" s="59"/>
+      <c r="BW87" s="59"/>
+      <c r="BX87" s="59"/>
     </row>
     <row r="88" customHeight="1" spans="50:76">
-      <c r="AX88" s="67"/>
-      <c r="AY88" s="67"/>
-      <c r="AZ88" s="67"/>
-      <c r="BA88" s="67"/>
-      <c r="BB88" s="67"/>
-      <c r="BC88" s="67"/>
-      <c r="BD88" s="67"/>
-      <c r="BE88" s="67"/>
-      <c r="BF88" s="67"/>
-      <c r="BG88" s="67"/>
-      <c r="BH88" s="67"/>
-      <c r="BI88" s="67"/>
-      <c r="BJ88" s="67"/>
-      <c r="BK88" s="67"/>
-      <c r="BL88" s="67"/>
-      <c r="BM88" s="67"/>
-      <c r="BN88" s="67"/>
-      <c r="BO88" s="67"/>
-      <c r="BP88" s="67"/>
-      <c r="BQ88" s="67"/>
-      <c r="BR88" s="67"/>
-      <c r="BS88" s="67"/>
-      <c r="BT88" s="67"/>
-      <c r="BU88" s="67"/>
-      <c r="BV88" s="67"/>
-      <c r="BW88" s="67"/>
-      <c r="BX88" s="67"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="59"/>
+      <c r="BA88" s="59"/>
+      <c r="BB88" s="59"/>
+      <c r="BC88" s="59"/>
+      <c r="BD88" s="59"/>
+      <c r="BE88" s="59"/>
+      <c r="BF88" s="59"/>
+      <c r="BG88" s="59"/>
+      <c r="BH88" s="59"/>
+      <c r="BI88" s="59"/>
+      <c r="BJ88" s="59"/>
+      <c r="BK88" s="59"/>
+      <c r="BL88" s="59"/>
+      <c r="BM88" s="59"/>
+      <c r="BN88" s="59"/>
+      <c r="BO88" s="59"/>
+      <c r="BP88" s="59"/>
+      <c r="BQ88" s="59"/>
+      <c r="BR88" s="59"/>
+      <c r="BS88" s="59"/>
+      <c r="BT88" s="59"/>
+      <c r="BU88" s="59"/>
+      <c r="BV88" s="59"/>
+      <c r="BW88" s="59"/>
+      <c r="BX88" s="59"/>
     </row>
     <row r="89" customHeight="1" spans="51:76">
-      <c r="AY89" s="68"/>
-      <c r="AZ89" s="68"/>
-      <c r="BA89" s="68"/>
-      <c r="BB89" s="68"/>
-      <c r="BC89" s="68"/>
-      <c r="BD89" s="68"/>
-      <c r="BE89" s="68"/>
-      <c r="BF89" s="68"/>
-      <c r="BG89" s="68"/>
-      <c r="BH89" s="68"/>
-      <c r="BI89" s="68"/>
-      <c r="BJ89" s="68"/>
-      <c r="BK89" s="68"/>
-      <c r="BL89" s="68"/>
-      <c r="BM89" s="68"/>
-      <c r="BN89" s="68"/>
-      <c r="BO89" s="68"/>
-      <c r="BP89" s="68"/>
-      <c r="BQ89" s="68"/>
-      <c r="BR89" s="68"/>
-      <c r="BS89" s="68"/>
-      <c r="BT89" s="68"/>
-      <c r="BU89" s="68"/>
-      <c r="BV89" s="68"/>
-      <c r="BW89" s="68"/>
-      <c r="BX89" s="68"/>
+      <c r="AY89" s="60"/>
+      <c r="AZ89" s="60"/>
+      <c r="BA89" s="60"/>
+      <c r="BB89" s="60"/>
+      <c r="BC89" s="60"/>
+      <c r="BD89" s="60"/>
+      <c r="BE89" s="60"/>
+      <c r="BF89" s="60"/>
+      <c r="BG89" s="60"/>
+      <c r="BH89" s="60"/>
+      <c r="BI89" s="60"/>
+      <c r="BJ89" s="60"/>
+      <c r="BK89" s="60"/>
+      <c r="BL89" s="60"/>
+      <c r="BM89" s="60"/>
+      <c r="BN89" s="60"/>
+      <c r="BO89" s="60"/>
+      <c r="BP89" s="60"/>
+      <c r="BQ89" s="60"/>
+      <c r="BR89" s="60"/>
+      <c r="BS89" s="60"/>
+      <c r="BT89" s="60"/>
+      <c r="BU89" s="60"/>
+      <c r="BV89" s="60"/>
+      <c r="BW89" s="60"/>
+      <c r="BX89" s="60"/>
     </row>
     <row r="90" customHeight="1" spans="51:76">
-      <c r="AY90" s="68"/>
-      <c r="AZ90" s="68"/>
-      <c r="BA90" s="68"/>
-      <c r="BB90" s="68"/>
-      <c r="BC90" s="68"/>
-      <c r="BD90" s="68"/>
-      <c r="BE90" s="68"/>
-      <c r="BF90" s="68"/>
-      <c r="BG90" s="68"/>
-      <c r="BH90" s="68"/>
-      <c r="BI90" s="68"/>
-      <c r="BJ90" s="68"/>
-      <c r="BK90" s="68"/>
-      <c r="BL90" s="68"/>
-      <c r="BM90" s="68"/>
-      <c r="BN90" s="68"/>
-      <c r="BO90" s="68"/>
-      <c r="BP90" s="68"/>
-      <c r="BQ90" s="68"/>
-      <c r="BR90" s="68"/>
-      <c r="BS90" s="68"/>
-      <c r="BT90" s="68"/>
-      <c r="BU90" s="68"/>
-      <c r="BV90" s="68"/>
-      <c r="BW90" s="68"/>
-      <c r="BX90" s="68"/>
+      <c r="AY90" s="60"/>
+      <c r="AZ90" s="60"/>
+      <c r="BA90" s="60"/>
+      <c r="BB90" s="60"/>
+      <c r="BC90" s="60"/>
+      <c r="BD90" s="60"/>
+      <c r="BE90" s="60"/>
+      <c r="BF90" s="60"/>
+      <c r="BG90" s="60"/>
+      <c r="BH90" s="60"/>
+      <c r="BI90" s="60"/>
+      <c r="BJ90" s="60"/>
+      <c r="BK90" s="60"/>
+      <c r="BL90" s="60"/>
+      <c r="BM90" s="60"/>
+      <c r="BN90" s="60"/>
+      <c r="BO90" s="60"/>
+      <c r="BP90" s="60"/>
+      <c r="BQ90" s="60"/>
+      <c r="BR90" s="60"/>
+      <c r="BS90" s="60"/>
+      <c r="BT90" s="60"/>
+      <c r="BU90" s="60"/>
+      <c r="BV90" s="60"/>
+      <c r="BW90" s="60"/>
+      <c r="BX90" s="60"/>
     </row>
     <row r="91" customHeight="1" spans="1:76">
       <c r="A91" s="27"/>
@@ -5203,7 +5485,6 @@
       <c r="S91" s="27"/>
       <c r="T91" s="27"/>
       <c r="U91" s="27"/>
-      <c r="V91" s="25"/>
       <c r="W91" s="27" t="s">
         <v>0</v>
       </c>
@@ -5225,32 +5506,32 @@
       <c r="AC91" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY91" s="68"/>
-      <c r="AZ91" s="68"/>
-      <c r="BA91" s="68"/>
-      <c r="BB91" s="68"/>
-      <c r="BC91" s="68"/>
-      <c r="BD91" s="68"/>
-      <c r="BE91" s="68"/>
-      <c r="BF91" s="68"/>
-      <c r="BG91" s="68"/>
-      <c r="BH91" s="68"/>
-      <c r="BI91" s="68"/>
-      <c r="BJ91" s="68"/>
-      <c r="BK91" s="68"/>
-      <c r="BL91" s="68"/>
-      <c r="BM91" s="68"/>
-      <c r="BN91" s="68"/>
-      <c r="BO91" s="68"/>
-      <c r="BP91" s="68"/>
-      <c r="BQ91" s="68"/>
-      <c r="BR91" s="68"/>
-      <c r="BS91" s="68"/>
-      <c r="BT91" s="68"/>
-      <c r="BU91" s="68"/>
-      <c r="BV91" s="68"/>
-      <c r="BW91" s="68"/>
-      <c r="BX91" s="68"/>
+      <c r="AY91" s="60"/>
+      <c r="AZ91" s="60"/>
+      <c r="BA91" s="60"/>
+      <c r="BB91" s="60"/>
+      <c r="BC91" s="60"/>
+      <c r="BD91" s="60"/>
+      <c r="BE91" s="60"/>
+      <c r="BF91" s="60"/>
+      <c r="BG91" s="60"/>
+      <c r="BH91" s="60"/>
+      <c r="BI91" s="60"/>
+      <c r="BJ91" s="60"/>
+      <c r="BK91" s="60"/>
+      <c r="BL91" s="60"/>
+      <c r="BM91" s="60"/>
+      <c r="BN91" s="60"/>
+      <c r="BO91" s="60"/>
+      <c r="BP91" s="60"/>
+      <c r="BQ91" s="60"/>
+      <c r="BR91" s="60"/>
+      <c r="BS91" s="60"/>
+      <c r="BT91" s="60"/>
+      <c r="BU91" s="60"/>
+      <c r="BV91" s="60"/>
+      <c r="BW91" s="60"/>
+      <c r="BX91" s="60"/>
     </row>
     <row r="92" customHeight="1" spans="1:76">
       <c r="A92" s="27"/>
@@ -5273,7 +5554,6 @@
       <c r="S92" s="27"/>
       <c r="T92" s="27"/>
       <c r="U92" s="27"/>
-      <c r="V92" s="25"/>
       <c r="W92" s="27" t="s">
         <v>0</v>
       </c>
@@ -5295,32 +5575,32 @@
       <c r="AC92" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY92" s="68"/>
-      <c r="AZ92" s="68"/>
-      <c r="BA92" s="68"/>
-      <c r="BB92" s="68"/>
-      <c r="BC92" s="68"/>
-      <c r="BD92" s="68"/>
-      <c r="BE92" s="68"/>
-      <c r="BF92" s="68"/>
-      <c r="BG92" s="68"/>
-      <c r="BH92" s="68"/>
-      <c r="BI92" s="68"/>
-      <c r="BJ92" s="68"/>
-      <c r="BK92" s="68"/>
-      <c r="BL92" s="68"/>
-      <c r="BM92" s="68"/>
-      <c r="BN92" s="68"/>
-      <c r="BO92" s="68"/>
-      <c r="BP92" s="68"/>
-      <c r="BQ92" s="68"/>
-      <c r="BR92" s="68"/>
-      <c r="BS92" s="68"/>
-      <c r="BT92" s="68"/>
-      <c r="BU92" s="68"/>
-      <c r="BV92" s="68"/>
-      <c r="BW92" s="68"/>
-      <c r="BX92" s="68"/>
+      <c r="AY92" s="60"/>
+      <c r="AZ92" s="60"/>
+      <c r="BA92" s="60"/>
+      <c r="BB92" s="60"/>
+      <c r="BC92" s="60"/>
+      <c r="BD92" s="60"/>
+      <c r="BE92" s="60"/>
+      <c r="BF92" s="60"/>
+      <c r="BG92" s="60"/>
+      <c r="BH92" s="60"/>
+      <c r="BI92" s="60"/>
+      <c r="BJ92" s="60"/>
+      <c r="BK92" s="60"/>
+      <c r="BL92" s="60"/>
+      <c r="BM92" s="60"/>
+      <c r="BN92" s="60"/>
+      <c r="BO92" s="60"/>
+      <c r="BP92" s="60"/>
+      <c r="BQ92" s="60"/>
+      <c r="BR92" s="60"/>
+      <c r="BS92" s="60"/>
+      <c r="BT92" s="60"/>
+      <c r="BU92" s="60"/>
+      <c r="BV92" s="60"/>
+      <c r="BW92" s="60"/>
+      <c r="BX92" s="60"/>
     </row>
     <row r="93" customHeight="1" spans="1:76">
       <c r="A93" s="27"/>
@@ -5343,7 +5623,6 @@
       <c r="S93" s="27"/>
       <c r="T93" s="27"/>
       <c r="U93" s="27"/>
-      <c r="V93" s="25"/>
       <c r="W93" s="27" t="s">
         <v>0</v>
       </c>
@@ -5365,32 +5644,32 @@
       <c r="AC93" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY93" s="68"/>
-      <c r="AZ93" s="68"/>
-      <c r="BA93" s="68"/>
-      <c r="BB93" s="68"/>
-      <c r="BC93" s="68"/>
-      <c r="BD93" s="68"/>
-      <c r="BE93" s="68"/>
-      <c r="BF93" s="68"/>
-      <c r="BG93" s="68"/>
-      <c r="BH93" s="68"/>
-      <c r="BI93" s="68"/>
-      <c r="BJ93" s="68"/>
-      <c r="BK93" s="68"/>
-      <c r="BL93" s="68"/>
-      <c r="BM93" s="68"/>
-      <c r="BN93" s="68"/>
-      <c r="BO93" s="68"/>
-      <c r="BP93" s="68"/>
-      <c r="BQ93" s="68"/>
-      <c r="BR93" s="68"/>
-      <c r="BS93" s="68"/>
-      <c r="BT93" s="68"/>
-      <c r="BU93" s="68"/>
-      <c r="BV93" s="68"/>
-      <c r="BW93" s="68"/>
-      <c r="BX93" s="68"/>
+      <c r="AY93" s="60"/>
+      <c r="AZ93" s="60"/>
+      <c r="BA93" s="60"/>
+      <c r="BB93" s="60"/>
+      <c r="BC93" s="60"/>
+      <c r="BD93" s="60"/>
+      <c r="BE93" s="60"/>
+      <c r="BF93" s="60"/>
+      <c r="BG93" s="60"/>
+      <c r="BH93" s="60"/>
+      <c r="BI93" s="60"/>
+      <c r="BJ93" s="60"/>
+      <c r="BK93" s="60"/>
+      <c r="BL93" s="60"/>
+      <c r="BM93" s="60"/>
+      <c r="BN93" s="60"/>
+      <c r="BO93" s="60"/>
+      <c r="BP93" s="60"/>
+      <c r="BQ93" s="60"/>
+      <c r="BR93" s="60"/>
+      <c r="BS93" s="60"/>
+      <c r="BT93" s="60"/>
+      <c r="BU93" s="60"/>
+      <c r="BV93" s="60"/>
+      <c r="BW93" s="60"/>
+      <c r="BX93" s="60"/>
     </row>
     <row r="94" customHeight="1" spans="23:76">
       <c r="W94" s="27" t="s">
@@ -5414,32 +5693,32 @@
       <c r="AC94" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY94" s="68"/>
-      <c r="AZ94" s="68"/>
-      <c r="BA94" s="68"/>
-      <c r="BB94" s="68"/>
-      <c r="BC94" s="68"/>
-      <c r="BD94" s="68"/>
-      <c r="BE94" s="68"/>
-      <c r="BF94" s="68"/>
-      <c r="BG94" s="68"/>
-      <c r="BH94" s="68"/>
-      <c r="BI94" s="68"/>
-      <c r="BJ94" s="68"/>
-      <c r="BK94" s="68"/>
-      <c r="BL94" s="68"/>
-      <c r="BM94" s="68"/>
-      <c r="BN94" s="68"/>
-      <c r="BO94" s="68"/>
-      <c r="BP94" s="68"/>
-      <c r="BQ94" s="68"/>
-      <c r="BR94" s="68"/>
-      <c r="BS94" s="68"/>
-      <c r="BT94" s="68"/>
-      <c r="BU94" s="68"/>
-      <c r="BV94" s="68"/>
-      <c r="BW94" s="68"/>
-      <c r="BX94" s="68"/>
+      <c r="AY94" s="60"/>
+      <c r="AZ94" s="60"/>
+      <c r="BA94" s="60"/>
+      <c r="BB94" s="60"/>
+      <c r="BC94" s="60"/>
+      <c r="BD94" s="60"/>
+      <c r="BE94" s="60"/>
+      <c r="BF94" s="60"/>
+      <c r="BG94" s="60"/>
+      <c r="BH94" s="60"/>
+      <c r="BI94" s="60"/>
+      <c r="BJ94" s="60"/>
+      <c r="BK94" s="60"/>
+      <c r="BL94" s="60"/>
+      <c r="BM94" s="60"/>
+      <c r="BN94" s="60"/>
+      <c r="BO94" s="60"/>
+      <c r="BP94" s="60"/>
+      <c r="BQ94" s="60"/>
+      <c r="BR94" s="60"/>
+      <c r="BS94" s="60"/>
+      <c r="BT94" s="60"/>
+      <c r="BU94" s="60"/>
+      <c r="BV94" s="60"/>
+      <c r="BW94" s="60"/>
+      <c r="BX94" s="60"/>
     </row>
     <row r="95" customHeight="1" spans="1:76">
       <c r="A95" s="27"/>
@@ -5481,32 +5760,32 @@
       <c r="AC95" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY95" s="68"/>
-      <c r="AZ95" s="68"/>
-      <c r="BA95" s="68"/>
-      <c r="BB95" s="68"/>
-      <c r="BC95" s="68"/>
-      <c r="BD95" s="68"/>
-      <c r="BE95" s="68"/>
-      <c r="BF95" s="68"/>
-      <c r="BG95" s="68"/>
-      <c r="BH95" s="68"/>
-      <c r="BI95" s="68"/>
-      <c r="BJ95" s="68"/>
-      <c r="BK95" s="68"/>
-      <c r="BL95" s="68"/>
-      <c r="BM95" s="68"/>
-      <c r="BN95" s="68"/>
-      <c r="BO95" s="68"/>
-      <c r="BP95" s="68"/>
-      <c r="BQ95" s="68"/>
-      <c r="BR95" s="68"/>
-      <c r="BS95" s="68"/>
-      <c r="BT95" s="68"/>
-      <c r="BU95" s="68"/>
-      <c r="BV95" s="68"/>
-      <c r="BW95" s="68"/>
-      <c r="BX95" s="68"/>
+      <c r="AY95" s="60"/>
+      <c r="AZ95" s="60"/>
+      <c r="BA95" s="60"/>
+      <c r="BB95" s="60"/>
+      <c r="BC95" s="60"/>
+      <c r="BD95" s="60"/>
+      <c r="BE95" s="60"/>
+      <c r="BF95" s="60"/>
+      <c r="BG95" s="60"/>
+      <c r="BH95" s="60"/>
+      <c r="BI95" s="60"/>
+      <c r="BJ95" s="60"/>
+      <c r="BK95" s="60"/>
+      <c r="BL95" s="60"/>
+      <c r="BM95" s="60"/>
+      <c r="BN95" s="60"/>
+      <c r="BO95" s="60"/>
+      <c r="BP95" s="60"/>
+      <c r="BQ95" s="60"/>
+      <c r="BR95" s="60"/>
+      <c r="BS95" s="60"/>
+      <c r="BT95" s="60"/>
+      <c r="BU95" s="60"/>
+      <c r="BV95" s="60"/>
+      <c r="BW95" s="60"/>
+      <c r="BX95" s="60"/>
     </row>
     <row r="96" customHeight="1" spans="1:76">
       <c r="A96" s="27"/>
@@ -5548,32 +5827,32 @@
       <c r="AC96" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY96" s="68"/>
-      <c r="AZ96" s="68"/>
-      <c r="BA96" s="68"/>
-      <c r="BB96" s="68"/>
-      <c r="BC96" s="68"/>
-      <c r="BD96" s="68"/>
-      <c r="BE96" s="68"/>
-      <c r="BF96" s="68"/>
-      <c r="BG96" s="68"/>
-      <c r="BH96" s="68"/>
-      <c r="BI96" s="68"/>
-      <c r="BJ96" s="68"/>
-      <c r="BK96" s="68"/>
-      <c r="BL96" s="68"/>
-      <c r="BM96" s="68"/>
-      <c r="BN96" s="68"/>
-      <c r="BO96" s="68"/>
-      <c r="BP96" s="68"/>
-      <c r="BQ96" s="68"/>
-      <c r="BR96" s="68"/>
-      <c r="BS96" s="68"/>
-      <c r="BT96" s="68"/>
-      <c r="BU96" s="68"/>
-      <c r="BV96" s="68"/>
-      <c r="BW96" s="68"/>
-      <c r="BX96" s="68"/>
+      <c r="AY96" s="60"/>
+      <c r="AZ96" s="60"/>
+      <c r="BA96" s="60"/>
+      <c r="BB96" s="60"/>
+      <c r="BC96" s="60"/>
+      <c r="BD96" s="60"/>
+      <c r="BE96" s="60"/>
+      <c r="BF96" s="60"/>
+      <c r="BG96" s="60"/>
+      <c r="BH96" s="60"/>
+      <c r="BI96" s="60"/>
+      <c r="BJ96" s="60"/>
+      <c r="BK96" s="60"/>
+      <c r="BL96" s="60"/>
+      <c r="BM96" s="60"/>
+      <c r="BN96" s="60"/>
+      <c r="BO96" s="60"/>
+      <c r="BP96" s="60"/>
+      <c r="BQ96" s="60"/>
+      <c r="BR96" s="60"/>
+      <c r="BS96" s="60"/>
+      <c r="BT96" s="60"/>
+      <c r="BU96" s="60"/>
+      <c r="BV96" s="60"/>
+      <c r="BW96" s="60"/>
+      <c r="BX96" s="60"/>
     </row>
     <row r="97" customHeight="1" spans="1:76">
       <c r="A97" s="27"/>
@@ -5615,368 +5894,368 @@
       <c r="AC97" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY97" s="68"/>
-      <c r="AZ97" s="68"/>
-      <c r="BA97" s="68"/>
-      <c r="BB97" s="68"/>
-      <c r="BC97" s="68"/>
-      <c r="BD97" s="68"/>
-      <c r="BE97" s="68"/>
-      <c r="BF97" s="68"/>
-      <c r="BG97" s="68"/>
-      <c r="BH97" s="68"/>
-      <c r="BI97" s="68"/>
-      <c r="BJ97" s="68"/>
-      <c r="BK97" s="68"/>
-      <c r="BL97" s="68"/>
-      <c r="BM97" s="68"/>
-      <c r="BN97" s="68"/>
-      <c r="BO97" s="68"/>
-      <c r="BP97" s="68"/>
-      <c r="BQ97" s="68"/>
-      <c r="BR97" s="68"/>
-      <c r="BS97" s="68"/>
-      <c r="BT97" s="68"/>
-      <c r="BU97" s="68"/>
-      <c r="BV97" s="68"/>
-      <c r="BW97" s="68"/>
-      <c r="BX97" s="68"/>
+      <c r="AY97" s="60"/>
+      <c r="AZ97" s="60"/>
+      <c r="BA97" s="60"/>
+      <c r="BB97" s="60"/>
+      <c r="BC97" s="60"/>
+      <c r="BD97" s="60"/>
+      <c r="BE97" s="60"/>
+      <c r="BF97" s="60"/>
+      <c r="BG97" s="60"/>
+      <c r="BH97" s="60"/>
+      <c r="BI97" s="60"/>
+      <c r="BJ97" s="60"/>
+      <c r="BK97" s="60"/>
+      <c r="BL97" s="60"/>
+      <c r="BM97" s="60"/>
+      <c r="BN97" s="60"/>
+      <c r="BO97" s="60"/>
+      <c r="BP97" s="60"/>
+      <c r="BQ97" s="60"/>
+      <c r="BR97" s="60"/>
+      <c r="BS97" s="60"/>
+      <c r="BT97" s="60"/>
+      <c r="BU97" s="60"/>
+      <c r="BV97" s="60"/>
+      <c r="BW97" s="60"/>
+      <c r="BX97" s="60"/>
     </row>
     <row r="98" customHeight="1" spans="51:76">
-      <c r="AY98" s="68"/>
-      <c r="AZ98" s="68"/>
-      <c r="BA98" s="68"/>
-      <c r="BB98" s="68"/>
-      <c r="BC98" s="68"/>
-      <c r="BD98" s="68"/>
-      <c r="BE98" s="68"/>
-      <c r="BF98" s="68"/>
-      <c r="BG98" s="68"/>
-      <c r="BH98" s="68"/>
-      <c r="BI98" s="68"/>
-      <c r="BJ98" s="68"/>
-      <c r="BK98" s="68"/>
-      <c r="BL98" s="68"/>
-      <c r="BM98" s="68"/>
-      <c r="BN98" s="68"/>
-      <c r="BO98" s="68"/>
-      <c r="BP98" s="68"/>
-      <c r="BQ98" s="68"/>
-      <c r="BR98" s="68"/>
-      <c r="BS98" s="68"/>
-      <c r="BT98" s="68"/>
-      <c r="BU98" s="68"/>
-      <c r="BV98" s="68"/>
-      <c r="BW98" s="68"/>
-      <c r="BX98" s="68"/>
+      <c r="AY98" s="60"/>
+      <c r="AZ98" s="60"/>
+      <c r="BA98" s="60"/>
+      <c r="BB98" s="60"/>
+      <c r="BC98" s="60"/>
+      <c r="BD98" s="60"/>
+      <c r="BE98" s="60"/>
+      <c r="BF98" s="60"/>
+      <c r="BG98" s="60"/>
+      <c r="BH98" s="60"/>
+      <c r="BI98" s="60"/>
+      <c r="BJ98" s="60"/>
+      <c r="BK98" s="60"/>
+      <c r="BL98" s="60"/>
+      <c r="BM98" s="60"/>
+      <c r="BN98" s="60"/>
+      <c r="BO98" s="60"/>
+      <c r="BP98" s="60"/>
+      <c r="BQ98" s="60"/>
+      <c r="BR98" s="60"/>
+      <c r="BS98" s="60"/>
+      <c r="BT98" s="60"/>
+      <c r="BU98" s="60"/>
+      <c r="BV98" s="60"/>
+      <c r="BW98" s="60"/>
+      <c r="BX98" s="60"/>
     </row>
     <row r="99" customHeight="1" spans="51:76">
-      <c r="AY99" s="68"/>
-      <c r="AZ99" s="68"/>
-      <c r="BA99" s="68"/>
-      <c r="BB99" s="68"/>
-      <c r="BC99" s="68"/>
-      <c r="BD99" s="68"/>
-      <c r="BE99" s="68"/>
-      <c r="BF99" s="68"/>
-      <c r="BG99" s="68"/>
-      <c r="BH99" s="68"/>
-      <c r="BI99" s="68"/>
-      <c r="BJ99" s="68"/>
-      <c r="BK99" s="68"/>
-      <c r="BL99" s="68"/>
-      <c r="BM99" s="68"/>
-      <c r="BN99" s="68"/>
-      <c r="BO99" s="68"/>
-      <c r="BP99" s="68"/>
-      <c r="BQ99" s="68"/>
-      <c r="BR99" s="68"/>
-      <c r="BS99" s="68"/>
-      <c r="BT99" s="68"/>
-      <c r="BU99" s="68"/>
-      <c r="BV99" s="68"/>
-      <c r="BW99" s="68"/>
-      <c r="BX99" s="68"/>
+      <c r="AY99" s="60"/>
+      <c r="AZ99" s="60"/>
+      <c r="BA99" s="60"/>
+      <c r="BB99" s="60"/>
+      <c r="BC99" s="60"/>
+      <c r="BD99" s="60"/>
+      <c r="BE99" s="60"/>
+      <c r="BF99" s="60"/>
+      <c r="BG99" s="60"/>
+      <c r="BH99" s="60"/>
+      <c r="BI99" s="60"/>
+      <c r="BJ99" s="60"/>
+      <c r="BK99" s="60"/>
+      <c r="BL99" s="60"/>
+      <c r="BM99" s="60"/>
+      <c r="BN99" s="60"/>
+      <c r="BO99" s="60"/>
+      <c r="BP99" s="60"/>
+      <c r="BQ99" s="60"/>
+      <c r="BR99" s="60"/>
+      <c r="BS99" s="60"/>
+      <c r="BT99" s="60"/>
+      <c r="BU99" s="60"/>
+      <c r="BV99" s="60"/>
+      <c r="BW99" s="60"/>
+      <c r="BX99" s="60"/>
     </row>
     <row r="100" customHeight="1" spans="51:76">
-      <c r="AY100" s="68"/>
-      <c r="AZ100" s="68"/>
-      <c r="BA100" s="68"/>
-      <c r="BB100" s="68"/>
-      <c r="BC100" s="68"/>
-      <c r="BD100" s="68"/>
-      <c r="BE100" s="68"/>
-      <c r="BF100" s="68"/>
-      <c r="BG100" s="68"/>
-      <c r="BH100" s="68"/>
-      <c r="BI100" s="68"/>
-      <c r="BJ100" s="68"/>
-      <c r="BK100" s="68"/>
-      <c r="BL100" s="68"/>
-      <c r="BM100" s="68"/>
-      <c r="BN100" s="68"/>
-      <c r="BO100" s="68"/>
-      <c r="BP100" s="68"/>
-      <c r="BQ100" s="68"/>
-      <c r="BR100" s="68"/>
-      <c r="BS100" s="68"/>
-      <c r="BT100" s="68"/>
-      <c r="BU100" s="68"/>
-      <c r="BV100" s="68"/>
-      <c r="BW100" s="68"/>
-      <c r="BX100" s="68"/>
+      <c r="AY100" s="60"/>
+      <c r="AZ100" s="60"/>
+      <c r="BA100" s="60"/>
+      <c r="BB100" s="60"/>
+      <c r="BC100" s="60"/>
+      <c r="BD100" s="60"/>
+      <c r="BE100" s="60"/>
+      <c r="BF100" s="60"/>
+      <c r="BG100" s="60"/>
+      <c r="BH100" s="60"/>
+      <c r="BI100" s="60"/>
+      <c r="BJ100" s="60"/>
+      <c r="BK100" s="60"/>
+      <c r="BL100" s="60"/>
+      <c r="BM100" s="60"/>
+      <c r="BN100" s="60"/>
+      <c r="BO100" s="60"/>
+      <c r="BP100" s="60"/>
+      <c r="BQ100" s="60"/>
+      <c r="BR100" s="60"/>
+      <c r="BS100" s="60"/>
+      <c r="BT100" s="60"/>
+      <c r="BU100" s="60"/>
+      <c r="BV100" s="60"/>
+      <c r="BW100" s="60"/>
+      <c r="BX100" s="60"/>
     </row>
     <row r="101" customHeight="1" spans="51:76">
-      <c r="AY101" s="68"/>
-      <c r="AZ101" s="68"/>
-      <c r="BA101" s="68"/>
-      <c r="BB101" s="68"/>
-      <c r="BC101" s="68"/>
-      <c r="BD101" s="68"/>
-      <c r="BE101" s="68"/>
-      <c r="BF101" s="68"/>
-      <c r="BG101" s="68"/>
-      <c r="BH101" s="68"/>
-      <c r="BI101" s="68"/>
-      <c r="BJ101" s="68"/>
-      <c r="BK101" s="68"/>
-      <c r="BL101" s="68"/>
-      <c r="BM101" s="68"/>
-      <c r="BN101" s="68"/>
-      <c r="BO101" s="68"/>
-      <c r="BP101" s="68"/>
-      <c r="BQ101" s="68"/>
-      <c r="BR101" s="68"/>
-      <c r="BS101" s="68"/>
-      <c r="BT101" s="68"/>
-      <c r="BU101" s="68"/>
-      <c r="BV101" s="68"/>
-      <c r="BW101" s="68"/>
-      <c r="BX101" s="68"/>
+      <c r="AY101" s="60"/>
+      <c r="AZ101" s="60"/>
+      <c r="BA101" s="60"/>
+      <c r="BB101" s="60"/>
+      <c r="BC101" s="60"/>
+      <c r="BD101" s="60"/>
+      <c r="BE101" s="60"/>
+      <c r="BF101" s="60"/>
+      <c r="BG101" s="60"/>
+      <c r="BH101" s="60"/>
+      <c r="BI101" s="60"/>
+      <c r="BJ101" s="60"/>
+      <c r="BK101" s="60"/>
+      <c r="BL101" s="60"/>
+      <c r="BM101" s="60"/>
+      <c r="BN101" s="60"/>
+      <c r="BO101" s="60"/>
+      <c r="BP101" s="60"/>
+      <c r="BQ101" s="60"/>
+      <c r="BR101" s="60"/>
+      <c r="BS101" s="60"/>
+      <c r="BT101" s="60"/>
+      <c r="BU101" s="60"/>
+      <c r="BV101" s="60"/>
+      <c r="BW101" s="60"/>
+      <c r="BX101" s="60"/>
     </row>
     <row r="102" customHeight="1" spans="51:76">
-      <c r="AY102" s="68"/>
-      <c r="AZ102" s="68"/>
-      <c r="BA102" s="68"/>
-      <c r="BB102" s="68"/>
-      <c r="BC102" s="68"/>
-      <c r="BD102" s="68"/>
-      <c r="BE102" s="68"/>
-      <c r="BF102" s="68"/>
-      <c r="BG102" s="68"/>
-      <c r="BH102" s="68"/>
-      <c r="BI102" s="68"/>
-      <c r="BJ102" s="68"/>
-      <c r="BK102" s="68"/>
-      <c r="BL102" s="68"/>
-      <c r="BM102" s="68"/>
-      <c r="BN102" s="68"/>
-      <c r="BO102" s="68"/>
-      <c r="BP102" s="68"/>
-      <c r="BQ102" s="68"/>
-      <c r="BR102" s="68"/>
-      <c r="BS102" s="68"/>
-      <c r="BT102" s="68"/>
-      <c r="BU102" s="68"/>
-      <c r="BV102" s="68"/>
-      <c r="BW102" s="68"/>
-      <c r="BX102" s="68"/>
+      <c r="AY102" s="60"/>
+      <c r="AZ102" s="60"/>
+      <c r="BA102" s="60"/>
+      <c r="BB102" s="60"/>
+      <c r="BC102" s="60"/>
+      <c r="BD102" s="60"/>
+      <c r="BE102" s="60"/>
+      <c r="BF102" s="60"/>
+      <c r="BG102" s="60"/>
+      <c r="BH102" s="60"/>
+      <c r="BI102" s="60"/>
+      <c r="BJ102" s="60"/>
+      <c r="BK102" s="60"/>
+      <c r="BL102" s="60"/>
+      <c r="BM102" s="60"/>
+      <c r="BN102" s="60"/>
+      <c r="BO102" s="60"/>
+      <c r="BP102" s="60"/>
+      <c r="BQ102" s="60"/>
+      <c r="BR102" s="60"/>
+      <c r="BS102" s="60"/>
+      <c r="BT102" s="60"/>
+      <c r="BU102" s="60"/>
+      <c r="BV102" s="60"/>
+      <c r="BW102" s="60"/>
+      <c r="BX102" s="60"/>
     </row>
     <row r="103" customHeight="1" spans="51:76">
-      <c r="AY103" s="68"/>
-      <c r="AZ103" s="68"/>
-      <c r="BA103" s="68"/>
-      <c r="BB103" s="68"/>
-      <c r="BC103" s="68"/>
-      <c r="BD103" s="68"/>
-      <c r="BE103" s="68"/>
-      <c r="BF103" s="68"/>
-      <c r="BG103" s="68"/>
-      <c r="BH103" s="68"/>
-      <c r="BI103" s="68"/>
-      <c r="BJ103" s="68"/>
-      <c r="BK103" s="68"/>
-      <c r="BL103" s="68"/>
-      <c r="BM103" s="68"/>
-      <c r="BN103" s="68"/>
-      <c r="BO103" s="68"/>
-      <c r="BP103" s="68"/>
-      <c r="BQ103" s="68"/>
-      <c r="BR103" s="68"/>
-      <c r="BS103" s="68"/>
-      <c r="BT103" s="68"/>
-      <c r="BU103" s="68"/>
-      <c r="BV103" s="68"/>
-      <c r="BW103" s="68"/>
-      <c r="BX103" s="68"/>
+      <c r="AY103" s="60"/>
+      <c r="AZ103" s="60"/>
+      <c r="BA103" s="60"/>
+      <c r="BB103" s="60"/>
+      <c r="BC103" s="60"/>
+      <c r="BD103" s="60"/>
+      <c r="BE103" s="60"/>
+      <c r="BF103" s="60"/>
+      <c r="BG103" s="60"/>
+      <c r="BH103" s="60"/>
+      <c r="BI103" s="60"/>
+      <c r="BJ103" s="60"/>
+      <c r="BK103" s="60"/>
+      <c r="BL103" s="60"/>
+      <c r="BM103" s="60"/>
+      <c r="BN103" s="60"/>
+      <c r="BO103" s="60"/>
+      <c r="BP103" s="60"/>
+      <c r="BQ103" s="60"/>
+      <c r="BR103" s="60"/>
+      <c r="BS103" s="60"/>
+      <c r="BT103" s="60"/>
+      <c r="BU103" s="60"/>
+      <c r="BV103" s="60"/>
+      <c r="BW103" s="60"/>
+      <c r="BX103" s="60"/>
     </row>
     <row r="104" customHeight="1" spans="51:76">
-      <c r="AY104" s="68"/>
-      <c r="AZ104" s="68"/>
-      <c r="BA104" s="68"/>
-      <c r="BB104" s="68"/>
-      <c r="BC104" s="68"/>
-      <c r="BD104" s="68"/>
-      <c r="BE104" s="68"/>
-      <c r="BF104" s="68"/>
-      <c r="BG104" s="68"/>
-      <c r="BH104" s="68"/>
-      <c r="BI104" s="68"/>
-      <c r="BJ104" s="68"/>
-      <c r="BK104" s="68"/>
-      <c r="BL104" s="68"/>
-      <c r="BM104" s="68"/>
-      <c r="BN104" s="68"/>
-      <c r="BO104" s="68"/>
-      <c r="BP104" s="68"/>
-      <c r="BQ104" s="68"/>
-      <c r="BR104" s="68"/>
-      <c r="BS104" s="68"/>
-      <c r="BT104" s="68"/>
-      <c r="BU104" s="68"/>
-      <c r="BV104" s="68"/>
-      <c r="BW104" s="68"/>
-      <c r="BX104" s="68"/>
+      <c r="AY104" s="60"/>
+      <c r="AZ104" s="60"/>
+      <c r="BA104" s="60"/>
+      <c r="BB104" s="60"/>
+      <c r="BC104" s="60"/>
+      <c r="BD104" s="60"/>
+      <c r="BE104" s="60"/>
+      <c r="BF104" s="60"/>
+      <c r="BG104" s="60"/>
+      <c r="BH104" s="60"/>
+      <c r="BI104" s="60"/>
+      <c r="BJ104" s="60"/>
+      <c r="BK104" s="60"/>
+      <c r="BL104" s="60"/>
+      <c r="BM104" s="60"/>
+      <c r="BN104" s="60"/>
+      <c r="BO104" s="60"/>
+      <c r="BP104" s="60"/>
+      <c r="BQ104" s="60"/>
+      <c r="BR104" s="60"/>
+      <c r="BS104" s="60"/>
+      <c r="BT104" s="60"/>
+      <c r="BU104" s="60"/>
+      <c r="BV104" s="60"/>
+      <c r="BW104" s="60"/>
+      <c r="BX104" s="60"/>
     </row>
     <row r="105" customHeight="1" spans="51:76">
-      <c r="AY105" s="68"/>
-      <c r="AZ105" s="68"/>
-      <c r="BA105" s="68"/>
-      <c r="BB105" s="68"/>
-      <c r="BC105" s="68"/>
-      <c r="BD105" s="68"/>
-      <c r="BE105" s="68"/>
-      <c r="BF105" s="68"/>
-      <c r="BG105" s="68"/>
-      <c r="BH105" s="68"/>
-      <c r="BI105" s="68"/>
-      <c r="BJ105" s="68"/>
-      <c r="BK105" s="68"/>
-      <c r="BL105" s="68"/>
-      <c r="BM105" s="68"/>
-      <c r="BN105" s="68"/>
-      <c r="BO105" s="68"/>
-      <c r="BP105" s="68"/>
-      <c r="BQ105" s="68"/>
-      <c r="BR105" s="68"/>
-      <c r="BS105" s="68"/>
-      <c r="BT105" s="68"/>
-      <c r="BU105" s="68"/>
-      <c r="BV105" s="68"/>
-      <c r="BW105" s="68"/>
-      <c r="BX105" s="68"/>
+      <c r="AY105" s="60"/>
+      <c r="AZ105" s="60"/>
+      <c r="BA105" s="60"/>
+      <c r="BB105" s="60"/>
+      <c r="BC105" s="60"/>
+      <c r="BD105" s="60"/>
+      <c r="BE105" s="60"/>
+      <c r="BF105" s="60"/>
+      <c r="BG105" s="60"/>
+      <c r="BH105" s="60"/>
+      <c r="BI105" s="60"/>
+      <c r="BJ105" s="60"/>
+      <c r="BK105" s="60"/>
+      <c r="BL105" s="60"/>
+      <c r="BM105" s="60"/>
+      <c r="BN105" s="60"/>
+      <c r="BO105" s="60"/>
+      <c r="BP105" s="60"/>
+      <c r="BQ105" s="60"/>
+      <c r="BR105" s="60"/>
+      <c r="BS105" s="60"/>
+      <c r="BT105" s="60"/>
+      <c r="BU105" s="60"/>
+      <c r="BV105" s="60"/>
+      <c r="BW105" s="60"/>
+      <c r="BX105" s="60"/>
     </row>
     <row r="106" customHeight="1" spans="51:76">
-      <c r="AY106" s="68"/>
-      <c r="AZ106" s="68"/>
-      <c r="BA106" s="68"/>
-      <c r="BB106" s="68"/>
-      <c r="BC106" s="68"/>
-      <c r="BD106" s="68"/>
-      <c r="BE106" s="68"/>
-      <c r="BF106" s="68"/>
-      <c r="BG106" s="68"/>
-      <c r="BH106" s="68"/>
-      <c r="BI106" s="68"/>
-      <c r="BJ106" s="68"/>
-      <c r="BK106" s="68"/>
-      <c r="BL106" s="68"/>
-      <c r="BM106" s="68"/>
-      <c r="BN106" s="68"/>
-      <c r="BO106" s="68"/>
-      <c r="BP106" s="68"/>
-      <c r="BQ106" s="68"/>
-      <c r="BR106" s="68"/>
-      <c r="BS106" s="68"/>
-      <c r="BT106" s="68"/>
-      <c r="BU106" s="68"/>
-      <c r="BV106" s="68"/>
-      <c r="BW106" s="68"/>
-      <c r="BX106" s="68"/>
+      <c r="AY106" s="60"/>
+      <c r="AZ106" s="60"/>
+      <c r="BA106" s="60"/>
+      <c r="BB106" s="60"/>
+      <c r="BC106" s="60"/>
+      <c r="BD106" s="60"/>
+      <c r="BE106" s="60"/>
+      <c r="BF106" s="60"/>
+      <c r="BG106" s="60"/>
+      <c r="BH106" s="60"/>
+      <c r="BI106" s="60"/>
+      <c r="BJ106" s="60"/>
+      <c r="BK106" s="60"/>
+      <c r="BL106" s="60"/>
+      <c r="BM106" s="60"/>
+      <c r="BN106" s="60"/>
+      <c r="BO106" s="60"/>
+      <c r="BP106" s="60"/>
+      <c r="BQ106" s="60"/>
+      <c r="BR106" s="60"/>
+      <c r="BS106" s="60"/>
+      <c r="BT106" s="60"/>
+      <c r="BU106" s="60"/>
+      <c r="BV106" s="60"/>
+      <c r="BW106" s="60"/>
+      <c r="BX106" s="60"/>
     </row>
     <row r="107" customHeight="1" spans="51:76">
-      <c r="AY107" s="68"/>
-      <c r="AZ107" s="68"/>
-      <c r="BA107" s="68"/>
-      <c r="BB107" s="68"/>
-      <c r="BC107" s="68"/>
-      <c r="BD107" s="68"/>
-      <c r="BE107" s="68"/>
-      <c r="BF107" s="68"/>
-      <c r="BG107" s="68"/>
-      <c r="BH107" s="68"/>
-      <c r="BI107" s="68"/>
-      <c r="BJ107" s="68"/>
-      <c r="BK107" s="68"/>
-      <c r="BL107" s="68"/>
-      <c r="BM107" s="68"/>
-      <c r="BN107" s="68"/>
-      <c r="BO107" s="68"/>
-      <c r="BP107" s="68"/>
-      <c r="BQ107" s="68"/>
-      <c r="BR107" s="68"/>
-      <c r="BS107" s="68"/>
-      <c r="BT107" s="68"/>
-      <c r="BU107" s="68"/>
-      <c r="BV107" s="68"/>
-      <c r="BW107" s="68"/>
-      <c r="BX107" s="68"/>
+      <c r="AY107" s="60"/>
+      <c r="AZ107" s="60"/>
+      <c r="BA107" s="60"/>
+      <c r="BB107" s="60"/>
+      <c r="BC107" s="60"/>
+      <c r="BD107" s="60"/>
+      <c r="BE107" s="60"/>
+      <c r="BF107" s="60"/>
+      <c r="BG107" s="60"/>
+      <c r="BH107" s="60"/>
+      <c r="BI107" s="60"/>
+      <c r="BJ107" s="60"/>
+      <c r="BK107" s="60"/>
+      <c r="BL107" s="60"/>
+      <c r="BM107" s="60"/>
+      <c r="BN107" s="60"/>
+      <c r="BO107" s="60"/>
+      <c r="BP107" s="60"/>
+      <c r="BQ107" s="60"/>
+      <c r="BR107" s="60"/>
+      <c r="BS107" s="60"/>
+      <c r="BT107" s="60"/>
+      <c r="BU107" s="60"/>
+      <c r="BV107" s="60"/>
+      <c r="BW107" s="60"/>
+      <c r="BX107" s="60"/>
     </row>
     <row r="108" customHeight="1" spans="51:76">
-      <c r="AY108" s="68"/>
-      <c r="AZ108" s="68"/>
-      <c r="BA108" s="68"/>
-      <c r="BB108" s="68"/>
-      <c r="BC108" s="68"/>
-      <c r="BD108" s="68"/>
-      <c r="BE108" s="68"/>
-      <c r="BF108" s="68"/>
-      <c r="BG108" s="68"/>
-      <c r="BH108" s="68"/>
-      <c r="BI108" s="68"/>
-      <c r="BJ108" s="68"/>
-      <c r="BK108" s="68"/>
-      <c r="BL108" s="68"/>
-      <c r="BM108" s="68"/>
-      <c r="BN108" s="68"/>
-      <c r="BO108" s="68"/>
-      <c r="BP108" s="68"/>
-      <c r="BQ108" s="68"/>
-      <c r="BR108" s="68"/>
-      <c r="BS108" s="68"/>
-      <c r="BT108" s="68"/>
-      <c r="BU108" s="68"/>
-      <c r="BV108" s="68"/>
-      <c r="BW108" s="68"/>
-      <c r="BX108" s="68"/>
+      <c r="AY108" s="60"/>
+      <c r="AZ108" s="60"/>
+      <c r="BA108" s="60"/>
+      <c r="BB108" s="60"/>
+      <c r="BC108" s="60"/>
+      <c r="BD108" s="60"/>
+      <c r="BE108" s="60"/>
+      <c r="BF108" s="60"/>
+      <c r="BG108" s="60"/>
+      <c r="BH108" s="60"/>
+      <c r="BI108" s="60"/>
+      <c r="BJ108" s="60"/>
+      <c r="BK108" s="60"/>
+      <c r="BL108" s="60"/>
+      <c r="BM108" s="60"/>
+      <c r="BN108" s="60"/>
+      <c r="BO108" s="60"/>
+      <c r="BP108" s="60"/>
+      <c r="BQ108" s="60"/>
+      <c r="BR108" s="60"/>
+      <c r="BS108" s="60"/>
+      <c r="BT108" s="60"/>
+      <c r="BU108" s="60"/>
+      <c r="BV108" s="60"/>
+      <c r="BW108" s="60"/>
+      <c r="BX108" s="60"/>
     </row>
     <row r="109" customHeight="1" spans="51:76">
-      <c r="AY109" s="68"/>
-      <c r="AZ109" s="68"/>
-      <c r="BA109" s="68"/>
-      <c r="BB109" s="68"/>
-      <c r="BC109" s="68"/>
-      <c r="BD109" s="68"/>
-      <c r="BE109" s="68"/>
-      <c r="BF109" s="68"/>
-      <c r="BG109" s="68"/>
-      <c r="BH109" s="68"/>
-      <c r="BI109" s="68"/>
-      <c r="BJ109" s="68"/>
-      <c r="BK109" s="68"/>
-      <c r="BL109" s="68"/>
-      <c r="BM109" s="68"/>
-      <c r="BN109" s="68"/>
-      <c r="BO109" s="68"/>
-      <c r="BP109" s="68"/>
-      <c r="BQ109" s="68"/>
-      <c r="BR109" s="68"/>
-      <c r="BS109" s="68"/>
-      <c r="BT109" s="68"/>
-      <c r="BU109" s="68"/>
-      <c r="BV109" s="68"/>
-      <c r="BW109" s="68"/>
-      <c r="BX109" s="68"/>
+      <c r="AY109" s="60"/>
+      <c r="AZ109" s="60"/>
+      <c r="BA109" s="60"/>
+      <c r="BB109" s="60"/>
+      <c r="BC109" s="60"/>
+      <c r="BD109" s="60"/>
+      <c r="BE109" s="60"/>
+      <c r="BF109" s="60"/>
+      <c r="BG109" s="60"/>
+      <c r="BH109" s="60"/>
+      <c r="BI109" s="60"/>
+      <c r="BJ109" s="60"/>
+      <c r="BK109" s="60"/>
+      <c r="BL109" s="60"/>
+      <c r="BM109" s="60"/>
+      <c r="BN109" s="60"/>
+      <c r="BO109" s="60"/>
+      <c r="BP109" s="60"/>
+      <c r="BQ109" s="60"/>
+      <c r="BR109" s="60"/>
+      <c r="BS109" s="60"/>
+      <c r="BT109" s="60"/>
+      <c r="BU109" s="60"/>
+      <c r="BV109" s="60"/>
+      <c r="BW109" s="60"/>
+      <c r="BX109" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/positioned blocks/01.xlsx
+++ b/positioned blocks/01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="9885"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>a0</t>
   </si>
@@ -24,13 +24,19 @@
     <t>b0</t>
   </si>
   <si>
-    <t>left: calc(px_all + percent_all + blank_all)</t>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>g0</t>
   </si>
   <si>
     <t>c2</t>
   </si>
   <si>
     <t>d2</t>
+  </si>
+  <si>
+    <t>f3</t>
   </si>
   <si>
     <t>.</t>
@@ -67,6 +73,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>定边方法：</t>
     </r>
     <r>
@@ -131,6 +144,9 @@
     <t>b</t>
   </si>
   <si>
+    <t>left: calc(px_all + percent_all + blank_all)</t>
+  </si>
+  <si>
     <t>5/40*100</t>
   </si>
 </sst>
@@ -139,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -186,11 +202,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,8 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,22 +265,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +300,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,19 +325,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,16 +338,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,55 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +402,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,85 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,21 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -665,15 +678,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +702,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +755,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +999,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,6 +1027,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,7 +1173,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1391,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:BX109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="BJ46" sqref="BJ46:BJ52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" customHeight="1"/>
@@ -1441,31 +1475,31 @@
       <c r="N1" s="26">
         <v>2</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" customHeight="1" spans="1:40">
       <c r="A2" s="26">
@@ -1507,31 +1541,31 @@
       <c r="N2" s="26">
         <v>2</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
     </row>
     <row r="3" customHeight="1" spans="1:40">
       <c r="A3" s="26">
@@ -1573,31 +1607,31 @@
       <c r="N3" s="26">
         <v>2</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="5" customHeight="1" spans="1:19">
       <c r="A5" s="27"/>
@@ -2213,26 +2247,26 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="26"/>
@@ -2252,26 +2286,26 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
       <c r="AH28" s="26"/>
@@ -2314,11 +2348,11 @@
       <c r="AF30" s="27"/>
       <c r="AG30" s="27"/>
       <c r="AH30" s="27"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
     </row>
     <row r="31" customHeight="1" spans="1:40">
       <c r="A31" s="27"/>
@@ -2352,11 +2386,11 @@
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
       <c r="AH31" s="27"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
     </row>
     <row r="32" customHeight="1" spans="1:40">
       <c r="A32" s="27"/>
@@ -2390,11 +2424,11 @@
       <c r="AF32" s="27"/>
       <c r="AG32" s="27"/>
       <c r="AH32" s="27"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
     </row>
     <row r="33" customHeight="1" spans="1:40">
       <c r="A33" s="27"/>
@@ -2428,11 +2462,11 @@
       <c r="AF33" s="27"/>
       <c r="AG33" s="27"/>
       <c r="AH33" s="27"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
     </row>
     <row r="36" customHeight="1" spans="1:40">
       <c r="A36" s="26" t="s">
@@ -2462,36 +2496,90 @@
       <c r="J36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
+      <c r="L36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="38" t="s">
+        <v>2</v>
+      </c>
       <c r="AF36" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="AG36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="1:40">
       <c r="A37" s="26" t="s">
@@ -2521,34 +2609,90 @@
       <c r="J37" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
+      <c r="L37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" customHeight="1" spans="1:40">
       <c r="A38" s="26" t="s">
@@ -2578,34 +2722,90 @@
       <c r="J38" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
+      <c r="L38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:40">
       <c r="A39" s="26" t="s">
@@ -2635,121 +2835,289 @@
       <c r="J39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
+      <c r="L39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="12:40">
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
+      <c r="L40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN40" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="1:71">
-      <c r="A41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
+      <c r="E41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN41" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="BJ41" s="26" t="s">
         <v>0</v>
       </c>
@@ -2779,61 +3147,117 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:71">
-      <c r="A42" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
+      <c r="E42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="BJ42" s="26" t="s">
         <v>0</v>
       </c>
@@ -2863,61 +3287,117 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:71">
-      <c r="A43" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="26" t="s">
+      <c r="A43" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
+      <c r="E43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN43" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="BJ43" s="26" t="s">
         <v>0</v>
       </c>
@@ -2947,61 +3427,117 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:71">
-      <c r="A44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
+      <c r="E44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN44" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="BJ44" s="26" t="s">
         <v>0</v>
       </c>
@@ -3031,1176 +3567,1540 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:40">
-      <c r="A45" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="C45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="E45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:71">
+      <c r="A46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:71">
-      <c r="A46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="BK46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="BL46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="BN46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS46" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="32:71">
+      <c r="AF47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="BK47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="BL47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="26"/>
-      <c r="BJ46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL46" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN46" s="26" t="s">
+      <c r="BN47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS47" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:71">
+      <c r="A48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="W48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD48" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BO46" s="26" t="s">
+      <c r="BK48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BP46" s="26" t="s">
+      <c r="BL48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BQ46" s="26" t="s">
+      <c r="BN48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS48" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:71">
+      <c r="A49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BR46" s="26" t="s">
+      <c r="BK49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BS46" s="26" t="s">
+      <c r="BL49" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="32:71">
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="BJ47" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK47" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL47" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN47" s="26" t="s">
+      <c r="BN49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS49" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:71">
+      <c r="A50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD50" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BO47" s="26" t="s">
+      <c r="BK50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BP47" s="26" t="s">
+      <c r="BL50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BQ47" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR47" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS47" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:71">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="26"/>
-      <c r="BJ48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS48" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:71">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="26"/>
-      <c r="AN49" s="26"/>
-      <c r="BJ49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN49" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO49" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP49" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ49" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR49" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS49" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:71">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="26"/>
-      <c r="BJ50" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK50" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL50" s="26" t="s">
-        <v>3</v>
-      </c>
       <c r="BN50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BQ50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS50" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:71">
       <c r="A51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN51" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ51" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK51" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL51" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BN51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS51" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:71">
+      <c r="A52" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="F52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="S52" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="54"/>
+      <c r="AM52" s="54"/>
+      <c r="AN52" s="55"/>
+      <c r="BJ52" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BO51" s="26" t="s">
+      <c r="BK52" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BP51" s="26" t="s">
+      <c r="BL52" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BQ51" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR51" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS51" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:71">
-      <c r="A52" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="F52" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="S52" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="29" t="s">
+      <c r="BN52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS52" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:40">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="40"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="49"/>
+      <c r="AK53" s="49"/>
+      <c r="AL53" s="49"/>
+      <c r="AM53" s="49"/>
+      <c r="AN53" s="56"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:40">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="57"/>
+      <c r="AJ54" s="58"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="58"/>
+      <c r="AM54" s="58"/>
+      <c r="AN54" s="59"/>
+    </row>
+    <row r="56" s="25" customFormat="1" customHeight="1" spans="1:40">
+      <c r="A56" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="37" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="39" t="s">
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AE52" s="40"/>
-      <c r="AF52" s="40"/>
-      <c r="AG52" s="40"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="51" t="s">
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="53"/>
-      <c r="BJ52" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK52" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL52" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS52" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:40">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="38"/>
-      <c r="AI53" s="46"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="47"/>
-      <c r="AL53" s="47"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="54"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:40">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="43"/>
-      <c r="AF54" s="43"/>
-      <c r="AG54" s="43"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="57"/>
-    </row>
-    <row r="56" s="25" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="40"/>
-      <c r="AG56" s="40"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ56" s="52"/>
-      <c r="AK56" s="52"/>
-      <c r="AL56" s="52"/>
-      <c r="AM56" s="52"/>
-      <c r="AN56" s="53"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ56" s="54"/>
+      <c r="AK56" s="54"/>
+      <c r="AL56" s="54"/>
+      <c r="AM56" s="54"/>
+      <c r="AN56" s="55"/>
     </row>
     <row r="57" s="25" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="38"/>
-      <c r="AI57" s="46"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="47"/>
-      <c r="AL57" s="47"/>
-      <c r="AM57" s="47"/>
-      <c r="AN57" s="54"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="40"/>
+      <c r="AI57" s="48"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="49"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="49"/>
+      <c r="AN57" s="56"/>
     </row>
     <row r="58" s="25" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="43"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="43"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="56"/>
-      <c r="AL58" s="56"/>
-      <c r="AM58" s="56"/>
-      <c r="AN58" s="57"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="45"/>
+      <c r="AF58" s="45"/>
+      <c r="AG58" s="45"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="58"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="58"/>
+      <c r="AM58" s="58"/>
+      <c r="AN58" s="59"/>
     </row>
     <row r="60" customHeight="1" spans="1:54">
       <c r="A60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB60" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:54">
-      <c r="A61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="F61" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="44"/>
-      <c r="AB61" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC61" s="45"/>
-      <c r="AD61" s="46" t="s">
+      <c r="A61" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="F61" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="47"/>
-      <c r="AH61" s="47"/>
-      <c r="AI61" s="47"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="47"/>
-      <c r="AL61" s="47"/>
-      <c r="AM61" s="47"/>
-      <c r="AN61" s="54"/>
-      <c r="AP61" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ61" s="45"/>
-      <c r="AR61" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS61" s="47"/>
-      <c r="AT61" s="47"/>
-      <c r="AU61" s="47"/>
-      <c r="AV61" s="47"/>
-      <c r="AW61" s="47"/>
-      <c r="AX61" s="47"/>
-      <c r="AY61" s="47"/>
-      <c r="AZ61" s="47"/>
-      <c r="BA61" s="47"/>
-      <c r="BB61" s="54"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="46"/>
+      <c r="AB61" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="56"/>
+      <c r="AP61" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ61" s="47"/>
+      <c r="AR61" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="49"/>
+      <c r="AW61" s="49"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="49"/>
+      <c r="AZ61" s="49"/>
+      <c r="BA61" s="49"/>
+      <c r="BB61" s="56"/>
     </row>
     <row r="62" customHeight="1" spans="1:54">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="48"/>
-      <c r="AB62" s="41"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="46"/>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="47"/>
-      <c r="AH62" s="47"/>
-      <c r="AI62" s="47"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="47"/>
-      <c r="AL62" s="47"/>
-      <c r="AM62" s="47"/>
-      <c r="AN62" s="54"/>
-      <c r="AP62" s="41"/>
-      <c r="AQ62" s="38"/>
-      <c r="AR62" s="46"/>
-      <c r="AS62" s="47"/>
-      <c r="AT62" s="47"/>
-      <c r="AU62" s="47"/>
-      <c r="AV62" s="47"/>
-      <c r="AW62" s="47"/>
-      <c r="AX62" s="47"/>
-      <c r="AY62" s="47"/>
-      <c r="AZ62" s="47"/>
-      <c r="BA62" s="47"/>
-      <c r="BB62" s="54"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="50"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="48"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="56"/>
+      <c r="AP62" s="43"/>
+      <c r="AQ62" s="40"/>
+      <c r="AR62" s="48"/>
+      <c r="AS62" s="49"/>
+      <c r="AT62" s="49"/>
+      <c r="AU62" s="49"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="49"/>
+      <c r="AZ62" s="49"/>
+      <c r="BA62" s="49"/>
+      <c r="BB62" s="56"/>
     </row>
     <row r="63" customHeight="1" spans="1:54">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="49"/>
-      <c r="AB63" s="42"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="46"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="47"/>
-      <c r="AH63" s="47"/>
-      <c r="AI63" s="47"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="47"/>
-      <c r="AL63" s="47"/>
-      <c r="AM63" s="47"/>
-      <c r="AN63" s="54"/>
-      <c r="AP63" s="42"/>
-      <c r="AQ63" s="50"/>
-      <c r="AR63" s="46"/>
-      <c r="AS63" s="47"/>
-      <c r="AT63" s="47"/>
-      <c r="AU63" s="47"/>
-      <c r="AV63" s="47"/>
-      <c r="AW63" s="47"/>
-      <c r="AX63" s="47"/>
-      <c r="AY63" s="47"/>
-      <c r="AZ63" s="47"/>
-      <c r="BA63" s="47"/>
-      <c r="BB63" s="54"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="51"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="56"/>
+      <c r="AP63" s="44"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="48"/>
+      <c r="AS63" s="49"/>
+      <c r="AT63" s="49"/>
+      <c r="AU63" s="49"/>
+      <c r="AV63" s="49"/>
+      <c r="AW63" s="49"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="49"/>
+      <c r="AZ63" s="49"/>
+      <c r="BA63" s="49"/>
+      <c r="BB63" s="56"/>
     </row>
     <row r="65" customHeight="1" spans="1:76">
       <c r="A65" s="26"/>
@@ -4209,35 +5109,35 @@
       <c r="D65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
-      <c r="AX65" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY65" s="59"/>
-      <c r="AZ65" s="59"/>
-      <c r="BA65" s="59"/>
-      <c r="BB65" s="59"/>
-      <c r="BC65" s="59"/>
-      <c r="BD65" s="59"/>
-      <c r="BE65" s="59"/>
-      <c r="BF65" s="59"/>
-      <c r="BG65" s="59"/>
-      <c r="BH65" s="59"/>
-      <c r="BI65" s="59"/>
-      <c r="BJ65" s="59"/>
-      <c r="BK65" s="59"/>
-      <c r="BL65" s="59"/>
-      <c r="BM65" s="59"/>
-      <c r="BN65" s="59"/>
-      <c r="BO65" s="59"/>
-      <c r="BP65" s="59"/>
-      <c r="BQ65" s="59"/>
-      <c r="BR65" s="59"/>
-      <c r="BS65" s="59"/>
-      <c r="BT65" s="59"/>
-      <c r="BU65" s="59"/>
-      <c r="BV65" s="59"/>
-      <c r="BW65" s="59"/>
-      <c r="BX65" s="59"/>
+      <c r="AX65" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY65" s="61"/>
+      <c r="AZ65" s="61"/>
+      <c r="BA65" s="61"/>
+      <c r="BB65" s="61"/>
+      <c r="BC65" s="61"/>
+      <c r="BD65" s="61"/>
+      <c r="BE65" s="61"/>
+      <c r="BF65" s="61"/>
+      <c r="BG65" s="61"/>
+      <c r="BH65" s="61"/>
+      <c r="BI65" s="61"/>
+      <c r="BJ65" s="61"/>
+      <c r="BK65" s="61"/>
+      <c r="BL65" s="61"/>
+      <c r="BM65" s="61"/>
+      <c r="BN65" s="61"/>
+      <c r="BO65" s="61"/>
+      <c r="BP65" s="61"/>
+      <c r="BQ65" s="61"/>
+      <c r="BR65" s="61"/>
+      <c r="BS65" s="61"/>
+      <c r="BT65" s="61"/>
+      <c r="BU65" s="61"/>
+      <c r="BV65" s="61"/>
+      <c r="BW65" s="61"/>
+      <c r="BX65" s="61"/>
     </row>
     <row r="66" customHeight="1" spans="1:76">
       <c r="A66" s="26"/>
@@ -4248,33 +5148,33 @@
       <c r="G66" s="26"/>
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
-      <c r="AX66" s="59"/>
-      <c r="AY66" s="59"/>
-      <c r="AZ66" s="59"/>
-      <c r="BA66" s="59"/>
-      <c r="BB66" s="59"/>
-      <c r="BC66" s="59"/>
-      <c r="BD66" s="59"/>
-      <c r="BE66" s="59"/>
-      <c r="BF66" s="59"/>
-      <c r="BG66" s="59"/>
-      <c r="BH66" s="59"/>
-      <c r="BI66" s="59"/>
-      <c r="BJ66" s="59"/>
-      <c r="BK66" s="59"/>
-      <c r="BL66" s="59"/>
-      <c r="BM66" s="59"/>
-      <c r="BN66" s="59"/>
-      <c r="BO66" s="59"/>
-      <c r="BP66" s="59"/>
-      <c r="BQ66" s="59"/>
-      <c r="BR66" s="59"/>
-      <c r="BS66" s="59"/>
-      <c r="BT66" s="59"/>
-      <c r="BU66" s="59"/>
-      <c r="BV66" s="59"/>
-      <c r="BW66" s="59"/>
-      <c r="BX66" s="59"/>
+      <c r="AX66" s="61"/>
+      <c r="AY66" s="61"/>
+      <c r="AZ66" s="61"/>
+      <c r="BA66" s="61"/>
+      <c r="BB66" s="61"/>
+      <c r="BC66" s="61"/>
+      <c r="BD66" s="61"/>
+      <c r="BE66" s="61"/>
+      <c r="BF66" s="61"/>
+      <c r="BG66" s="61"/>
+      <c r="BH66" s="61"/>
+      <c r="BI66" s="61"/>
+      <c r="BJ66" s="61"/>
+      <c r="BK66" s="61"/>
+      <c r="BL66" s="61"/>
+      <c r="BM66" s="61"/>
+      <c r="BN66" s="61"/>
+      <c r="BO66" s="61"/>
+      <c r="BP66" s="61"/>
+      <c r="BQ66" s="61"/>
+      <c r="BR66" s="61"/>
+      <c r="BS66" s="61"/>
+      <c r="BT66" s="61"/>
+      <c r="BU66" s="61"/>
+      <c r="BV66" s="61"/>
+      <c r="BW66" s="61"/>
+      <c r="BX66" s="61"/>
     </row>
     <row r="67" customHeight="1" spans="6:76">
       <c r="F67" s="26"/>
@@ -4283,33 +5183,33 @@
       <c r="J67" s="26"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
-      <c r="AX67" s="59"/>
-      <c r="AY67" s="59"/>
-      <c r="AZ67" s="59"/>
-      <c r="BA67" s="59"/>
-      <c r="BB67" s="59"/>
-      <c r="BC67" s="59"/>
-      <c r="BD67" s="59"/>
-      <c r="BE67" s="59"/>
-      <c r="BF67" s="59"/>
-      <c r="BG67" s="59"/>
-      <c r="BH67" s="59"/>
-      <c r="BI67" s="59"/>
-      <c r="BJ67" s="59"/>
-      <c r="BK67" s="59"/>
-      <c r="BL67" s="59"/>
-      <c r="BM67" s="59"/>
-      <c r="BN67" s="59"/>
-      <c r="BO67" s="59"/>
-      <c r="BP67" s="59"/>
-      <c r="BQ67" s="59"/>
-      <c r="BR67" s="59"/>
-      <c r="BS67" s="59"/>
-      <c r="BT67" s="59"/>
-      <c r="BU67" s="59"/>
-      <c r="BV67" s="59"/>
-      <c r="BW67" s="59"/>
-      <c r="BX67" s="59"/>
+      <c r="AX67" s="61"/>
+      <c r="AY67" s="61"/>
+      <c r="AZ67" s="61"/>
+      <c r="BA67" s="61"/>
+      <c r="BB67" s="61"/>
+      <c r="BC67" s="61"/>
+      <c r="BD67" s="61"/>
+      <c r="BE67" s="61"/>
+      <c r="BF67" s="61"/>
+      <c r="BG67" s="61"/>
+      <c r="BH67" s="61"/>
+      <c r="BI67" s="61"/>
+      <c r="BJ67" s="61"/>
+      <c r="BK67" s="61"/>
+      <c r="BL67" s="61"/>
+      <c r="BM67" s="61"/>
+      <c r="BN67" s="61"/>
+      <c r="BO67" s="61"/>
+      <c r="BP67" s="61"/>
+      <c r="BQ67" s="61"/>
+      <c r="BR67" s="61"/>
+      <c r="BS67" s="61"/>
+      <c r="BT67" s="61"/>
+      <c r="BU67" s="61"/>
+      <c r="BV67" s="61"/>
+      <c r="BW67" s="61"/>
+      <c r="BX67" s="61"/>
     </row>
     <row r="68" customHeight="1" spans="1:76">
       <c r="A68" s="26"/>
@@ -4322,33 +5222,33 @@
       <c r="J68" s="26"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
-      <c r="AX68" s="59"/>
-      <c r="AY68" s="59"/>
-      <c r="AZ68" s="59"/>
-      <c r="BA68" s="59"/>
-      <c r="BB68" s="59"/>
-      <c r="BC68" s="59"/>
-      <c r="BD68" s="59"/>
-      <c r="BE68" s="59"/>
-      <c r="BF68" s="59"/>
-      <c r="BG68" s="59"/>
-      <c r="BH68" s="59"/>
-      <c r="BI68" s="59"/>
-      <c r="BJ68" s="59"/>
-      <c r="BK68" s="59"/>
-      <c r="BL68" s="59"/>
-      <c r="BM68" s="59"/>
-      <c r="BN68" s="59"/>
-      <c r="BO68" s="59"/>
-      <c r="BP68" s="59"/>
-      <c r="BQ68" s="59"/>
-      <c r="BR68" s="59"/>
-      <c r="BS68" s="59"/>
-      <c r="BT68" s="59"/>
-      <c r="BU68" s="59"/>
-      <c r="BV68" s="59"/>
-      <c r="BW68" s="59"/>
-      <c r="BX68" s="59"/>
+      <c r="AX68" s="61"/>
+      <c r="AY68" s="61"/>
+      <c r="AZ68" s="61"/>
+      <c r="BA68" s="61"/>
+      <c r="BB68" s="61"/>
+      <c r="BC68" s="61"/>
+      <c r="BD68" s="61"/>
+      <c r="BE68" s="61"/>
+      <c r="BF68" s="61"/>
+      <c r="BG68" s="61"/>
+      <c r="BH68" s="61"/>
+      <c r="BI68" s="61"/>
+      <c r="BJ68" s="61"/>
+      <c r="BK68" s="61"/>
+      <c r="BL68" s="61"/>
+      <c r="BM68" s="61"/>
+      <c r="BN68" s="61"/>
+      <c r="BO68" s="61"/>
+      <c r="BP68" s="61"/>
+      <c r="BQ68" s="61"/>
+      <c r="BR68" s="61"/>
+      <c r="BS68" s="61"/>
+      <c r="BT68" s="61"/>
+      <c r="BU68" s="61"/>
+      <c r="BV68" s="61"/>
+      <c r="BW68" s="61"/>
+      <c r="BX68" s="61"/>
     </row>
     <row r="69" customHeight="1" spans="1:76">
       <c r="A69" s="26"/>
@@ -4359,93 +5259,93 @@
       <c r="J69" s="26"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
-      <c r="AX69" s="59"/>
-      <c r="AY69" s="59"/>
-      <c r="AZ69" s="59"/>
-      <c r="BA69" s="59"/>
-      <c r="BB69" s="59"/>
-      <c r="BC69" s="59"/>
-      <c r="BD69" s="59"/>
-      <c r="BE69" s="59"/>
-      <c r="BF69" s="59"/>
-      <c r="BG69" s="59"/>
-      <c r="BH69" s="59"/>
-      <c r="BI69" s="59"/>
-      <c r="BJ69" s="59"/>
-      <c r="BK69" s="59"/>
-      <c r="BL69" s="59"/>
-      <c r="BM69" s="59"/>
-      <c r="BN69" s="59"/>
-      <c r="BO69" s="59"/>
-      <c r="BP69" s="59"/>
-      <c r="BQ69" s="59"/>
-      <c r="BR69" s="59"/>
-      <c r="BS69" s="59"/>
-      <c r="BT69" s="59"/>
-      <c r="BU69" s="59"/>
-      <c r="BV69" s="59"/>
-      <c r="BW69" s="59"/>
-      <c r="BX69" s="59"/>
+      <c r="AX69" s="61"/>
+      <c r="AY69" s="61"/>
+      <c r="AZ69" s="61"/>
+      <c r="BA69" s="61"/>
+      <c r="BB69" s="61"/>
+      <c r="BC69" s="61"/>
+      <c r="BD69" s="61"/>
+      <c r="BE69" s="61"/>
+      <c r="BF69" s="61"/>
+      <c r="BG69" s="61"/>
+      <c r="BH69" s="61"/>
+      <c r="BI69" s="61"/>
+      <c r="BJ69" s="61"/>
+      <c r="BK69" s="61"/>
+      <c r="BL69" s="61"/>
+      <c r="BM69" s="61"/>
+      <c r="BN69" s="61"/>
+      <c r="BO69" s="61"/>
+      <c r="BP69" s="61"/>
+      <c r="BQ69" s="61"/>
+      <c r="BR69" s="61"/>
+      <c r="BS69" s="61"/>
+      <c r="BT69" s="61"/>
+      <c r="BU69" s="61"/>
+      <c r="BV69" s="61"/>
+      <c r="BW69" s="61"/>
+      <c r="BX69" s="61"/>
     </row>
     <row r="70" customHeight="1" spans="12:76">
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
-      <c r="AX70" s="59"/>
-      <c r="AY70" s="59"/>
-      <c r="AZ70" s="59"/>
-      <c r="BA70" s="59"/>
-      <c r="BB70" s="59"/>
-      <c r="BC70" s="59"/>
-      <c r="BD70" s="59"/>
-      <c r="BE70" s="59"/>
-      <c r="BF70" s="59"/>
-      <c r="BG70" s="59"/>
-      <c r="BH70" s="59"/>
-      <c r="BI70" s="59"/>
-      <c r="BJ70" s="59"/>
-      <c r="BK70" s="59"/>
-      <c r="BL70" s="59"/>
-      <c r="BM70" s="59"/>
-      <c r="BN70" s="59"/>
-      <c r="BO70" s="59"/>
-      <c r="BP70" s="59"/>
-      <c r="BQ70" s="59"/>
-      <c r="BR70" s="59"/>
-      <c r="BS70" s="59"/>
-      <c r="BT70" s="59"/>
-      <c r="BU70" s="59"/>
-      <c r="BV70" s="59"/>
-      <c r="BW70" s="59"/>
-      <c r="BX70" s="59"/>
+      <c r="AX70" s="61"/>
+      <c r="AY70" s="61"/>
+      <c r="AZ70" s="61"/>
+      <c r="BA70" s="61"/>
+      <c r="BB70" s="61"/>
+      <c r="BC70" s="61"/>
+      <c r="BD70" s="61"/>
+      <c r="BE70" s="61"/>
+      <c r="BF70" s="61"/>
+      <c r="BG70" s="61"/>
+      <c r="BH70" s="61"/>
+      <c r="BI70" s="61"/>
+      <c r="BJ70" s="61"/>
+      <c r="BK70" s="61"/>
+      <c r="BL70" s="61"/>
+      <c r="BM70" s="61"/>
+      <c r="BN70" s="61"/>
+      <c r="BO70" s="61"/>
+      <c r="BP70" s="61"/>
+      <c r="BQ70" s="61"/>
+      <c r="BR70" s="61"/>
+      <c r="BS70" s="61"/>
+      <c r="BT70" s="61"/>
+      <c r="BU70" s="61"/>
+      <c r="BV70" s="61"/>
+      <c r="BW70" s="61"/>
+      <c r="BX70" s="61"/>
     </row>
     <row r="71" customHeight="1" spans="50:76">
-      <c r="AX71" s="59"/>
-      <c r="AY71" s="59"/>
-      <c r="AZ71" s="59"/>
-      <c r="BA71" s="59"/>
-      <c r="BB71" s="59"/>
-      <c r="BC71" s="59"/>
-      <c r="BD71" s="59"/>
-      <c r="BE71" s="59"/>
-      <c r="BF71" s="59"/>
-      <c r="BG71" s="59"/>
-      <c r="BH71" s="59"/>
-      <c r="BI71" s="59"/>
-      <c r="BJ71" s="59"/>
-      <c r="BK71" s="59"/>
-      <c r="BL71" s="59"/>
-      <c r="BM71" s="59"/>
-      <c r="BN71" s="59"/>
-      <c r="BO71" s="59"/>
-      <c r="BP71" s="59"/>
-      <c r="BQ71" s="59"/>
-      <c r="BR71" s="59"/>
-      <c r="BS71" s="59"/>
-      <c r="BT71" s="59"/>
-      <c r="BU71" s="59"/>
-      <c r="BV71" s="59"/>
-      <c r="BW71" s="59"/>
-      <c r="BX71" s="59"/>
+      <c r="AX71" s="61"/>
+      <c r="AY71" s="61"/>
+      <c r="AZ71" s="61"/>
+      <c r="BA71" s="61"/>
+      <c r="BB71" s="61"/>
+      <c r="BC71" s="61"/>
+      <c r="BD71" s="61"/>
+      <c r="BE71" s="61"/>
+      <c r="BF71" s="61"/>
+      <c r="BG71" s="61"/>
+      <c r="BH71" s="61"/>
+      <c r="BI71" s="61"/>
+      <c r="BJ71" s="61"/>
+      <c r="BK71" s="61"/>
+      <c r="BL71" s="61"/>
+      <c r="BM71" s="61"/>
+      <c r="BN71" s="61"/>
+      <c r="BO71" s="61"/>
+      <c r="BP71" s="61"/>
+      <c r="BQ71" s="61"/>
+      <c r="BR71" s="61"/>
+      <c r="BS71" s="61"/>
+      <c r="BT71" s="61"/>
+      <c r="BU71" s="61"/>
+      <c r="BV71" s="61"/>
+      <c r="BW71" s="61"/>
+      <c r="BX71" s="61"/>
     </row>
     <row r="72" customHeight="1" spans="1:76">
       <c r="A72" s="26"/>
@@ -4483,33 +5383,33 @@
       <c r="AL72" s="26"/>
       <c r="AM72" s="26"/>
       <c r="AN72" s="26"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="59"/>
-      <c r="BA72" s="59"/>
-      <c r="BB72" s="59"/>
-      <c r="BC72" s="59"/>
-      <c r="BD72" s="59"/>
-      <c r="BE72" s="59"/>
-      <c r="BF72" s="59"/>
-      <c r="BG72" s="59"/>
-      <c r="BH72" s="59"/>
-      <c r="BI72" s="59"/>
-      <c r="BJ72" s="59"/>
-      <c r="BK72" s="59"/>
-      <c r="BL72" s="59"/>
-      <c r="BM72" s="59"/>
-      <c r="BN72" s="59"/>
-      <c r="BO72" s="59"/>
-      <c r="BP72" s="59"/>
-      <c r="BQ72" s="59"/>
-      <c r="BR72" s="59"/>
-      <c r="BS72" s="59"/>
-      <c r="BT72" s="59"/>
-      <c r="BU72" s="59"/>
-      <c r="BV72" s="59"/>
-      <c r="BW72" s="59"/>
-      <c r="BX72" s="59"/>
+      <c r="AX72" s="61"/>
+      <c r="AY72" s="61"/>
+      <c r="AZ72" s="61"/>
+      <c r="BA72" s="61"/>
+      <c r="BB72" s="61"/>
+      <c r="BC72" s="61"/>
+      <c r="BD72" s="61"/>
+      <c r="BE72" s="61"/>
+      <c r="BF72" s="61"/>
+      <c r="BG72" s="61"/>
+      <c r="BH72" s="61"/>
+      <c r="BI72" s="61"/>
+      <c r="BJ72" s="61"/>
+      <c r="BK72" s="61"/>
+      <c r="BL72" s="61"/>
+      <c r="BM72" s="61"/>
+      <c r="BN72" s="61"/>
+      <c r="BO72" s="61"/>
+      <c r="BP72" s="61"/>
+      <c r="BQ72" s="61"/>
+      <c r="BR72" s="61"/>
+      <c r="BS72" s="61"/>
+      <c r="BT72" s="61"/>
+      <c r="BU72" s="61"/>
+      <c r="BV72" s="61"/>
+      <c r="BW72" s="61"/>
+      <c r="BX72" s="61"/>
     </row>
     <row r="73" customHeight="1" spans="1:76">
       <c r="A73" s="26"/>
@@ -4547,33 +5447,33 @@
       <c r="AL73" s="26"/>
       <c r="AM73" s="26"/>
       <c r="AN73" s="26"/>
-      <c r="AX73" s="59"/>
-      <c r="AY73" s="59"/>
-      <c r="AZ73" s="59"/>
-      <c r="BA73" s="59"/>
-      <c r="BB73" s="59"/>
-      <c r="BC73" s="59"/>
-      <c r="BD73" s="59"/>
-      <c r="BE73" s="59"/>
-      <c r="BF73" s="59"/>
-      <c r="BG73" s="59"/>
-      <c r="BH73" s="59"/>
-      <c r="BI73" s="59"/>
-      <c r="BJ73" s="59"/>
-      <c r="BK73" s="59"/>
-      <c r="BL73" s="59"/>
-      <c r="BM73" s="59"/>
-      <c r="BN73" s="59"/>
-      <c r="BO73" s="59"/>
-      <c r="BP73" s="59"/>
-      <c r="BQ73" s="59"/>
-      <c r="BR73" s="59"/>
-      <c r="BS73" s="59"/>
-      <c r="BT73" s="59"/>
-      <c r="BU73" s="59"/>
-      <c r="BV73" s="59"/>
-      <c r="BW73" s="59"/>
-      <c r="BX73" s="59"/>
+      <c r="AX73" s="61"/>
+      <c r="AY73" s="61"/>
+      <c r="AZ73" s="61"/>
+      <c r="BA73" s="61"/>
+      <c r="BB73" s="61"/>
+      <c r="BC73" s="61"/>
+      <c r="BD73" s="61"/>
+      <c r="BE73" s="61"/>
+      <c r="BF73" s="61"/>
+      <c r="BG73" s="61"/>
+      <c r="BH73" s="61"/>
+      <c r="BI73" s="61"/>
+      <c r="BJ73" s="61"/>
+      <c r="BK73" s="61"/>
+      <c r="BL73" s="61"/>
+      <c r="BM73" s="61"/>
+      <c r="BN73" s="61"/>
+      <c r="BO73" s="61"/>
+      <c r="BP73" s="61"/>
+      <c r="BQ73" s="61"/>
+      <c r="BR73" s="61"/>
+      <c r="BS73" s="61"/>
+      <c r="BT73" s="61"/>
+      <c r="BU73" s="61"/>
+      <c r="BV73" s="61"/>
+      <c r="BW73" s="61"/>
+      <c r="BX73" s="61"/>
     </row>
     <row r="74" customHeight="1" spans="1:76">
       <c r="A74" s="26"/>
@@ -4611,33 +5511,33 @@
       <c r="AL74" s="26"/>
       <c r="AM74" s="26"/>
       <c r="AN74" s="26"/>
-      <c r="AX74" s="59"/>
-      <c r="AY74" s="59"/>
-      <c r="AZ74" s="59"/>
-      <c r="BA74" s="59"/>
-      <c r="BB74" s="59"/>
-      <c r="BC74" s="59"/>
-      <c r="BD74" s="59"/>
-      <c r="BE74" s="59"/>
-      <c r="BF74" s="59"/>
-      <c r="BG74" s="59"/>
-      <c r="BH74" s="59"/>
-      <c r="BI74" s="59"/>
-      <c r="BJ74" s="59"/>
-      <c r="BK74" s="59"/>
-      <c r="BL74" s="59"/>
-      <c r="BM74" s="59"/>
-      <c r="BN74" s="59"/>
-      <c r="BO74" s="59"/>
-      <c r="BP74" s="59"/>
-      <c r="BQ74" s="59"/>
-      <c r="BR74" s="59"/>
-      <c r="BS74" s="59"/>
-      <c r="BT74" s="59"/>
-      <c r="BU74" s="59"/>
-      <c r="BV74" s="59"/>
-      <c r="BW74" s="59"/>
-      <c r="BX74" s="59"/>
+      <c r="AX74" s="61"/>
+      <c r="AY74" s="61"/>
+      <c r="AZ74" s="61"/>
+      <c r="BA74" s="61"/>
+      <c r="BB74" s="61"/>
+      <c r="BC74" s="61"/>
+      <c r="BD74" s="61"/>
+      <c r="BE74" s="61"/>
+      <c r="BF74" s="61"/>
+      <c r="BG74" s="61"/>
+      <c r="BH74" s="61"/>
+      <c r="BI74" s="61"/>
+      <c r="BJ74" s="61"/>
+      <c r="BK74" s="61"/>
+      <c r="BL74" s="61"/>
+      <c r="BM74" s="61"/>
+      <c r="BN74" s="61"/>
+      <c r="BO74" s="61"/>
+      <c r="BP74" s="61"/>
+      <c r="BQ74" s="61"/>
+      <c r="BR74" s="61"/>
+      <c r="BS74" s="61"/>
+      <c r="BT74" s="61"/>
+      <c r="BU74" s="61"/>
+      <c r="BV74" s="61"/>
+      <c r="BW74" s="61"/>
+      <c r="BX74" s="61"/>
     </row>
     <row r="75" customHeight="1" spans="1:76">
       <c r="A75" s="26"/>
@@ -4650,33 +5550,33 @@
       <c r="AL75" s="26"/>
       <c r="AM75" s="26"/>
       <c r="AN75" s="26"/>
-      <c r="AX75" s="59"/>
-      <c r="AY75" s="59"/>
-      <c r="AZ75" s="59"/>
-      <c r="BA75" s="59"/>
-      <c r="BB75" s="59"/>
-      <c r="BC75" s="59"/>
-      <c r="BD75" s="59"/>
-      <c r="BE75" s="59"/>
-      <c r="BF75" s="59"/>
-      <c r="BG75" s="59"/>
-      <c r="BH75" s="59"/>
-      <c r="BI75" s="59"/>
-      <c r="BJ75" s="59"/>
-      <c r="BK75" s="59"/>
-      <c r="BL75" s="59"/>
-      <c r="BM75" s="59"/>
-      <c r="BN75" s="59"/>
-      <c r="BO75" s="59"/>
-      <c r="BP75" s="59"/>
-      <c r="BQ75" s="59"/>
-      <c r="BR75" s="59"/>
-      <c r="BS75" s="59"/>
-      <c r="BT75" s="59"/>
-      <c r="BU75" s="59"/>
-      <c r="BV75" s="59"/>
-      <c r="BW75" s="59"/>
-      <c r="BX75" s="59"/>
+      <c r="AX75" s="61"/>
+      <c r="AY75" s="61"/>
+      <c r="AZ75" s="61"/>
+      <c r="BA75" s="61"/>
+      <c r="BB75" s="61"/>
+      <c r="BC75" s="61"/>
+      <c r="BD75" s="61"/>
+      <c r="BE75" s="61"/>
+      <c r="BF75" s="61"/>
+      <c r="BG75" s="61"/>
+      <c r="BH75" s="61"/>
+      <c r="BI75" s="61"/>
+      <c r="BJ75" s="61"/>
+      <c r="BK75" s="61"/>
+      <c r="BL75" s="61"/>
+      <c r="BM75" s="61"/>
+      <c r="BN75" s="61"/>
+      <c r="BO75" s="61"/>
+      <c r="BP75" s="61"/>
+      <c r="BQ75" s="61"/>
+      <c r="BR75" s="61"/>
+      <c r="BS75" s="61"/>
+      <c r="BT75" s="61"/>
+      <c r="BU75" s="61"/>
+      <c r="BV75" s="61"/>
+      <c r="BW75" s="61"/>
+      <c r="BX75" s="61"/>
     </row>
     <row r="76" customHeight="1" spans="1:76">
       <c r="A76" s="26"/>
@@ -4713,33 +5613,33 @@
       <c r="AL76" s="26"/>
       <c r="AM76" s="26"/>
       <c r="AN76" s="26"/>
-      <c r="AX76" s="59"/>
-      <c r="AY76" s="59"/>
-      <c r="AZ76" s="59"/>
-      <c r="BA76" s="59"/>
-      <c r="BB76" s="59"/>
-      <c r="BC76" s="59"/>
-      <c r="BD76" s="59"/>
-      <c r="BE76" s="59"/>
-      <c r="BF76" s="59"/>
-      <c r="BG76" s="59"/>
-      <c r="BH76" s="59"/>
-      <c r="BI76" s="59"/>
-      <c r="BJ76" s="59"/>
-      <c r="BK76" s="59"/>
-      <c r="BL76" s="59"/>
-      <c r="BM76" s="59"/>
-      <c r="BN76" s="59"/>
-      <c r="BO76" s="59"/>
-      <c r="BP76" s="59"/>
-      <c r="BQ76" s="59"/>
-      <c r="BR76" s="59"/>
-      <c r="BS76" s="59"/>
-      <c r="BT76" s="59"/>
-      <c r="BU76" s="59"/>
-      <c r="BV76" s="59"/>
-      <c r="BW76" s="59"/>
-      <c r="BX76" s="59"/>
+      <c r="AX76" s="61"/>
+      <c r="AY76" s="61"/>
+      <c r="AZ76" s="61"/>
+      <c r="BA76" s="61"/>
+      <c r="BB76" s="61"/>
+      <c r="BC76" s="61"/>
+      <c r="BD76" s="61"/>
+      <c r="BE76" s="61"/>
+      <c r="BF76" s="61"/>
+      <c r="BG76" s="61"/>
+      <c r="BH76" s="61"/>
+      <c r="BI76" s="61"/>
+      <c r="BJ76" s="61"/>
+      <c r="BK76" s="61"/>
+      <c r="BL76" s="61"/>
+      <c r="BM76" s="61"/>
+      <c r="BN76" s="61"/>
+      <c r="BO76" s="61"/>
+      <c r="BP76" s="61"/>
+      <c r="BQ76" s="61"/>
+      <c r="BR76" s="61"/>
+      <c r="BS76" s="61"/>
+      <c r="BT76" s="61"/>
+      <c r="BU76" s="61"/>
+      <c r="BV76" s="61"/>
+      <c r="BW76" s="61"/>
+      <c r="BX76" s="61"/>
     </row>
     <row r="77" customHeight="1" spans="1:76">
       <c r="A77" s="26"/>
@@ -4776,33 +5676,33 @@
       <c r="AL77" s="26"/>
       <c r="AM77" s="26"/>
       <c r="AN77" s="26"/>
-      <c r="AX77" s="59"/>
-      <c r="AY77" s="59"/>
-      <c r="AZ77" s="59"/>
-      <c r="BA77" s="59"/>
-      <c r="BB77" s="59"/>
-      <c r="BC77" s="59"/>
-      <c r="BD77" s="59"/>
-      <c r="BE77" s="59"/>
-      <c r="BF77" s="59"/>
-      <c r="BG77" s="59"/>
-      <c r="BH77" s="59"/>
-      <c r="BI77" s="59"/>
-      <c r="BJ77" s="59"/>
-      <c r="BK77" s="59"/>
-      <c r="BL77" s="59"/>
-      <c r="BM77" s="59"/>
-      <c r="BN77" s="59"/>
-      <c r="BO77" s="59"/>
-      <c r="BP77" s="59"/>
-      <c r="BQ77" s="59"/>
-      <c r="BR77" s="59"/>
-      <c r="BS77" s="59"/>
-      <c r="BT77" s="59"/>
-      <c r="BU77" s="59"/>
-      <c r="BV77" s="59"/>
-      <c r="BW77" s="59"/>
-      <c r="BX77" s="59"/>
+      <c r="AX77" s="61"/>
+      <c r="AY77" s="61"/>
+      <c r="AZ77" s="61"/>
+      <c r="BA77" s="61"/>
+      <c r="BB77" s="61"/>
+      <c r="BC77" s="61"/>
+      <c r="BD77" s="61"/>
+      <c r="BE77" s="61"/>
+      <c r="BF77" s="61"/>
+      <c r="BG77" s="61"/>
+      <c r="BH77" s="61"/>
+      <c r="BI77" s="61"/>
+      <c r="BJ77" s="61"/>
+      <c r="BK77" s="61"/>
+      <c r="BL77" s="61"/>
+      <c r="BM77" s="61"/>
+      <c r="BN77" s="61"/>
+      <c r="BO77" s="61"/>
+      <c r="BP77" s="61"/>
+      <c r="BQ77" s="61"/>
+      <c r="BR77" s="61"/>
+      <c r="BS77" s="61"/>
+      <c r="BT77" s="61"/>
+      <c r="BU77" s="61"/>
+      <c r="BV77" s="61"/>
+      <c r="BW77" s="61"/>
+      <c r="BX77" s="61"/>
     </row>
     <row r="78" customHeight="1" spans="1:76">
       <c r="A78" s="26"/>
@@ -4839,33 +5739,33 @@
       <c r="AL78" s="26"/>
       <c r="AM78" s="26"/>
       <c r="AN78" s="26"/>
-      <c r="AX78" s="59"/>
-      <c r="AY78" s="59"/>
-      <c r="AZ78" s="59"/>
-      <c r="BA78" s="59"/>
-      <c r="BB78" s="59"/>
-      <c r="BC78" s="59"/>
-      <c r="BD78" s="59"/>
-      <c r="BE78" s="59"/>
-      <c r="BF78" s="59"/>
-      <c r="BG78" s="59"/>
-      <c r="BH78" s="59"/>
-      <c r="BI78" s="59"/>
-      <c r="BJ78" s="59"/>
-      <c r="BK78" s="59"/>
-      <c r="BL78" s="59"/>
-      <c r="BM78" s="59"/>
-      <c r="BN78" s="59"/>
-      <c r="BO78" s="59"/>
-      <c r="BP78" s="59"/>
-      <c r="BQ78" s="59"/>
-      <c r="BR78" s="59"/>
-      <c r="BS78" s="59"/>
-      <c r="BT78" s="59"/>
-      <c r="BU78" s="59"/>
-      <c r="BV78" s="59"/>
-      <c r="BW78" s="59"/>
-      <c r="BX78" s="59"/>
+      <c r="AX78" s="61"/>
+      <c r="AY78" s="61"/>
+      <c r="AZ78" s="61"/>
+      <c r="BA78" s="61"/>
+      <c r="BB78" s="61"/>
+      <c r="BC78" s="61"/>
+      <c r="BD78" s="61"/>
+      <c r="BE78" s="61"/>
+      <c r="BF78" s="61"/>
+      <c r="BG78" s="61"/>
+      <c r="BH78" s="61"/>
+      <c r="BI78" s="61"/>
+      <c r="BJ78" s="61"/>
+      <c r="BK78" s="61"/>
+      <c r="BL78" s="61"/>
+      <c r="BM78" s="61"/>
+      <c r="BN78" s="61"/>
+      <c r="BO78" s="61"/>
+      <c r="BP78" s="61"/>
+      <c r="BQ78" s="61"/>
+      <c r="BR78" s="61"/>
+      <c r="BS78" s="61"/>
+      <c r="BT78" s="61"/>
+      <c r="BU78" s="61"/>
+      <c r="BV78" s="61"/>
+      <c r="BW78" s="61"/>
+      <c r="BX78" s="61"/>
     </row>
     <row r="79" customHeight="1" spans="8:76">
       <c r="H79" s="26"/>
@@ -4897,33 +5797,33 @@
       <c r="AL79" s="26"/>
       <c r="AM79" s="26"/>
       <c r="AN79" s="26"/>
-      <c r="AX79" s="59"/>
-      <c r="AY79" s="59"/>
-      <c r="AZ79" s="59"/>
-      <c r="BA79" s="59"/>
-      <c r="BB79" s="59"/>
-      <c r="BC79" s="59"/>
-      <c r="BD79" s="59"/>
-      <c r="BE79" s="59"/>
-      <c r="BF79" s="59"/>
-      <c r="BG79" s="59"/>
-      <c r="BH79" s="59"/>
-      <c r="BI79" s="59"/>
-      <c r="BJ79" s="59"/>
-      <c r="BK79" s="59"/>
-      <c r="BL79" s="59"/>
-      <c r="BM79" s="59"/>
-      <c r="BN79" s="59"/>
-      <c r="BO79" s="59"/>
-      <c r="BP79" s="59"/>
-      <c r="BQ79" s="59"/>
-      <c r="BR79" s="59"/>
-      <c r="BS79" s="59"/>
-      <c r="BT79" s="59"/>
-      <c r="BU79" s="59"/>
-      <c r="BV79" s="59"/>
-      <c r="BW79" s="59"/>
-      <c r="BX79" s="59"/>
+      <c r="AX79" s="61"/>
+      <c r="AY79" s="61"/>
+      <c r="AZ79" s="61"/>
+      <c r="BA79" s="61"/>
+      <c r="BB79" s="61"/>
+      <c r="BC79" s="61"/>
+      <c r="BD79" s="61"/>
+      <c r="BE79" s="61"/>
+      <c r="BF79" s="61"/>
+      <c r="BG79" s="61"/>
+      <c r="BH79" s="61"/>
+      <c r="BI79" s="61"/>
+      <c r="BJ79" s="61"/>
+      <c r="BK79" s="61"/>
+      <c r="BL79" s="61"/>
+      <c r="BM79" s="61"/>
+      <c r="BN79" s="61"/>
+      <c r="BO79" s="61"/>
+      <c r="BP79" s="61"/>
+      <c r="BQ79" s="61"/>
+      <c r="BR79" s="61"/>
+      <c r="BS79" s="61"/>
+      <c r="BT79" s="61"/>
+      <c r="BU79" s="61"/>
+      <c r="BV79" s="61"/>
+      <c r="BW79" s="61"/>
+      <c r="BX79" s="61"/>
     </row>
     <row r="80" customHeight="1" spans="1:76">
       <c r="A80" s="26"/>
@@ -4961,33 +5861,33 @@
       <c r="AL80" s="26"/>
       <c r="AM80" s="26"/>
       <c r="AN80" s="26"/>
-      <c r="AX80" s="59"/>
-      <c r="AY80" s="59"/>
-      <c r="AZ80" s="59"/>
-      <c r="BA80" s="59"/>
-      <c r="BB80" s="59"/>
-      <c r="BC80" s="59"/>
-      <c r="BD80" s="59"/>
-      <c r="BE80" s="59"/>
-      <c r="BF80" s="59"/>
-      <c r="BG80" s="59"/>
-      <c r="BH80" s="59"/>
-      <c r="BI80" s="59"/>
-      <c r="BJ80" s="59"/>
-      <c r="BK80" s="59"/>
-      <c r="BL80" s="59"/>
-      <c r="BM80" s="59"/>
-      <c r="BN80" s="59"/>
-      <c r="BO80" s="59"/>
-      <c r="BP80" s="59"/>
-      <c r="BQ80" s="59"/>
-      <c r="BR80" s="59"/>
-      <c r="BS80" s="59"/>
-      <c r="BT80" s="59"/>
-      <c r="BU80" s="59"/>
-      <c r="BV80" s="59"/>
-      <c r="BW80" s="59"/>
-      <c r="BX80" s="59"/>
+      <c r="AX80" s="61"/>
+      <c r="AY80" s="61"/>
+      <c r="AZ80" s="61"/>
+      <c r="BA80" s="61"/>
+      <c r="BB80" s="61"/>
+      <c r="BC80" s="61"/>
+      <c r="BD80" s="61"/>
+      <c r="BE80" s="61"/>
+      <c r="BF80" s="61"/>
+      <c r="BG80" s="61"/>
+      <c r="BH80" s="61"/>
+      <c r="BI80" s="61"/>
+      <c r="BJ80" s="61"/>
+      <c r="BK80" s="61"/>
+      <c r="BL80" s="61"/>
+      <c r="BM80" s="61"/>
+      <c r="BN80" s="61"/>
+      <c r="BO80" s="61"/>
+      <c r="BP80" s="61"/>
+      <c r="BQ80" s="61"/>
+      <c r="BR80" s="61"/>
+      <c r="BS80" s="61"/>
+      <c r="BT80" s="61"/>
+      <c r="BU80" s="61"/>
+      <c r="BV80" s="61"/>
+      <c r="BW80" s="61"/>
+      <c r="BX80" s="61"/>
     </row>
     <row r="81" customHeight="1" spans="1:76">
       <c r="A81" s="26"/>
@@ -5025,33 +5925,33 @@
       <c r="AL81" s="26"/>
       <c r="AM81" s="26"/>
       <c r="AN81" s="26"/>
-      <c r="AX81" s="59"/>
-      <c r="AY81" s="59"/>
-      <c r="AZ81" s="59"/>
-      <c r="BA81" s="59"/>
-      <c r="BB81" s="59"/>
-      <c r="BC81" s="59"/>
-      <c r="BD81" s="59"/>
-      <c r="BE81" s="59"/>
-      <c r="BF81" s="59"/>
-      <c r="BG81" s="59"/>
-      <c r="BH81" s="59"/>
-      <c r="BI81" s="59"/>
-      <c r="BJ81" s="59"/>
-      <c r="BK81" s="59"/>
-      <c r="BL81" s="59"/>
-      <c r="BM81" s="59"/>
-      <c r="BN81" s="59"/>
-      <c r="BO81" s="59"/>
-      <c r="BP81" s="59"/>
-      <c r="BQ81" s="59"/>
-      <c r="BR81" s="59"/>
-      <c r="BS81" s="59"/>
-      <c r="BT81" s="59"/>
-      <c r="BU81" s="59"/>
-      <c r="BV81" s="59"/>
-      <c r="BW81" s="59"/>
-      <c r="BX81" s="59"/>
+      <c r="AX81" s="61"/>
+      <c r="AY81" s="61"/>
+      <c r="AZ81" s="61"/>
+      <c r="BA81" s="61"/>
+      <c r="BB81" s="61"/>
+      <c r="BC81" s="61"/>
+      <c r="BD81" s="61"/>
+      <c r="BE81" s="61"/>
+      <c r="BF81" s="61"/>
+      <c r="BG81" s="61"/>
+      <c r="BH81" s="61"/>
+      <c r="BI81" s="61"/>
+      <c r="BJ81" s="61"/>
+      <c r="BK81" s="61"/>
+      <c r="BL81" s="61"/>
+      <c r="BM81" s="61"/>
+      <c r="BN81" s="61"/>
+      <c r="BO81" s="61"/>
+      <c r="BP81" s="61"/>
+      <c r="BQ81" s="61"/>
+      <c r="BR81" s="61"/>
+      <c r="BS81" s="61"/>
+      <c r="BT81" s="61"/>
+      <c r="BU81" s="61"/>
+      <c r="BV81" s="61"/>
+      <c r="BW81" s="61"/>
+      <c r="BX81" s="61"/>
     </row>
     <row r="82" customHeight="1" spans="1:76">
       <c r="A82" s="26"/>
@@ -5089,65 +5989,65 @@
       <c r="AL82" s="26"/>
       <c r="AM82" s="26"/>
       <c r="AN82" s="26"/>
-      <c r="AX82" s="59"/>
-      <c r="AY82" s="59"/>
-      <c r="AZ82" s="59"/>
-      <c r="BA82" s="59"/>
-      <c r="BB82" s="59"/>
-      <c r="BC82" s="59"/>
-      <c r="BD82" s="59"/>
-      <c r="BE82" s="59"/>
-      <c r="BF82" s="59"/>
-      <c r="BG82" s="59"/>
-      <c r="BH82" s="59"/>
-      <c r="BI82" s="59"/>
-      <c r="BJ82" s="59"/>
-      <c r="BK82" s="59"/>
-      <c r="BL82" s="59"/>
-      <c r="BM82" s="59"/>
-      <c r="BN82" s="59"/>
-      <c r="BO82" s="59"/>
-      <c r="BP82" s="59"/>
-      <c r="BQ82" s="59"/>
-      <c r="BR82" s="59"/>
-      <c r="BS82" s="59"/>
-      <c r="BT82" s="59"/>
-      <c r="BU82" s="59"/>
-      <c r="BV82" s="59"/>
-      <c r="BW82" s="59"/>
-      <c r="BX82" s="59"/>
+      <c r="AX82" s="61"/>
+      <c r="AY82" s="61"/>
+      <c r="AZ82" s="61"/>
+      <c r="BA82" s="61"/>
+      <c r="BB82" s="61"/>
+      <c r="BC82" s="61"/>
+      <c r="BD82" s="61"/>
+      <c r="BE82" s="61"/>
+      <c r="BF82" s="61"/>
+      <c r="BG82" s="61"/>
+      <c r="BH82" s="61"/>
+      <c r="BI82" s="61"/>
+      <c r="BJ82" s="61"/>
+      <c r="BK82" s="61"/>
+      <c r="BL82" s="61"/>
+      <c r="BM82" s="61"/>
+      <c r="BN82" s="61"/>
+      <c r="BO82" s="61"/>
+      <c r="BP82" s="61"/>
+      <c r="BQ82" s="61"/>
+      <c r="BR82" s="61"/>
+      <c r="BS82" s="61"/>
+      <c r="BT82" s="61"/>
+      <c r="BU82" s="61"/>
+      <c r="BV82" s="61"/>
+      <c r="BW82" s="61"/>
+      <c r="BX82" s="61"/>
     </row>
     <row r="83" customHeight="1" spans="38:76">
       <c r="AL83" s="26"/>
       <c r="AM83" s="26"/>
       <c r="AN83" s="26"/>
-      <c r="AX83" s="59"/>
-      <c r="AY83" s="59"/>
-      <c r="AZ83" s="59"/>
-      <c r="BA83" s="59"/>
-      <c r="BB83" s="59"/>
-      <c r="BC83" s="59"/>
-      <c r="BD83" s="59"/>
-      <c r="BE83" s="59"/>
-      <c r="BF83" s="59"/>
-      <c r="BG83" s="59"/>
-      <c r="BH83" s="59"/>
-      <c r="BI83" s="59"/>
-      <c r="BJ83" s="59"/>
-      <c r="BK83" s="59"/>
-      <c r="BL83" s="59"/>
-      <c r="BM83" s="59"/>
-      <c r="BN83" s="59"/>
-      <c r="BO83" s="59"/>
-      <c r="BP83" s="59"/>
-      <c r="BQ83" s="59"/>
-      <c r="BR83" s="59"/>
-      <c r="BS83" s="59"/>
-      <c r="BT83" s="59"/>
-      <c r="BU83" s="59"/>
-      <c r="BV83" s="59"/>
-      <c r="BW83" s="59"/>
-      <c r="BX83" s="59"/>
+      <c r="AX83" s="61"/>
+      <c r="AY83" s="61"/>
+      <c r="AZ83" s="61"/>
+      <c r="BA83" s="61"/>
+      <c r="BB83" s="61"/>
+      <c r="BC83" s="61"/>
+      <c r="BD83" s="61"/>
+      <c r="BE83" s="61"/>
+      <c r="BF83" s="61"/>
+      <c r="BG83" s="61"/>
+      <c r="BH83" s="61"/>
+      <c r="BI83" s="61"/>
+      <c r="BJ83" s="61"/>
+      <c r="BK83" s="61"/>
+      <c r="BL83" s="61"/>
+      <c r="BM83" s="61"/>
+      <c r="BN83" s="61"/>
+      <c r="BO83" s="61"/>
+      <c r="BP83" s="61"/>
+      <c r="BQ83" s="61"/>
+      <c r="BR83" s="61"/>
+      <c r="BS83" s="61"/>
+      <c r="BT83" s="61"/>
+      <c r="BU83" s="61"/>
+      <c r="BV83" s="61"/>
+      <c r="BW83" s="61"/>
+      <c r="BX83" s="61"/>
     </row>
     <row r="84" customHeight="1" spans="1:76">
       <c r="A84" s="27"/>
@@ -5188,33 +6088,33 @@
       <c r="AL84" s="26"/>
       <c r="AM84" s="26"/>
       <c r="AN84" s="26"/>
-      <c r="AX84" s="59"/>
-      <c r="AY84" s="59"/>
-      <c r="AZ84" s="59"/>
-      <c r="BA84" s="59"/>
-      <c r="BB84" s="59"/>
-      <c r="BC84" s="59"/>
-      <c r="BD84" s="59"/>
-      <c r="BE84" s="59"/>
-      <c r="BF84" s="59"/>
-      <c r="BG84" s="59"/>
-      <c r="BH84" s="59"/>
-      <c r="BI84" s="59"/>
-      <c r="BJ84" s="59"/>
-      <c r="BK84" s="59"/>
-      <c r="BL84" s="59"/>
-      <c r="BM84" s="59"/>
-      <c r="BN84" s="59"/>
-      <c r="BO84" s="59"/>
-      <c r="BP84" s="59"/>
-      <c r="BQ84" s="59"/>
-      <c r="BR84" s="59"/>
-      <c r="BS84" s="59"/>
-      <c r="BT84" s="59"/>
-      <c r="BU84" s="59"/>
-      <c r="BV84" s="59"/>
-      <c r="BW84" s="59"/>
-      <c r="BX84" s="59"/>
+      <c r="AX84" s="61"/>
+      <c r="AY84" s="61"/>
+      <c r="AZ84" s="61"/>
+      <c r="BA84" s="61"/>
+      <c r="BB84" s="61"/>
+      <c r="BC84" s="61"/>
+      <c r="BD84" s="61"/>
+      <c r="BE84" s="61"/>
+      <c r="BF84" s="61"/>
+      <c r="BG84" s="61"/>
+      <c r="BH84" s="61"/>
+      <c r="BI84" s="61"/>
+      <c r="BJ84" s="61"/>
+      <c r="BK84" s="61"/>
+      <c r="BL84" s="61"/>
+      <c r="BM84" s="61"/>
+      <c r="BN84" s="61"/>
+      <c r="BO84" s="61"/>
+      <c r="BP84" s="61"/>
+      <c r="BQ84" s="61"/>
+      <c r="BR84" s="61"/>
+      <c r="BS84" s="61"/>
+      <c r="BT84" s="61"/>
+      <c r="BU84" s="61"/>
+      <c r="BV84" s="61"/>
+      <c r="BW84" s="61"/>
+      <c r="BX84" s="61"/>
     </row>
     <row r="85" customHeight="1" spans="1:76">
       <c r="A85" s="27"/>
@@ -5255,33 +6155,33 @@
       <c r="AL85" s="26"/>
       <c r="AM85" s="26"/>
       <c r="AN85" s="26"/>
-      <c r="AX85" s="59"/>
-      <c r="AY85" s="59"/>
-      <c r="AZ85" s="59"/>
-      <c r="BA85" s="59"/>
-      <c r="BB85" s="59"/>
-      <c r="BC85" s="59"/>
-      <c r="BD85" s="59"/>
-      <c r="BE85" s="59"/>
-      <c r="BF85" s="59"/>
-      <c r="BG85" s="59"/>
-      <c r="BH85" s="59"/>
-      <c r="BI85" s="59"/>
-      <c r="BJ85" s="59"/>
-      <c r="BK85" s="59"/>
-      <c r="BL85" s="59"/>
-      <c r="BM85" s="59"/>
-      <c r="BN85" s="59"/>
-      <c r="BO85" s="59"/>
-      <c r="BP85" s="59"/>
-      <c r="BQ85" s="59"/>
-      <c r="BR85" s="59"/>
-      <c r="BS85" s="59"/>
-      <c r="BT85" s="59"/>
-      <c r="BU85" s="59"/>
-      <c r="BV85" s="59"/>
-      <c r="BW85" s="59"/>
-      <c r="BX85" s="59"/>
+      <c r="AX85" s="61"/>
+      <c r="AY85" s="61"/>
+      <c r="AZ85" s="61"/>
+      <c r="BA85" s="61"/>
+      <c r="BB85" s="61"/>
+      <c r="BC85" s="61"/>
+      <c r="BD85" s="61"/>
+      <c r="BE85" s="61"/>
+      <c r="BF85" s="61"/>
+      <c r="BG85" s="61"/>
+      <c r="BH85" s="61"/>
+      <c r="BI85" s="61"/>
+      <c r="BJ85" s="61"/>
+      <c r="BK85" s="61"/>
+      <c r="BL85" s="61"/>
+      <c r="BM85" s="61"/>
+      <c r="BN85" s="61"/>
+      <c r="BO85" s="61"/>
+      <c r="BP85" s="61"/>
+      <c r="BQ85" s="61"/>
+      <c r="BR85" s="61"/>
+      <c r="BS85" s="61"/>
+      <c r="BT85" s="61"/>
+      <c r="BU85" s="61"/>
+      <c r="BV85" s="61"/>
+      <c r="BW85" s="61"/>
+      <c r="BX85" s="61"/>
     </row>
     <row r="86" customHeight="1" spans="1:76">
       <c r="A86" s="27"/>
@@ -5322,147 +6222,147 @@
       <c r="AL86" s="26"/>
       <c r="AM86" s="26"/>
       <c r="AN86" s="26"/>
-      <c r="AX86" s="59"/>
-      <c r="AY86" s="59"/>
-      <c r="AZ86" s="59"/>
-      <c r="BA86" s="59"/>
-      <c r="BB86" s="59"/>
-      <c r="BC86" s="59"/>
-      <c r="BD86" s="59"/>
-      <c r="BE86" s="59"/>
-      <c r="BF86" s="59"/>
-      <c r="BG86" s="59"/>
-      <c r="BH86" s="59"/>
-      <c r="BI86" s="59"/>
-      <c r="BJ86" s="59"/>
-      <c r="BK86" s="59"/>
-      <c r="BL86" s="59"/>
-      <c r="BM86" s="59"/>
-      <c r="BN86" s="59"/>
-      <c r="BO86" s="59"/>
-      <c r="BP86" s="59"/>
-      <c r="BQ86" s="59"/>
-      <c r="BR86" s="59"/>
-      <c r="BS86" s="59"/>
-      <c r="BT86" s="59"/>
-      <c r="BU86" s="59"/>
-      <c r="BV86" s="59"/>
-      <c r="BW86" s="59"/>
-      <c r="BX86" s="59"/>
+      <c r="AX86" s="61"/>
+      <c r="AY86" s="61"/>
+      <c r="AZ86" s="61"/>
+      <c r="BA86" s="61"/>
+      <c r="BB86" s="61"/>
+      <c r="BC86" s="61"/>
+      <c r="BD86" s="61"/>
+      <c r="BE86" s="61"/>
+      <c r="BF86" s="61"/>
+      <c r="BG86" s="61"/>
+      <c r="BH86" s="61"/>
+      <c r="BI86" s="61"/>
+      <c r="BJ86" s="61"/>
+      <c r="BK86" s="61"/>
+      <c r="BL86" s="61"/>
+      <c r="BM86" s="61"/>
+      <c r="BN86" s="61"/>
+      <c r="BO86" s="61"/>
+      <c r="BP86" s="61"/>
+      <c r="BQ86" s="61"/>
+      <c r="BR86" s="61"/>
+      <c r="BS86" s="61"/>
+      <c r="BT86" s="61"/>
+      <c r="BU86" s="61"/>
+      <c r="BV86" s="61"/>
+      <c r="BW86" s="61"/>
+      <c r="BX86" s="61"/>
     </row>
     <row r="87" customHeight="1" spans="50:76">
-      <c r="AX87" s="59"/>
-      <c r="AY87" s="59"/>
-      <c r="AZ87" s="59"/>
-      <c r="BA87" s="59"/>
-      <c r="BB87" s="59"/>
-      <c r="BC87" s="59"/>
-      <c r="BD87" s="59"/>
-      <c r="BE87" s="59"/>
-      <c r="BF87" s="59"/>
-      <c r="BG87" s="59"/>
-      <c r="BH87" s="59"/>
-      <c r="BI87" s="59"/>
-      <c r="BJ87" s="59"/>
-      <c r="BK87" s="59"/>
-      <c r="BL87" s="59"/>
-      <c r="BM87" s="59"/>
-      <c r="BN87" s="59"/>
-      <c r="BO87" s="59"/>
-      <c r="BP87" s="59"/>
-      <c r="BQ87" s="59"/>
-      <c r="BR87" s="59"/>
-      <c r="BS87" s="59"/>
-      <c r="BT87" s="59"/>
-      <c r="BU87" s="59"/>
-      <c r="BV87" s="59"/>
-      <c r="BW87" s="59"/>
-      <c r="BX87" s="59"/>
+      <c r="AX87" s="61"/>
+      <c r="AY87" s="61"/>
+      <c r="AZ87" s="61"/>
+      <c r="BA87" s="61"/>
+      <c r="BB87" s="61"/>
+      <c r="BC87" s="61"/>
+      <c r="BD87" s="61"/>
+      <c r="BE87" s="61"/>
+      <c r="BF87" s="61"/>
+      <c r="BG87" s="61"/>
+      <c r="BH87" s="61"/>
+      <c r="BI87" s="61"/>
+      <c r="BJ87" s="61"/>
+      <c r="BK87" s="61"/>
+      <c r="BL87" s="61"/>
+      <c r="BM87" s="61"/>
+      <c r="BN87" s="61"/>
+      <c r="BO87" s="61"/>
+      <c r="BP87" s="61"/>
+      <c r="BQ87" s="61"/>
+      <c r="BR87" s="61"/>
+      <c r="BS87" s="61"/>
+      <c r="BT87" s="61"/>
+      <c r="BU87" s="61"/>
+      <c r="BV87" s="61"/>
+      <c r="BW87" s="61"/>
+      <c r="BX87" s="61"/>
     </row>
     <row r="88" customHeight="1" spans="50:76">
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="59"/>
-      <c r="BA88" s="59"/>
-      <c r="BB88" s="59"/>
-      <c r="BC88" s="59"/>
-      <c r="BD88" s="59"/>
-      <c r="BE88" s="59"/>
-      <c r="BF88" s="59"/>
-      <c r="BG88" s="59"/>
-      <c r="BH88" s="59"/>
-      <c r="BI88" s="59"/>
-      <c r="BJ88" s="59"/>
-      <c r="BK88" s="59"/>
-      <c r="BL88" s="59"/>
-      <c r="BM88" s="59"/>
-      <c r="BN88" s="59"/>
-      <c r="BO88" s="59"/>
-      <c r="BP88" s="59"/>
-      <c r="BQ88" s="59"/>
-      <c r="BR88" s="59"/>
-      <c r="BS88" s="59"/>
-      <c r="BT88" s="59"/>
-      <c r="BU88" s="59"/>
-      <c r="BV88" s="59"/>
-      <c r="BW88" s="59"/>
-      <c r="BX88" s="59"/>
+      <c r="AX88" s="61"/>
+      <c r="AY88" s="61"/>
+      <c r="AZ88" s="61"/>
+      <c r="BA88" s="61"/>
+      <c r="BB88" s="61"/>
+      <c r="BC88" s="61"/>
+      <c r="BD88" s="61"/>
+      <c r="BE88" s="61"/>
+      <c r="BF88" s="61"/>
+      <c r="BG88" s="61"/>
+      <c r="BH88" s="61"/>
+      <c r="BI88" s="61"/>
+      <c r="BJ88" s="61"/>
+      <c r="BK88" s="61"/>
+      <c r="BL88" s="61"/>
+      <c r="BM88" s="61"/>
+      <c r="BN88" s="61"/>
+      <c r="BO88" s="61"/>
+      <c r="BP88" s="61"/>
+      <c r="BQ88" s="61"/>
+      <c r="BR88" s="61"/>
+      <c r="BS88" s="61"/>
+      <c r="BT88" s="61"/>
+      <c r="BU88" s="61"/>
+      <c r="BV88" s="61"/>
+      <c r="BW88" s="61"/>
+      <c r="BX88" s="61"/>
     </row>
     <row r="89" customHeight="1" spans="51:76">
-      <c r="AY89" s="60"/>
-      <c r="AZ89" s="60"/>
-      <c r="BA89" s="60"/>
-      <c r="BB89" s="60"/>
-      <c r="BC89" s="60"/>
-      <c r="BD89" s="60"/>
-      <c r="BE89" s="60"/>
-      <c r="BF89" s="60"/>
-      <c r="BG89" s="60"/>
-      <c r="BH89" s="60"/>
-      <c r="BI89" s="60"/>
-      <c r="BJ89" s="60"/>
-      <c r="BK89" s="60"/>
-      <c r="BL89" s="60"/>
-      <c r="BM89" s="60"/>
-      <c r="BN89" s="60"/>
-      <c r="BO89" s="60"/>
-      <c r="BP89" s="60"/>
-      <c r="BQ89" s="60"/>
-      <c r="BR89" s="60"/>
-      <c r="BS89" s="60"/>
-      <c r="BT89" s="60"/>
-      <c r="BU89" s="60"/>
-      <c r="BV89" s="60"/>
-      <c r="BW89" s="60"/>
-      <c r="BX89" s="60"/>
+      <c r="AY89" s="62"/>
+      <c r="AZ89" s="62"/>
+      <c r="BA89" s="62"/>
+      <c r="BB89" s="62"/>
+      <c r="BC89" s="62"/>
+      <c r="BD89" s="62"/>
+      <c r="BE89" s="62"/>
+      <c r="BF89" s="62"/>
+      <c r="BG89" s="62"/>
+      <c r="BH89" s="62"/>
+      <c r="BI89" s="62"/>
+      <c r="BJ89" s="62"/>
+      <c r="BK89" s="62"/>
+      <c r="BL89" s="62"/>
+      <c r="BM89" s="62"/>
+      <c r="BN89" s="62"/>
+      <c r="BO89" s="62"/>
+      <c r="BP89" s="62"/>
+      <c r="BQ89" s="62"/>
+      <c r="BR89" s="62"/>
+      <c r="BS89" s="62"/>
+      <c r="BT89" s="62"/>
+      <c r="BU89" s="62"/>
+      <c r="BV89" s="62"/>
+      <c r="BW89" s="62"/>
+      <c r="BX89" s="62"/>
     </row>
     <row r="90" customHeight="1" spans="51:76">
-      <c r="AY90" s="60"/>
-      <c r="AZ90" s="60"/>
-      <c r="BA90" s="60"/>
-      <c r="BB90" s="60"/>
-      <c r="BC90" s="60"/>
-      <c r="BD90" s="60"/>
-      <c r="BE90" s="60"/>
-      <c r="BF90" s="60"/>
-      <c r="BG90" s="60"/>
-      <c r="BH90" s="60"/>
-      <c r="BI90" s="60"/>
-      <c r="BJ90" s="60"/>
-      <c r="BK90" s="60"/>
-      <c r="BL90" s="60"/>
-      <c r="BM90" s="60"/>
-      <c r="BN90" s="60"/>
-      <c r="BO90" s="60"/>
-      <c r="BP90" s="60"/>
-      <c r="BQ90" s="60"/>
-      <c r="BR90" s="60"/>
-      <c r="BS90" s="60"/>
-      <c r="BT90" s="60"/>
-      <c r="BU90" s="60"/>
-      <c r="BV90" s="60"/>
-      <c r="BW90" s="60"/>
-      <c r="BX90" s="60"/>
+      <c r="AY90" s="62"/>
+      <c r="AZ90" s="62"/>
+      <c r="BA90" s="62"/>
+      <c r="BB90" s="62"/>
+      <c r="BC90" s="62"/>
+      <c r="BD90" s="62"/>
+      <c r="BE90" s="62"/>
+      <c r="BF90" s="62"/>
+      <c r="BG90" s="62"/>
+      <c r="BH90" s="62"/>
+      <c r="BI90" s="62"/>
+      <c r="BJ90" s="62"/>
+      <c r="BK90" s="62"/>
+      <c r="BL90" s="62"/>
+      <c r="BM90" s="62"/>
+      <c r="BN90" s="62"/>
+      <c r="BO90" s="62"/>
+      <c r="BP90" s="62"/>
+      <c r="BQ90" s="62"/>
+      <c r="BR90" s="62"/>
+      <c r="BS90" s="62"/>
+      <c r="BT90" s="62"/>
+      <c r="BU90" s="62"/>
+      <c r="BV90" s="62"/>
+      <c r="BW90" s="62"/>
+      <c r="BX90" s="62"/>
     </row>
     <row r="91" customHeight="1" spans="1:76">
       <c r="A91" s="27"/>
@@ -5506,32 +6406,32 @@
       <c r="AC91" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY91" s="60"/>
-      <c r="AZ91" s="60"/>
-      <c r="BA91" s="60"/>
-      <c r="BB91" s="60"/>
-      <c r="BC91" s="60"/>
-      <c r="BD91" s="60"/>
-      <c r="BE91" s="60"/>
-      <c r="BF91" s="60"/>
-      <c r="BG91" s="60"/>
-      <c r="BH91" s="60"/>
-      <c r="BI91" s="60"/>
-      <c r="BJ91" s="60"/>
-      <c r="BK91" s="60"/>
-      <c r="BL91" s="60"/>
-      <c r="BM91" s="60"/>
-      <c r="BN91" s="60"/>
-      <c r="BO91" s="60"/>
-      <c r="BP91" s="60"/>
-      <c r="BQ91" s="60"/>
-      <c r="BR91" s="60"/>
-      <c r="BS91" s="60"/>
-      <c r="BT91" s="60"/>
-      <c r="BU91" s="60"/>
-      <c r="BV91" s="60"/>
-      <c r="BW91" s="60"/>
-      <c r="BX91" s="60"/>
+      <c r="AY91" s="62"/>
+      <c r="AZ91" s="62"/>
+      <c r="BA91" s="62"/>
+      <c r="BB91" s="62"/>
+      <c r="BC91" s="62"/>
+      <c r="BD91" s="62"/>
+      <c r="BE91" s="62"/>
+      <c r="BF91" s="62"/>
+      <c r="BG91" s="62"/>
+      <c r="BH91" s="62"/>
+      <c r="BI91" s="62"/>
+      <c r="BJ91" s="62"/>
+      <c r="BK91" s="62"/>
+      <c r="BL91" s="62"/>
+      <c r="BM91" s="62"/>
+      <c r="BN91" s="62"/>
+      <c r="BO91" s="62"/>
+      <c r="BP91" s="62"/>
+      <c r="BQ91" s="62"/>
+      <c r="BR91" s="62"/>
+      <c r="BS91" s="62"/>
+      <c r="BT91" s="62"/>
+      <c r="BU91" s="62"/>
+      <c r="BV91" s="62"/>
+      <c r="BW91" s="62"/>
+      <c r="BX91" s="62"/>
     </row>
     <row r="92" customHeight="1" spans="1:76">
       <c r="A92" s="27"/>
@@ -5575,32 +6475,32 @@
       <c r="AC92" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY92" s="60"/>
-      <c r="AZ92" s="60"/>
-      <c r="BA92" s="60"/>
-      <c r="BB92" s="60"/>
-      <c r="BC92" s="60"/>
-      <c r="BD92" s="60"/>
-      <c r="BE92" s="60"/>
-      <c r="BF92" s="60"/>
-      <c r="BG92" s="60"/>
-      <c r="BH92" s="60"/>
-      <c r="BI92" s="60"/>
-      <c r="BJ92" s="60"/>
-      <c r="BK92" s="60"/>
-      <c r="BL92" s="60"/>
-      <c r="BM92" s="60"/>
-      <c r="BN92" s="60"/>
-      <c r="BO92" s="60"/>
-      <c r="BP92" s="60"/>
-      <c r="BQ92" s="60"/>
-      <c r="BR92" s="60"/>
-      <c r="BS92" s="60"/>
-      <c r="BT92" s="60"/>
-      <c r="BU92" s="60"/>
-      <c r="BV92" s="60"/>
-      <c r="BW92" s="60"/>
-      <c r="BX92" s="60"/>
+      <c r="AY92" s="62"/>
+      <c r="AZ92" s="62"/>
+      <c r="BA92" s="62"/>
+      <c r="BB92" s="62"/>
+      <c r="BC92" s="62"/>
+      <c r="BD92" s="62"/>
+      <c r="BE92" s="62"/>
+      <c r="BF92" s="62"/>
+      <c r="BG92" s="62"/>
+      <c r="BH92" s="62"/>
+      <c r="BI92" s="62"/>
+      <c r="BJ92" s="62"/>
+      <c r="BK92" s="62"/>
+      <c r="BL92" s="62"/>
+      <c r="BM92" s="62"/>
+      <c r="BN92" s="62"/>
+      <c r="BO92" s="62"/>
+      <c r="BP92" s="62"/>
+      <c r="BQ92" s="62"/>
+      <c r="BR92" s="62"/>
+      <c r="BS92" s="62"/>
+      <c r="BT92" s="62"/>
+      <c r="BU92" s="62"/>
+      <c r="BV92" s="62"/>
+      <c r="BW92" s="62"/>
+      <c r="BX92" s="62"/>
     </row>
     <row r="93" customHeight="1" spans="1:76">
       <c r="A93" s="27"/>
@@ -5644,32 +6544,32 @@
       <c r="AC93" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY93" s="60"/>
-      <c r="AZ93" s="60"/>
-      <c r="BA93" s="60"/>
-      <c r="BB93" s="60"/>
-      <c r="BC93" s="60"/>
-      <c r="BD93" s="60"/>
-      <c r="BE93" s="60"/>
-      <c r="BF93" s="60"/>
-      <c r="BG93" s="60"/>
-      <c r="BH93" s="60"/>
-      <c r="BI93" s="60"/>
-      <c r="BJ93" s="60"/>
-      <c r="BK93" s="60"/>
-      <c r="BL93" s="60"/>
-      <c r="BM93" s="60"/>
-      <c r="BN93" s="60"/>
-      <c r="BO93" s="60"/>
-      <c r="BP93" s="60"/>
-      <c r="BQ93" s="60"/>
-      <c r="BR93" s="60"/>
-      <c r="BS93" s="60"/>
-      <c r="BT93" s="60"/>
-      <c r="BU93" s="60"/>
-      <c r="BV93" s="60"/>
-      <c r="BW93" s="60"/>
-      <c r="BX93" s="60"/>
+      <c r="AY93" s="62"/>
+      <c r="AZ93" s="62"/>
+      <c r="BA93" s="62"/>
+      <c r="BB93" s="62"/>
+      <c r="BC93" s="62"/>
+      <c r="BD93" s="62"/>
+      <c r="BE93" s="62"/>
+      <c r="BF93" s="62"/>
+      <c r="BG93" s="62"/>
+      <c r="BH93" s="62"/>
+      <c r="BI93" s="62"/>
+      <c r="BJ93" s="62"/>
+      <c r="BK93" s="62"/>
+      <c r="BL93" s="62"/>
+      <c r="BM93" s="62"/>
+      <c r="BN93" s="62"/>
+      <c r="BO93" s="62"/>
+      <c r="BP93" s="62"/>
+      <c r="BQ93" s="62"/>
+      <c r="BR93" s="62"/>
+      <c r="BS93" s="62"/>
+      <c r="BT93" s="62"/>
+      <c r="BU93" s="62"/>
+      <c r="BV93" s="62"/>
+      <c r="BW93" s="62"/>
+      <c r="BX93" s="62"/>
     </row>
     <row r="94" customHeight="1" spans="23:76">
       <c r="W94" s="27" t="s">
@@ -5693,32 +6593,32 @@
       <c r="AC94" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY94" s="60"/>
-      <c r="AZ94" s="60"/>
-      <c r="BA94" s="60"/>
-      <c r="BB94" s="60"/>
-      <c r="BC94" s="60"/>
-      <c r="BD94" s="60"/>
-      <c r="BE94" s="60"/>
-      <c r="BF94" s="60"/>
-      <c r="BG94" s="60"/>
-      <c r="BH94" s="60"/>
-      <c r="BI94" s="60"/>
-      <c r="BJ94" s="60"/>
-      <c r="BK94" s="60"/>
-      <c r="BL94" s="60"/>
-      <c r="BM94" s="60"/>
-      <c r="BN94" s="60"/>
-      <c r="BO94" s="60"/>
-      <c r="BP94" s="60"/>
-      <c r="BQ94" s="60"/>
-      <c r="BR94" s="60"/>
-      <c r="BS94" s="60"/>
-      <c r="BT94" s="60"/>
-      <c r="BU94" s="60"/>
-      <c r="BV94" s="60"/>
-      <c r="BW94" s="60"/>
-      <c r="BX94" s="60"/>
+      <c r="AY94" s="62"/>
+      <c r="AZ94" s="62"/>
+      <c r="BA94" s="62"/>
+      <c r="BB94" s="62"/>
+      <c r="BC94" s="62"/>
+      <c r="BD94" s="62"/>
+      <c r="BE94" s="62"/>
+      <c r="BF94" s="62"/>
+      <c r="BG94" s="62"/>
+      <c r="BH94" s="62"/>
+      <c r="BI94" s="62"/>
+      <c r="BJ94" s="62"/>
+      <c r="BK94" s="62"/>
+      <c r="BL94" s="62"/>
+      <c r="BM94" s="62"/>
+      <c r="BN94" s="62"/>
+      <c r="BO94" s="62"/>
+      <c r="BP94" s="62"/>
+      <c r="BQ94" s="62"/>
+      <c r="BR94" s="62"/>
+      <c r="BS94" s="62"/>
+      <c r="BT94" s="62"/>
+      <c r="BU94" s="62"/>
+      <c r="BV94" s="62"/>
+      <c r="BW94" s="62"/>
+      <c r="BX94" s="62"/>
     </row>
     <row r="95" customHeight="1" spans="1:76">
       <c r="A95" s="27"/>
@@ -5760,32 +6660,32 @@
       <c r="AC95" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY95" s="60"/>
-      <c r="AZ95" s="60"/>
-      <c r="BA95" s="60"/>
-      <c r="BB95" s="60"/>
-      <c r="BC95" s="60"/>
-      <c r="BD95" s="60"/>
-      <c r="BE95" s="60"/>
-      <c r="BF95" s="60"/>
-      <c r="BG95" s="60"/>
-      <c r="BH95" s="60"/>
-      <c r="BI95" s="60"/>
-      <c r="BJ95" s="60"/>
-      <c r="BK95" s="60"/>
-      <c r="BL95" s="60"/>
-      <c r="BM95" s="60"/>
-      <c r="BN95" s="60"/>
-      <c r="BO95" s="60"/>
-      <c r="BP95" s="60"/>
-      <c r="BQ95" s="60"/>
-      <c r="BR95" s="60"/>
-      <c r="BS95" s="60"/>
-      <c r="BT95" s="60"/>
-      <c r="BU95" s="60"/>
-      <c r="BV95" s="60"/>
-      <c r="BW95" s="60"/>
-      <c r="BX95" s="60"/>
+      <c r="AY95" s="62"/>
+      <c r="AZ95" s="62"/>
+      <c r="BA95" s="62"/>
+      <c r="BB95" s="62"/>
+      <c r="BC95" s="62"/>
+      <c r="BD95" s="62"/>
+      <c r="BE95" s="62"/>
+      <c r="BF95" s="62"/>
+      <c r="BG95" s="62"/>
+      <c r="BH95" s="62"/>
+      <c r="BI95" s="62"/>
+      <c r="BJ95" s="62"/>
+      <c r="BK95" s="62"/>
+      <c r="BL95" s="62"/>
+      <c r="BM95" s="62"/>
+      <c r="BN95" s="62"/>
+      <c r="BO95" s="62"/>
+      <c r="BP95" s="62"/>
+      <c r="BQ95" s="62"/>
+      <c r="BR95" s="62"/>
+      <c r="BS95" s="62"/>
+      <c r="BT95" s="62"/>
+      <c r="BU95" s="62"/>
+      <c r="BV95" s="62"/>
+      <c r="BW95" s="62"/>
+      <c r="BX95" s="62"/>
     </row>
     <row r="96" customHeight="1" spans="1:76">
       <c r="A96" s="27"/>
@@ -5827,32 +6727,32 @@
       <c r="AC96" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY96" s="60"/>
-      <c r="AZ96" s="60"/>
-      <c r="BA96" s="60"/>
-      <c r="BB96" s="60"/>
-      <c r="BC96" s="60"/>
-      <c r="BD96" s="60"/>
-      <c r="BE96" s="60"/>
-      <c r="BF96" s="60"/>
-      <c r="BG96" s="60"/>
-      <c r="BH96" s="60"/>
-      <c r="BI96" s="60"/>
-      <c r="BJ96" s="60"/>
-      <c r="BK96" s="60"/>
-      <c r="BL96" s="60"/>
-      <c r="BM96" s="60"/>
-      <c r="BN96" s="60"/>
-      <c r="BO96" s="60"/>
-      <c r="BP96" s="60"/>
-      <c r="BQ96" s="60"/>
-      <c r="BR96" s="60"/>
-      <c r="BS96" s="60"/>
-      <c r="BT96" s="60"/>
-      <c r="BU96" s="60"/>
-      <c r="BV96" s="60"/>
-      <c r="BW96" s="60"/>
-      <c r="BX96" s="60"/>
+      <c r="AY96" s="62"/>
+      <c r="AZ96" s="62"/>
+      <c r="BA96" s="62"/>
+      <c r="BB96" s="62"/>
+      <c r="BC96" s="62"/>
+      <c r="BD96" s="62"/>
+      <c r="BE96" s="62"/>
+      <c r="BF96" s="62"/>
+      <c r="BG96" s="62"/>
+      <c r="BH96" s="62"/>
+      <c r="BI96" s="62"/>
+      <c r="BJ96" s="62"/>
+      <c r="BK96" s="62"/>
+      <c r="BL96" s="62"/>
+      <c r="BM96" s="62"/>
+      <c r="BN96" s="62"/>
+      <c r="BO96" s="62"/>
+      <c r="BP96" s="62"/>
+      <c r="BQ96" s="62"/>
+      <c r="BR96" s="62"/>
+      <c r="BS96" s="62"/>
+      <c r="BT96" s="62"/>
+      <c r="BU96" s="62"/>
+      <c r="BV96" s="62"/>
+      <c r="BW96" s="62"/>
+      <c r="BX96" s="62"/>
     </row>
     <row r="97" customHeight="1" spans="1:76">
       <c r="A97" s="27"/>
@@ -5894,368 +6794,368 @@
       <c r="AC97" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AY97" s="60"/>
-      <c r="AZ97" s="60"/>
-      <c r="BA97" s="60"/>
-      <c r="BB97" s="60"/>
-      <c r="BC97" s="60"/>
-      <c r="BD97" s="60"/>
-      <c r="BE97" s="60"/>
-      <c r="BF97" s="60"/>
-      <c r="BG97" s="60"/>
-      <c r="BH97" s="60"/>
-      <c r="BI97" s="60"/>
-      <c r="BJ97" s="60"/>
-      <c r="BK97" s="60"/>
-      <c r="BL97" s="60"/>
-      <c r="BM97" s="60"/>
-      <c r="BN97" s="60"/>
-      <c r="BO97" s="60"/>
-      <c r="BP97" s="60"/>
-      <c r="BQ97" s="60"/>
-      <c r="BR97" s="60"/>
-      <c r="BS97" s="60"/>
-      <c r="BT97" s="60"/>
-      <c r="BU97" s="60"/>
-      <c r="BV97" s="60"/>
-      <c r="BW97" s="60"/>
-      <c r="BX97" s="60"/>
+      <c r="AY97" s="62"/>
+      <c r="AZ97" s="62"/>
+      <c r="BA97" s="62"/>
+      <c r="BB97" s="62"/>
+      <c r="BC97" s="62"/>
+      <c r="BD97" s="62"/>
+      <c r="BE97" s="62"/>
+      <c r="BF97" s="62"/>
+      <c r="BG97" s="62"/>
+      <c r="BH97" s="62"/>
+      <c r="BI97" s="62"/>
+      <c r="BJ97" s="62"/>
+      <c r="BK97" s="62"/>
+      <c r="BL97" s="62"/>
+      <c r="BM97" s="62"/>
+      <c r="BN97" s="62"/>
+      <c r="BO97" s="62"/>
+      <c r="BP97" s="62"/>
+      <c r="BQ97" s="62"/>
+      <c r="BR97" s="62"/>
+      <c r="BS97" s="62"/>
+      <c r="BT97" s="62"/>
+      <c r="BU97" s="62"/>
+      <c r="BV97" s="62"/>
+      <c r="BW97" s="62"/>
+      <c r="BX97" s="62"/>
     </row>
     <row r="98" customHeight="1" spans="51:76">
-      <c r="AY98" s="60"/>
-      <c r="AZ98" s="60"/>
-      <c r="BA98" s="60"/>
-      <c r="BB98" s="60"/>
-      <c r="BC98" s="60"/>
-      <c r="BD98" s="60"/>
-      <c r="BE98" s="60"/>
-      <c r="BF98" s="60"/>
-      <c r="BG98" s="60"/>
-      <c r="BH98" s="60"/>
-      <c r="BI98" s="60"/>
-      <c r="BJ98" s="60"/>
-      <c r="BK98" s="60"/>
-      <c r="BL98" s="60"/>
-      <c r="BM98" s="60"/>
-      <c r="BN98" s="60"/>
-      <c r="BO98" s="60"/>
-      <c r="BP98" s="60"/>
-      <c r="BQ98" s="60"/>
-      <c r="BR98" s="60"/>
-      <c r="BS98" s="60"/>
-      <c r="BT98" s="60"/>
-      <c r="BU98" s="60"/>
-      <c r="BV98" s="60"/>
-      <c r="BW98" s="60"/>
-      <c r="BX98" s="60"/>
+      <c r="AY98" s="62"/>
+      <c r="AZ98" s="62"/>
+      <c r="BA98" s="62"/>
+      <c r="BB98" s="62"/>
+      <c r="BC98" s="62"/>
+      <c r="BD98" s="62"/>
+      <c r="BE98" s="62"/>
+      <c r="BF98" s="62"/>
+      <c r="BG98" s="62"/>
+      <c r="BH98" s="62"/>
+      <c r="BI98" s="62"/>
+      <c r="BJ98" s="62"/>
+      <c r="BK98" s="62"/>
+      <c r="BL98" s="62"/>
+      <c r="BM98" s="62"/>
+      <c r="BN98" s="62"/>
+      <c r="BO98" s="62"/>
+      <c r="BP98" s="62"/>
+      <c r="BQ98" s="62"/>
+      <c r="BR98" s="62"/>
+      <c r="BS98" s="62"/>
+      <c r="BT98" s="62"/>
+      <c r="BU98" s="62"/>
+      <c r="BV98" s="62"/>
+      <c r="BW98" s="62"/>
+      <c r="BX98" s="62"/>
     </row>
     <row r="99" customHeight="1" spans="51:76">
-      <c r="AY99" s="60"/>
-      <c r="AZ99" s="60"/>
-      <c r="BA99" s="60"/>
-      <c r="BB99" s="60"/>
-      <c r="BC99" s="60"/>
-      <c r="BD99" s="60"/>
-      <c r="BE99" s="60"/>
-      <c r="BF99" s="60"/>
-      <c r="BG99" s="60"/>
-      <c r="BH99" s="60"/>
-      <c r="BI99" s="60"/>
-      <c r="BJ99" s="60"/>
-      <c r="BK99" s="60"/>
-      <c r="BL99" s="60"/>
-      <c r="BM99" s="60"/>
-      <c r="BN99" s="60"/>
-      <c r="BO99" s="60"/>
-      <c r="BP99" s="60"/>
-      <c r="BQ99" s="60"/>
-      <c r="BR99" s="60"/>
-      <c r="BS99" s="60"/>
-      <c r="BT99" s="60"/>
-      <c r="BU99" s="60"/>
-      <c r="BV99" s="60"/>
-      <c r="BW99" s="60"/>
-      <c r="BX99" s="60"/>
+      <c r="AY99" s="62"/>
+      <c r="AZ99" s="62"/>
+      <c r="BA99" s="62"/>
+      <c r="BB99" s="62"/>
+      <c r="BC99" s="62"/>
+      <c r="BD99" s="62"/>
+      <c r="BE99" s="62"/>
+      <c r="BF99" s="62"/>
+      <c r="BG99" s="62"/>
+      <c r="BH99" s="62"/>
+      <c r="BI99" s="62"/>
+      <c r="BJ99" s="62"/>
+      <c r="BK99" s="62"/>
+      <c r="BL99" s="62"/>
+      <c r="BM99" s="62"/>
+      <c r="BN99" s="62"/>
+      <c r="BO99" s="62"/>
+      <c r="BP99" s="62"/>
+      <c r="BQ99" s="62"/>
+      <c r="BR99" s="62"/>
+      <c r="BS99" s="62"/>
+      <c r="BT99" s="62"/>
+      <c r="BU99" s="62"/>
+      <c r="BV99" s="62"/>
+      <c r="BW99" s="62"/>
+      <c r="BX99" s="62"/>
     </row>
     <row r="100" customHeight="1" spans="51:76">
-      <c r="AY100" s="60"/>
-      <c r="AZ100" s="60"/>
-      <c r="BA100" s="60"/>
-      <c r="BB100" s="60"/>
-      <c r="BC100" s="60"/>
-      <c r="BD100" s="60"/>
-      <c r="BE100" s="60"/>
-      <c r="BF100" s="60"/>
-      <c r="BG100" s="60"/>
-      <c r="BH100" s="60"/>
-      <c r="BI100" s="60"/>
-      <c r="BJ100" s="60"/>
-      <c r="BK100" s="60"/>
-      <c r="BL100" s="60"/>
-      <c r="BM100" s="60"/>
-      <c r="BN100" s="60"/>
-      <c r="BO100" s="60"/>
-      <c r="BP100" s="60"/>
-      <c r="BQ100" s="60"/>
-      <c r="BR100" s="60"/>
-      <c r="BS100" s="60"/>
-      <c r="BT100" s="60"/>
-      <c r="BU100" s="60"/>
-      <c r="BV100" s="60"/>
-      <c r="BW100" s="60"/>
-      <c r="BX100" s="60"/>
+      <c r="AY100" s="62"/>
+      <c r="AZ100" s="62"/>
+      <c r="BA100" s="62"/>
+      <c r="BB100" s="62"/>
+      <c r="BC100" s="62"/>
+      <c r="BD100" s="62"/>
+      <c r="BE100" s="62"/>
+      <c r="BF100" s="62"/>
+      <c r="BG100" s="62"/>
+      <c r="BH100" s="62"/>
+      <c r="BI100" s="62"/>
+      <c r="BJ100" s="62"/>
+      <c r="BK100" s="62"/>
+      <c r="BL100" s="62"/>
+      <c r="BM100" s="62"/>
+      <c r="BN100" s="62"/>
+      <c r="BO100" s="62"/>
+      <c r="BP100" s="62"/>
+      <c r="BQ100" s="62"/>
+      <c r="BR100" s="62"/>
+      <c r="BS100" s="62"/>
+      <c r="BT100" s="62"/>
+      <c r="BU100" s="62"/>
+      <c r="BV100" s="62"/>
+      <c r="BW100" s="62"/>
+      <c r="BX100" s="62"/>
     </row>
     <row r="101" customHeight="1" spans="51:76">
-      <c r="AY101" s="60"/>
-      <c r="AZ101" s="60"/>
-      <c r="BA101" s="60"/>
-      <c r="BB101" s="60"/>
-      <c r="BC101" s="60"/>
-      <c r="BD101" s="60"/>
-      <c r="BE101" s="60"/>
-      <c r="BF101" s="60"/>
-      <c r="BG101" s="60"/>
-      <c r="BH101" s="60"/>
-      <c r="BI101" s="60"/>
-      <c r="BJ101" s="60"/>
-      <c r="BK101" s="60"/>
-      <c r="BL101" s="60"/>
-      <c r="BM101" s="60"/>
-      <c r="BN101" s="60"/>
-      <c r="BO101" s="60"/>
-      <c r="BP101" s="60"/>
-      <c r="BQ101" s="60"/>
-      <c r="BR101" s="60"/>
-      <c r="BS101" s="60"/>
-      <c r="BT101" s="60"/>
-      <c r="BU101" s="60"/>
-      <c r="BV101" s="60"/>
-      <c r="BW101" s="60"/>
-      <c r="BX101" s="60"/>
+      <c r="AY101" s="62"/>
+      <c r="AZ101" s="62"/>
+      <c r="BA101" s="62"/>
+      <c r="BB101" s="62"/>
+      <c r="BC101" s="62"/>
+      <c r="BD101" s="62"/>
+      <c r="BE101" s="62"/>
+      <c r="BF101" s="62"/>
+      <c r="BG101" s="62"/>
+      <c r="BH101" s="62"/>
+      <c r="BI101" s="62"/>
+      <c r="BJ101" s="62"/>
+      <c r="BK101" s="62"/>
+      <c r="BL101" s="62"/>
+      <c r="BM101" s="62"/>
+      <c r="BN101" s="62"/>
+      <c r="BO101" s="62"/>
+      <c r="BP101" s="62"/>
+      <c r="BQ101" s="62"/>
+      <c r="BR101" s="62"/>
+      <c r="BS101" s="62"/>
+      <c r="BT101" s="62"/>
+      <c r="BU101" s="62"/>
+      <c r="BV101" s="62"/>
+      <c r="BW101" s="62"/>
+      <c r="BX101" s="62"/>
     </row>
     <row r="102" customHeight="1" spans="51:76">
-      <c r="AY102" s="60"/>
-      <c r="AZ102" s="60"/>
-      <c r="BA102" s="60"/>
-      <c r="BB102" s="60"/>
-      <c r="BC102" s="60"/>
-      <c r="BD102" s="60"/>
-      <c r="BE102" s="60"/>
-      <c r="BF102" s="60"/>
-      <c r="BG102" s="60"/>
-      <c r="BH102" s="60"/>
-      <c r="BI102" s="60"/>
-      <c r="BJ102" s="60"/>
-      <c r="BK102" s="60"/>
-      <c r="BL102" s="60"/>
-      <c r="BM102" s="60"/>
-      <c r="BN102" s="60"/>
-      <c r="BO102" s="60"/>
-      <c r="BP102" s="60"/>
-      <c r="BQ102" s="60"/>
-      <c r="BR102" s="60"/>
-      <c r="BS102" s="60"/>
-      <c r="BT102" s="60"/>
-      <c r="BU102" s="60"/>
-      <c r="BV102" s="60"/>
-      <c r="BW102" s="60"/>
-      <c r="BX102" s="60"/>
+      <c r="AY102" s="62"/>
+      <c r="AZ102" s="62"/>
+      <c r="BA102" s="62"/>
+      <c r="BB102" s="62"/>
+      <c r="BC102" s="62"/>
+      <c r="BD102" s="62"/>
+      <c r="BE102" s="62"/>
+      <c r="BF102" s="62"/>
+      <c r="BG102" s="62"/>
+      <c r="BH102" s="62"/>
+      <c r="BI102" s="62"/>
+      <c r="BJ102" s="62"/>
+      <c r="BK102" s="62"/>
+      <c r="BL102" s="62"/>
+      <c r="BM102" s="62"/>
+      <c r="BN102" s="62"/>
+      <c r="BO102" s="62"/>
+      <c r="BP102" s="62"/>
+      <c r="BQ102" s="62"/>
+      <c r="BR102" s="62"/>
+      <c r="BS102" s="62"/>
+      <c r="BT102" s="62"/>
+      <c r="BU102" s="62"/>
+      <c r="BV102" s="62"/>
+      <c r="BW102" s="62"/>
+      <c r="BX102" s="62"/>
     </row>
     <row r="103" customHeight="1" spans="51:76">
-      <c r="AY103" s="60"/>
-      <c r="AZ103" s="60"/>
-      <c r="BA103" s="60"/>
-      <c r="BB103" s="60"/>
-      <c r="BC103" s="60"/>
-      <c r="BD103" s="60"/>
-      <c r="BE103" s="60"/>
-      <c r="BF103" s="60"/>
-      <c r="BG103" s="60"/>
-      <c r="BH103" s="60"/>
-      <c r="BI103" s="60"/>
-      <c r="BJ103" s="60"/>
-      <c r="BK103" s="60"/>
-      <c r="BL103" s="60"/>
-      <c r="BM103" s="60"/>
-      <c r="BN103" s="60"/>
-      <c r="BO103" s="60"/>
-      <c r="BP103" s="60"/>
-      <c r="BQ103" s="60"/>
-      <c r="BR103" s="60"/>
-      <c r="BS103" s="60"/>
-      <c r="BT103" s="60"/>
-      <c r="BU103" s="60"/>
-      <c r="BV103" s="60"/>
-      <c r="BW103" s="60"/>
-      <c r="BX103" s="60"/>
+      <c r="AY103" s="62"/>
+      <c r="AZ103" s="62"/>
+      <c r="BA103" s="62"/>
+      <c r="BB103" s="62"/>
+      <c r="BC103" s="62"/>
+      <c r="BD103" s="62"/>
+      <c r="BE103" s="62"/>
+      <c r="BF103" s="62"/>
+      <c r="BG103" s="62"/>
+      <c r="BH103" s="62"/>
+      <c r="BI103" s="62"/>
+      <c r="BJ103" s="62"/>
+      <c r="BK103" s="62"/>
+      <c r="BL103" s="62"/>
+      <c r="BM103" s="62"/>
+      <c r="BN103" s="62"/>
+      <c r="BO103" s="62"/>
+      <c r="BP103" s="62"/>
+      <c r="BQ103" s="62"/>
+      <c r="BR103" s="62"/>
+      <c r="BS103" s="62"/>
+      <c r="BT103" s="62"/>
+      <c r="BU103" s="62"/>
+      <c r="BV103" s="62"/>
+      <c r="BW103" s="62"/>
+      <c r="BX103" s="62"/>
     </row>
     <row r="104" customHeight="1" spans="51:76">
-      <c r="AY104" s="60"/>
-      <c r="AZ104" s="60"/>
-      <c r="BA104" s="60"/>
-      <c r="BB104" s="60"/>
-      <c r="BC104" s="60"/>
-      <c r="BD104" s="60"/>
-      <c r="BE104" s="60"/>
-      <c r="BF104" s="60"/>
-      <c r="BG104" s="60"/>
-      <c r="BH104" s="60"/>
-      <c r="BI104" s="60"/>
-      <c r="BJ104" s="60"/>
-      <c r="BK104" s="60"/>
-      <c r="BL104" s="60"/>
-      <c r="BM104" s="60"/>
-      <c r="BN104" s="60"/>
-      <c r="BO104" s="60"/>
-      <c r="BP104" s="60"/>
-      <c r="BQ104" s="60"/>
-      <c r="BR104" s="60"/>
-      <c r="BS104" s="60"/>
-      <c r="BT104" s="60"/>
-      <c r="BU104" s="60"/>
-      <c r="BV104" s="60"/>
-      <c r="BW104" s="60"/>
-      <c r="BX104" s="60"/>
+      <c r="AY104" s="62"/>
+      <c r="AZ104" s="62"/>
+      <c r="BA104" s="62"/>
+      <c r="BB104" s="62"/>
+      <c r="BC104" s="62"/>
+      <c r="BD104" s="62"/>
+      <c r="BE104" s="62"/>
+      <c r="BF104" s="62"/>
+      <c r="BG104" s="62"/>
+      <c r="BH104" s="62"/>
+      <c r="BI104" s="62"/>
+      <c r="BJ104" s="62"/>
+      <c r="BK104" s="62"/>
+      <c r="BL104" s="62"/>
+      <c r="BM104" s="62"/>
+      <c r="BN104" s="62"/>
+      <c r="BO104" s="62"/>
+      <c r="BP104" s="62"/>
+      <c r="BQ104" s="62"/>
+      <c r="BR104" s="62"/>
+      <c r="BS104" s="62"/>
+      <c r="BT104" s="62"/>
+      <c r="BU104" s="62"/>
+      <c r="BV104" s="62"/>
+      <c r="BW104" s="62"/>
+      <c r="BX104" s="62"/>
     </row>
     <row r="105" customHeight="1" spans="51:76">
-      <c r="AY105" s="60"/>
-      <c r="AZ105" s="60"/>
-      <c r="BA105" s="60"/>
-      <c r="BB105" s="60"/>
-      <c r="BC105" s="60"/>
-      <c r="BD105" s="60"/>
-      <c r="BE105" s="60"/>
-      <c r="BF105" s="60"/>
-      <c r="BG105" s="60"/>
-      <c r="BH105" s="60"/>
-      <c r="BI105" s="60"/>
-      <c r="BJ105" s="60"/>
-      <c r="BK105" s="60"/>
-      <c r="BL105" s="60"/>
-      <c r="BM105" s="60"/>
-      <c r="BN105" s="60"/>
-      <c r="BO105" s="60"/>
-      <c r="BP105" s="60"/>
-      <c r="BQ105" s="60"/>
-      <c r="BR105" s="60"/>
-      <c r="BS105" s="60"/>
-      <c r="BT105" s="60"/>
-      <c r="BU105" s="60"/>
-      <c r="BV105" s="60"/>
-      <c r="BW105" s="60"/>
-      <c r="BX105" s="60"/>
+      <c r="AY105" s="62"/>
+      <c r="AZ105" s="62"/>
+      <c r="BA105" s="62"/>
+      <c r="BB105" s="62"/>
+      <c r="BC105" s="62"/>
+      <c r="BD105" s="62"/>
+      <c r="BE105" s="62"/>
+      <c r="BF105" s="62"/>
+      <c r="BG105" s="62"/>
+      <c r="BH105" s="62"/>
+      <c r="BI105" s="62"/>
+      <c r="BJ105" s="62"/>
+      <c r="BK105" s="62"/>
+      <c r="BL105" s="62"/>
+      <c r="BM105" s="62"/>
+      <c r="BN105" s="62"/>
+      <c r="BO105" s="62"/>
+      <c r="BP105" s="62"/>
+      <c r="BQ105" s="62"/>
+      <c r="BR105" s="62"/>
+      <c r="BS105" s="62"/>
+      <c r="BT105" s="62"/>
+      <c r="BU105" s="62"/>
+      <c r="BV105" s="62"/>
+      <c r="BW105" s="62"/>
+      <c r="BX105" s="62"/>
     </row>
     <row r="106" customHeight="1" spans="51:76">
-      <c r="AY106" s="60"/>
-      <c r="AZ106" s="60"/>
-      <c r="BA106" s="60"/>
-      <c r="BB106" s="60"/>
-      <c r="BC106" s="60"/>
-      <c r="BD106" s="60"/>
-      <c r="BE106" s="60"/>
-      <c r="BF106" s="60"/>
-      <c r="BG106" s="60"/>
-      <c r="BH106" s="60"/>
-      <c r="BI106" s="60"/>
-      <c r="BJ106" s="60"/>
-      <c r="BK106" s="60"/>
-      <c r="BL106" s="60"/>
-      <c r="BM106" s="60"/>
-      <c r="BN106" s="60"/>
-      <c r="BO106" s="60"/>
-      <c r="BP106" s="60"/>
-      <c r="BQ106" s="60"/>
-      <c r="BR106" s="60"/>
-      <c r="BS106" s="60"/>
-      <c r="BT106" s="60"/>
-      <c r="BU106" s="60"/>
-      <c r="BV106" s="60"/>
-      <c r="BW106" s="60"/>
-      <c r="BX106" s="60"/>
+      <c r="AY106" s="62"/>
+      <c r="AZ106" s="62"/>
+      <c r="BA106" s="62"/>
+      <c r="BB106" s="62"/>
+      <c r="BC106" s="62"/>
+      <c r="BD106" s="62"/>
+      <c r="BE106" s="62"/>
+      <c r="BF106" s="62"/>
+      <c r="BG106" s="62"/>
+      <c r="BH106" s="62"/>
+      <c r="BI106" s="62"/>
+      <c r="BJ106" s="62"/>
+      <c r="BK106" s="62"/>
+      <c r="BL106" s="62"/>
+      <c r="BM106" s="62"/>
+      <c r="BN106" s="62"/>
+      <c r="BO106" s="62"/>
+      <c r="BP106" s="62"/>
+      <c r="BQ106" s="62"/>
+      <c r="BR106" s="62"/>
+      <c r="BS106" s="62"/>
+      <c r="BT106" s="62"/>
+      <c r="BU106" s="62"/>
+      <c r="BV106" s="62"/>
+      <c r="BW106" s="62"/>
+      <c r="BX106" s="62"/>
     </row>
     <row r="107" customHeight="1" spans="51:76">
-      <c r="AY107" s="60"/>
-      <c r="AZ107" s="60"/>
-      <c r="BA107" s="60"/>
-      <c r="BB107" s="60"/>
-      <c r="BC107" s="60"/>
-      <c r="BD107" s="60"/>
-      <c r="BE107" s="60"/>
-      <c r="BF107" s="60"/>
-      <c r="BG107" s="60"/>
-      <c r="BH107" s="60"/>
-      <c r="BI107" s="60"/>
-      <c r="BJ107" s="60"/>
-      <c r="BK107" s="60"/>
-      <c r="BL107" s="60"/>
-      <c r="BM107" s="60"/>
-      <c r="BN107" s="60"/>
-      <c r="BO107" s="60"/>
-      <c r="BP107" s="60"/>
-      <c r="BQ107" s="60"/>
-      <c r="BR107" s="60"/>
-      <c r="BS107" s="60"/>
-      <c r="BT107" s="60"/>
-      <c r="BU107" s="60"/>
-      <c r="BV107" s="60"/>
-      <c r="BW107" s="60"/>
-      <c r="BX107" s="60"/>
+      <c r="AY107" s="62"/>
+      <c r="AZ107" s="62"/>
+      <c r="BA107" s="62"/>
+      <c r="BB107" s="62"/>
+      <c r="BC107" s="62"/>
+      <c r="BD107" s="62"/>
+      <c r="BE107" s="62"/>
+      <c r="BF107" s="62"/>
+      <c r="BG107" s="62"/>
+      <c r="BH107" s="62"/>
+      <c r="BI107" s="62"/>
+      <c r="BJ107" s="62"/>
+      <c r="BK107" s="62"/>
+      <c r="BL107" s="62"/>
+      <c r="BM107" s="62"/>
+      <c r="BN107" s="62"/>
+      <c r="BO107" s="62"/>
+      <c r="BP107" s="62"/>
+      <c r="BQ107" s="62"/>
+      <c r="BR107" s="62"/>
+      <c r="BS107" s="62"/>
+      <c r="BT107" s="62"/>
+      <c r="BU107" s="62"/>
+      <c r="BV107" s="62"/>
+      <c r="BW107" s="62"/>
+      <c r="BX107" s="62"/>
     </row>
     <row r="108" customHeight="1" spans="51:76">
-      <c r="AY108" s="60"/>
-      <c r="AZ108" s="60"/>
-      <c r="BA108" s="60"/>
-      <c r="BB108" s="60"/>
-      <c r="BC108" s="60"/>
-      <c r="BD108" s="60"/>
-      <c r="BE108" s="60"/>
-      <c r="BF108" s="60"/>
-      <c r="BG108" s="60"/>
-      <c r="BH108" s="60"/>
-      <c r="BI108" s="60"/>
-      <c r="BJ108" s="60"/>
-      <c r="BK108" s="60"/>
-      <c r="BL108" s="60"/>
-      <c r="BM108" s="60"/>
-      <c r="BN108" s="60"/>
-      <c r="BO108" s="60"/>
-      <c r="BP108" s="60"/>
-      <c r="BQ108" s="60"/>
-      <c r="BR108" s="60"/>
-      <c r="BS108" s="60"/>
-      <c r="BT108" s="60"/>
-      <c r="BU108" s="60"/>
-      <c r="BV108" s="60"/>
-      <c r="BW108" s="60"/>
-      <c r="BX108" s="60"/>
+      <c r="AY108" s="62"/>
+      <c r="AZ108" s="62"/>
+      <c r="BA108" s="62"/>
+      <c r="BB108" s="62"/>
+      <c r="BC108" s="62"/>
+      <c r="BD108" s="62"/>
+      <c r="BE108" s="62"/>
+      <c r="BF108" s="62"/>
+      <c r="BG108" s="62"/>
+      <c r="BH108" s="62"/>
+      <c r="BI108" s="62"/>
+      <c r="BJ108" s="62"/>
+      <c r="BK108" s="62"/>
+      <c r="BL108" s="62"/>
+      <c r="BM108" s="62"/>
+      <c r="BN108" s="62"/>
+      <c r="BO108" s="62"/>
+      <c r="BP108" s="62"/>
+      <c r="BQ108" s="62"/>
+      <c r="BR108" s="62"/>
+      <c r="BS108" s="62"/>
+      <c r="BT108" s="62"/>
+      <c r="BU108" s="62"/>
+      <c r="BV108" s="62"/>
+      <c r="BW108" s="62"/>
+      <c r="BX108" s="62"/>
     </row>
     <row r="109" customHeight="1" spans="51:76">
-      <c r="AY109" s="60"/>
-      <c r="AZ109" s="60"/>
-      <c r="BA109" s="60"/>
-      <c r="BB109" s="60"/>
-      <c r="BC109" s="60"/>
-      <c r="BD109" s="60"/>
-      <c r="BE109" s="60"/>
-      <c r="BF109" s="60"/>
-      <c r="BG109" s="60"/>
-      <c r="BH109" s="60"/>
-      <c r="BI109" s="60"/>
-      <c r="BJ109" s="60"/>
-      <c r="BK109" s="60"/>
-      <c r="BL109" s="60"/>
-      <c r="BM109" s="60"/>
-      <c r="BN109" s="60"/>
-      <c r="BO109" s="60"/>
-      <c r="BP109" s="60"/>
-      <c r="BQ109" s="60"/>
-      <c r="BR109" s="60"/>
-      <c r="BS109" s="60"/>
-      <c r="BT109" s="60"/>
-      <c r="BU109" s="60"/>
-      <c r="BV109" s="60"/>
-      <c r="BW109" s="60"/>
-      <c r="BX109" s="60"/>
+      <c r="AY109" s="62"/>
+      <c r="AZ109" s="62"/>
+      <c r="BA109" s="62"/>
+      <c r="BB109" s="62"/>
+      <c r="BC109" s="62"/>
+      <c r="BD109" s="62"/>
+      <c r="BE109" s="62"/>
+      <c r="BF109" s="62"/>
+      <c r="BG109" s="62"/>
+      <c r="BH109" s="62"/>
+      <c r="BI109" s="62"/>
+      <c r="BJ109" s="62"/>
+      <c r="BK109" s="62"/>
+      <c r="BL109" s="62"/>
+      <c r="BM109" s="62"/>
+      <c r="BN109" s="62"/>
+      <c r="BO109" s="62"/>
+      <c r="BP109" s="62"/>
+      <c r="BQ109" s="62"/>
+      <c r="BR109" s="62"/>
+      <c r="BS109" s="62"/>
+      <c r="BT109" s="62"/>
+      <c r="BU109" s="62"/>
+      <c r="BV109" s="62"/>
+      <c r="BW109" s="62"/>
+      <c r="BX109" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6305,91 +7205,91 @@
   <sheetData>
     <row r="2" spans="1:40">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" s="1">
         <v>7</v>
@@ -6421,91 +7321,91 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" s="1">
         <v>7</v>
@@ -6537,91 +7437,91 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" s="1">
         <v>7</v>
@@ -6653,91 +7553,91 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" s="1">
         <v>7</v>
@@ -6769,64 +7669,64 @@
     </row>
     <row r="6" spans="11:40">
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" s="1">
         <v>7</v>
@@ -6882,64 +7782,64 @@
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" s="1">
         <v>7</v>
@@ -6995,64 +7895,64 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" s="1">
         <v>7</v>
@@ -7108,64 +8008,64 @@
         <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" s="1">
         <v>7</v>
@@ -7221,64 +8121,64 @@
         <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" s="1">
         <v>7</v>
@@ -7334,64 +8234,64 @@
         <v>5</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" s="1">
         <v>7</v>
@@ -7447,64 +8347,64 @@
         <v>5</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" s="1">
         <v>7</v>
@@ -7613,64 +8513,64 @@
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF14" s="1">
         <v>7</v>
@@ -7726,64 +8626,64 @@
         <v>5</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="1">
         <v>7</v>
@@ -7994,7 +8894,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AF23" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -8522,124 +9422,124 @@
     </row>
     <row r="38" spans="1:40">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -8648,7 +9548,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
